--- a/excel/finished/焦化12/CK12-配煤-粉碎细度报表（月）.xlsx
+++ b/excel/finished/焦化12/CK12-配煤-粉碎细度报表（月）.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2、粉碎细度（月）" sheetId="1" r:id="rId1"/>
-    <sheet name="_crushing_month_all" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
+    <sheet name="2、粉碎细度（月）" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="_crushing_month_all" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="_dictionary" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
-    <t>焦炉入炉煤粉碎细度粒度分布记录表</t>
+    <t>备煤作业区1#2#焦炉入炉煤粉碎细度粒度分布记录表</t>
   </si>
   <si>
     <t>SGSSG-BSMCSA32-G001-06A</t>
@@ -118,244 +117,205 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="160" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="161" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="162" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="163" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="20"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color indexed="4"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <color indexed="20"/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <color indexed="2"/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <i/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <name val="Calibri"/>
+      <b/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <b/>
+      <color indexed="65"/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="仿宋"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="1"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="仿宋"/>
       <b/>
-      <sz val="11"/>
+      <color indexed="20"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="仿宋"/>
+      <b/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="仿宋"/>
+      <b/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <color indexed="64"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <color indexed="2"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="仿宋"/>
+      <color indexed="64"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="仿宋"/>
+      <color indexed="2"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="34">
@@ -363,198 +323,198 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.79998168889431398"/>
+        <bgColor theme="6" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.59999389629810496"/>
+        <bgColor theme="6" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241899"/>
+        <bgColor theme="6" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241899"/>
+        <bgColor theme="5" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241899"/>
+        <bgColor theme="4" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241899"/>
+        <bgColor theme="7" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.79998168889431398"/>
+        <bgColor theme="9" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.79998168889431398"/>
+        <bgColor theme="8" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431398"/>
+        <bgColor theme="4" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810496"/>
+        <bgColor theme="4" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431398"/>
+        <bgColor theme="5" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810496"/>
+        <bgColor theme="5" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7" tint="0.79998168889431398"/>
+        <bgColor theme="7" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7" tint="0.59999389629810496"/>
+        <bgColor theme="7" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.59999389629810496"/>
+        <bgColor theme="8" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.39997558519241899"/>
+        <bgColor theme="8" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.59999389629810496"/>
+        <bgColor theme="9" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.39997558519241899"/>
+        <bgColor theme="9" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="2"/>
+        <bgColor theme="2"/>
       </patternFill>
     </fill>
   </fills>
@@ -567,176 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,17 +557,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,24 +586,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,265 +624,427 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="7" borderId="2" numFmtId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="10" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="11" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="12" fillId="11" borderId="5" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="13" fillId="11" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="14" fillId="12" borderId="6" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="14" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="15" fillId="0" borderId="7" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="16" fillId="0" borderId="8" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="17" fillId="15" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="18" fillId="16" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="18" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="21" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="22" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="23" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="24" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="25" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="26" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="27" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="29" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="30" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="32" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+  <cellXfs count="34">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="23" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="24" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="25" fillId="33" borderId="9" numFmtId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="25" fillId="33" borderId="10" numFmtId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="25" fillId="33" borderId="10" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="25" fillId="33" borderId="11" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="25" fillId="33" borderId="12" numFmtId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="25" fillId="33" borderId="13" numFmtId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="25" fillId="33" borderId="13" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="26" fillId="33" borderId="14" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="27" fillId="0" borderId="15" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="27" fillId="0" borderId="16" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="28" fillId="0" borderId="16" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="29" fillId="0" borderId="16" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="30" fillId="0" borderId="16" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="17" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="27" fillId="0" borderId="18" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="27" fillId="0" borderId="19" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="28" fillId="0" borderId="19" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="30" fillId="0" borderId="19" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="20" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="29" fillId="0" borderId="19" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="27" fillId="0" borderId="12" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="27" fillId="0" borderId="13" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="28" fillId="0" borderId="13" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="30" fillId="0" borderId="13" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="14" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="31" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1151,17 +1099,296 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1204,73 +1431,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1278,7 +1445,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1304,7 +1471,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1356,16 +1523,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1381,7 +1560,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1416,101 +1595,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:O101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <selection activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="23.6333333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.9083333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.45" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.9083333333333" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.90833333333333" style="3" customWidth="1"/>
-    <col min="8" max="12" width="15.9083333333333" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.90833333333333" style="3" customWidth="1"/>
-    <col min="14" max="15" width="11.9083333333333" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
+    <col min="1" max="1" style="1" width="9"/>
+    <col customWidth="1" min="2" max="2" style="1" width="23.633333333333301"/>
+    <col customWidth="1" min="3" max="3" style="1" width="11.908333333333299"/>
+    <col customWidth="1" min="4" max="4" style="2" width="12.449999999999999"/>
+    <col customWidth="1" min="5" max="5" style="2" width="8"/>
+    <col customWidth="1" min="6" max="6" style="2" width="19.908333333333299"/>
+    <col customWidth="1" min="7" max="7" style="1" width="9.9083333333333297"/>
+    <col customWidth="1" min="8" max="12" style="1" width="15.908333333333299"/>
+    <col customWidth="1" min="13" max="13" style="1" width="9.9083333333333297"/>
+    <col customWidth="1" min="14" max="15" style="1" width="11.908333333333299"/>
+    <col min="16" max="16384" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.15" customHeight="1" spans="2:15">
-      <c r="B1" s="5" t="s">
+    <row ht="26.149999999999999" customHeight="1" r="1">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" ht="26.15" customHeight="1" spans="2:15">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="str">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row ht="26.149999999999999" customHeight="1" r="2">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="str">
         <f>IF(_metadata!B6="","",_metadata!B6)</f>
         <v/>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="29" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-    </row>
-    <row r="3" ht="26.25" customHeight="1" spans="2:15">
-      <c r="B3" s="8" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row ht="26.25" customHeight="1" r="3">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="26.25" customHeight="1" spans="2:15">
+    <row ht="26.25" customHeight="1" r="4">
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -1538,14 +1715,14 @@
         <v>16</v>
       </c>
       <c r="N4" s="13"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" ht="23" customHeight="1" spans="2:15">
-      <c r="B5" s="14" t="str">
+      <c r="O4" s="14"/>
+    </row>
+    <row ht="23" customHeight="1" r="5">
+      <c r="B5" s="15" t="str">
         <f>IF(_crushing_month_all!A2="","",_crushing_month_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="15" t="str">
+      <c r="C5" s="16" t="str">
         <f>IF(_crushing_month_all!B2="","",_crushing_month_all!B2)</f>
         <v/>
       </c>
@@ -1589,5579 +1766,5579 @@
         <f>IF(_crushing_month_all!L2="","",_crushing_month_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="32" t="str">
+      <c r="N5" s="19" t="str">
         <f>IF(_crushing_month_all!M2="","",_crushing_month_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="33" t="str">
+      <c r="O5" s="20" t="str">
         <f>IF(_crushing_month_all!N2="","",_crushing_month_all!N2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="23" customHeight="1" spans="2:15">
-      <c r="B6" s="19" t="str">
+    <row ht="23" customHeight="1" r="6">
+      <c r="B6" s="21" t="str">
         <f>IF(_crushing_month_all!A3="","",_crushing_month_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="20" t="str">
+      <c r="C6" s="22" t="str">
         <f>IF(_crushing_month_all!B3="","",_crushing_month_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="21" t="str">
+      <c r="D6" s="22" t="str">
         <f>IF(_crushing_month_all!C3="","",_crushing_month_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="21" t="str">
+      <c r="E6" s="22" t="str">
         <f>IF(_crushing_month_all!D3="","",_crushing_month_all!D3)</f>
         <v/>
       </c>
-      <c r="F6" s="21" t="str">
+      <c r="F6" s="22" t="str">
         <f>IF(_crushing_month_all!E3="","",_crushing_month_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="22" t="str">
+      <c r="G6" s="23" t="str">
         <f>IF(_crushing_month_all!F3="","",_crushing_month_all!F3)</f>
         <v/>
       </c>
-      <c r="H6" s="22" t="str">
+      <c r="H6" s="23" t="str">
         <f>IF(_crushing_month_all!G3="","",_crushing_month_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="22" t="str">
+      <c r="I6" s="23" t="str">
         <f>IF(_crushing_month_all!H3="","",_crushing_month_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="22" t="str">
+      <c r="J6" s="23" t="str">
         <f>IF(_crushing_month_all!I3="","",_crushing_month_all!I3)</f>
         <v/>
       </c>
-      <c r="K6" s="22" t="str">
+      <c r="K6" s="23" t="str">
         <f>IF(_crushing_month_all!J3="","",_crushing_month_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="22" t="str">
+      <c r="L6" s="23" t="str">
         <f>IF(_crushing_month_all!K3="","",_crushing_month_all!K3)</f>
         <v/>
       </c>
-      <c r="M6" s="22" t="str">
+      <c r="M6" s="23" t="str">
         <f>IF(_crushing_month_all!L3="","",_crushing_month_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="34" t="str">
+      <c r="N6" s="24" t="str">
         <f>IF(_crushing_month_all!M3="","",_crushing_month_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="35" t="str">
+      <c r="O6" s="25" t="str">
         <f>IF(_crushing_month_all!N3="","",_crushing_month_all!N3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="23" customHeight="1" spans="2:15">
-      <c r="B7" s="19" t="str">
+    <row ht="23" customHeight="1" r="7">
+      <c r="B7" s="21" t="str">
         <f>IF(_crushing_month_all!A4="","",_crushing_month_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="20" t="str">
+      <c r="C7" s="22" t="str">
         <f>IF(_crushing_month_all!B4="","",_crushing_month_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="21" t="str">
+      <c r="D7" s="22" t="str">
         <f>IF(_crushing_month_all!C4="","",_crushing_month_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="21" t="str">
+      <c r="E7" s="22" t="str">
         <f>IF(_crushing_month_all!D4="","",_crushing_month_all!D4)</f>
         <v/>
       </c>
-      <c r="F7" s="21" t="str">
+      <c r="F7" s="22" t="str">
         <f>IF(_crushing_month_all!E4="","",_crushing_month_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="23" t="str">
+      <c r="G7" s="26" t="str">
         <f>IF(_crushing_month_all!F4="","",_crushing_month_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="22" t="str">
+      <c r="H7" s="23" t="str">
         <f>IF(_crushing_month_all!G4="","",_crushing_month_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="22" t="str">
+      <c r="I7" s="23" t="str">
         <f>IF(_crushing_month_all!H4="","",_crushing_month_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="22" t="str">
+      <c r="J7" s="23" t="str">
         <f>IF(_crushing_month_all!I4="","",_crushing_month_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="22" t="str">
+      <c r="K7" s="23" t="str">
         <f>IF(_crushing_month_all!J4="","",_crushing_month_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="22" t="str">
+      <c r="L7" s="23" t="str">
         <f>IF(_crushing_month_all!K4="","",_crushing_month_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="22" t="str">
+      <c r="M7" s="23" t="str">
         <f>IF(_crushing_month_all!L4="","",_crushing_month_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="34" t="str">
+      <c r="N7" s="24" t="str">
         <f>IF(_crushing_month_all!M4="","",_crushing_month_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="35" t="str">
+      <c r="O7" s="25" t="str">
         <f>IF(_crushing_month_all!N4="","",_crushing_month_all!N4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="23" customHeight="1" spans="2:15">
-      <c r="B8" s="19" t="str">
+    <row ht="23" customHeight="1" r="8">
+      <c r="B8" s="21" t="str">
         <f>IF(_crushing_month_all!A5="","",_crushing_month_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="20" t="str">
+      <c r="C8" s="22" t="str">
         <f>IF(_crushing_month_all!B5="","",_crushing_month_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="22" t="str">
         <f>IF(_crushing_month_all!C5="","",_crushing_month_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="22" t="str">
         <f>IF(_crushing_month_all!D5="","",_crushing_month_all!D5)</f>
         <v/>
       </c>
-      <c r="F8" s="21" t="str">
+      <c r="F8" s="22" t="str">
         <f>IF(_crushing_month_all!E5="","",_crushing_month_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="22" t="str">
+      <c r="G8" s="23" t="str">
         <f>IF(_crushing_month_all!F5="","",_crushing_month_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_crushing_month_all!G5="","",_crushing_month_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_crushing_month_all!H5="","",_crushing_month_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="22" t="str">
+      <c r="J8" s="23" t="str">
         <f>IF(_crushing_month_all!I5="","",_crushing_month_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="22" t="str">
+      <c r="K8" s="23" t="str">
         <f>IF(_crushing_month_all!J5="","",_crushing_month_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="22" t="str">
+      <c r="L8" s="23" t="str">
         <f>IF(_crushing_month_all!K5="","",_crushing_month_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="22" t="str">
+      <c r="M8" s="23" t="str">
         <f>IF(_crushing_month_all!L5="","",_crushing_month_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="34" t="str">
+      <c r="N8" s="24" t="str">
         <f>IF(_crushing_month_all!M5="","",_crushing_month_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="35" t="str">
+      <c r="O8" s="25" t="str">
         <f>IF(_crushing_month_all!N5="","",_crushing_month_all!N5)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="23" customHeight="1" spans="2:15">
-      <c r="B9" s="19" t="str">
+    <row ht="23" customHeight="1" r="9">
+      <c r="B9" s="21" t="str">
         <f>IF(_crushing_month_all!A6="","",_crushing_month_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="22" t="str">
         <f>IF(_crushing_month_all!B6="","",_crushing_month_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="22" t="str">
         <f>IF(_crushing_month_all!C6="","",_crushing_month_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="22" t="str">
         <f>IF(_crushing_month_all!D6="","",_crushing_month_all!D6)</f>
         <v/>
       </c>
-      <c r="F9" s="23" t="str">
+      <c r="F9" s="26" t="str">
         <f>IF(_crushing_month_all!E6="","",_crushing_month_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="23" t="str">
         <f>IF(_crushing_month_all!F6="","",_crushing_month_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="22" t="str">
+      <c r="H9" s="23" t="str">
         <f>IF(_crushing_month_all!G6="","",_crushing_month_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="22" t="str">
+      <c r="I9" s="23" t="str">
         <f>IF(_crushing_month_all!H6="","",_crushing_month_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="23" t="str">
         <f>IF(_crushing_month_all!I6="","",_crushing_month_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="23" t="str">
         <f>IF(_crushing_month_all!J6="","",_crushing_month_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="22" t="str">
+      <c r="L9" s="23" t="str">
         <f>IF(_crushing_month_all!K6="","",_crushing_month_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="22" t="str">
+      <c r="M9" s="23" t="str">
         <f>IF(_crushing_month_all!L6="","",_crushing_month_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="34" t="str">
+      <c r="N9" s="24" t="str">
         <f>IF(_crushing_month_all!M6="","",_crushing_month_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="35" t="str">
+      <c r="O9" s="25" t="str">
         <f>IF(_crushing_month_all!N6="","",_crushing_month_all!N6)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="23" customHeight="1" spans="2:15">
-      <c r="B10" s="19" t="str">
+    <row ht="23" customHeight="1" r="10">
+      <c r="B10" s="21" t="str">
         <f>IF(_crushing_month_all!A7="","",_crushing_month_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="20" t="str">
+      <c r="C10" s="22" t="str">
         <f>IF(_crushing_month_all!B7="","",_crushing_month_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="21" t="str">
+      <c r="D10" s="22" t="str">
         <f>IF(_crushing_month_all!C7="","",_crushing_month_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="21" t="str">
+      <c r="E10" s="22" t="str">
         <f>IF(_crushing_month_all!D7="","",_crushing_month_all!D7)</f>
         <v/>
       </c>
-      <c r="F10" s="21" t="str">
+      <c r="F10" s="22" t="str">
         <f>IF(_crushing_month_all!E7="","",_crushing_month_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="22" t="str">
+      <c r="G10" s="23" t="str">
         <f>IF(_crushing_month_all!F7="","",_crushing_month_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="22" t="str">
+      <c r="H10" s="23" t="str">
         <f>IF(_crushing_month_all!G7="","",_crushing_month_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="22" t="str">
+      <c r="I10" s="23" t="str">
         <f>IF(_crushing_month_all!H7="","",_crushing_month_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="22" t="str">
+      <c r="J10" s="23" t="str">
         <f>IF(_crushing_month_all!I7="","",_crushing_month_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="22" t="str">
+      <c r="K10" s="23" t="str">
         <f>IF(_crushing_month_all!J7="","",_crushing_month_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="22" t="str">
+      <c r="L10" s="23" t="str">
         <f>IF(_crushing_month_all!K7="","",_crushing_month_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="22" t="str">
+      <c r="M10" s="23" t="str">
         <f>IF(_crushing_month_all!L7="","",_crushing_month_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="34" t="str">
+      <c r="N10" s="24" t="str">
         <f>IF(_crushing_month_all!M7="","",_crushing_month_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="35" t="str">
+      <c r="O10" s="25" t="str">
         <f>IF(_crushing_month_all!N7="","",_crushing_month_all!N7)</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="23" customHeight="1" spans="2:15">
-      <c r="B11" s="19" t="str">
+    <row ht="23" customHeight="1" r="11">
+      <c r="B11" s="21" t="str">
         <f>IF(_crushing_month_all!A8="","",_crushing_month_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="20" t="str">
+      <c r="C11" s="22" t="str">
         <f>IF(_crushing_month_all!B8="","",_crushing_month_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="21" t="str">
+      <c r="D11" s="22" t="str">
         <f>IF(_crushing_month_all!C8="","",_crushing_month_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="21" t="str">
+      <c r="E11" s="22" t="str">
         <f>IF(_crushing_month_all!D8="","",_crushing_month_all!D8)</f>
         <v/>
       </c>
-      <c r="F11" s="21" t="str">
+      <c r="F11" s="22" t="str">
         <f>IF(_crushing_month_all!E8="","",_crushing_month_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="22" t="str">
+      <c r="G11" s="23" t="str">
         <f>IF(_crushing_month_all!F8="","",_crushing_month_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="22" t="str">
+      <c r="H11" s="23" t="str">
         <f>IF(_crushing_month_all!G8="","",_crushing_month_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="22" t="str">
+      <c r="I11" s="23" t="str">
         <f>IF(_crushing_month_all!H8="","",_crushing_month_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="22" t="str">
+      <c r="J11" s="23" t="str">
         <f>IF(_crushing_month_all!I8="","",_crushing_month_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="22" t="str">
+      <c r="K11" s="23" t="str">
         <f>IF(_crushing_month_all!J8="","",_crushing_month_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="22" t="str">
+      <c r="L11" s="23" t="str">
         <f>IF(_crushing_month_all!K8="","",_crushing_month_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="22" t="str">
+      <c r="M11" s="23" t="str">
         <f>IF(_crushing_month_all!L8="","",_crushing_month_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="34" t="str">
+      <c r="N11" s="24" t="str">
         <f>IF(_crushing_month_all!M8="","",_crushing_month_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="35" t="str">
+      <c r="O11" s="25" t="str">
         <f>IF(_crushing_month_all!N8="","",_crushing_month_all!N8)</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="23" customHeight="1" spans="2:15">
-      <c r="B12" s="19" t="str">
+    <row ht="23" customHeight="1" r="12">
+      <c r="B12" s="21" t="str">
         <f>IF(_crushing_month_all!A9="","",_crushing_month_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="20" t="str">
+      <c r="C12" s="22" t="str">
         <f>IF(_crushing_month_all!B9="","",_crushing_month_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="21" t="str">
+      <c r="D12" s="22" t="str">
         <f>IF(_crushing_month_all!C9="","",_crushing_month_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="21" t="str">
+      <c r="E12" s="22" t="str">
         <f>IF(_crushing_month_all!D9="","",_crushing_month_all!D9)</f>
         <v/>
       </c>
-      <c r="F12" s="21" t="str">
+      <c r="F12" s="22" t="str">
         <f>IF(_crushing_month_all!E9="","",_crushing_month_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="22" t="str">
+      <c r="G12" s="23" t="str">
         <f>IF(_crushing_month_all!F9="","",_crushing_month_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="22" t="str">
+      <c r="H12" s="23" t="str">
         <f>IF(_crushing_month_all!G9="","",_crushing_month_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="22" t="str">
+      <c r="I12" s="23" t="str">
         <f>IF(_crushing_month_all!H9="","",_crushing_month_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="22" t="str">
+      <c r="J12" s="23" t="str">
         <f>IF(_crushing_month_all!I9="","",_crushing_month_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="22" t="str">
+      <c r="K12" s="23" t="str">
         <f>IF(_crushing_month_all!J9="","",_crushing_month_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="22" t="str">
+      <c r="L12" s="23" t="str">
         <f>IF(_crushing_month_all!K9="","",_crushing_month_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="22" t="str">
+      <c r="M12" s="23" t="str">
         <f>IF(_crushing_month_all!L9="","",_crushing_month_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="34" t="str">
+      <c r="N12" s="24" t="str">
         <f>IF(_crushing_month_all!M9="","",_crushing_month_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="35" t="str">
+      <c r="O12" s="25" t="str">
         <f>IF(_crushing_month_all!N9="","",_crushing_month_all!N9)</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="23" customHeight="1" spans="2:15">
-      <c r="B13" s="19" t="str">
+    <row ht="23" customHeight="1" r="13">
+      <c r="B13" s="21" t="str">
         <f>IF(_crushing_month_all!A10="","",_crushing_month_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="20" t="str">
+      <c r="C13" s="22" t="str">
         <f>IF(_crushing_month_all!B10="","",_crushing_month_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="21" t="str">
+      <c r="D13" s="22" t="str">
         <f>IF(_crushing_month_all!C10="","",_crushing_month_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="21" t="str">
+      <c r="E13" s="22" t="str">
         <f>IF(_crushing_month_all!D10="","",_crushing_month_all!D10)</f>
         <v/>
       </c>
-      <c r="F13" s="21" t="str">
+      <c r="F13" s="22" t="str">
         <f>IF(_crushing_month_all!E10="","",_crushing_month_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="22" t="str">
+      <c r="G13" s="23" t="str">
         <f>IF(_crushing_month_all!F10="","",_crushing_month_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="22" t="str">
+      <c r="H13" s="23" t="str">
         <f>IF(_crushing_month_all!G10="","",_crushing_month_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="22" t="str">
+      <c r="I13" s="23" t="str">
         <f>IF(_crushing_month_all!H10="","",_crushing_month_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="22" t="str">
+      <c r="J13" s="23" t="str">
         <f>IF(_crushing_month_all!I10="","",_crushing_month_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="22" t="str">
+      <c r="K13" s="23" t="str">
         <f>IF(_crushing_month_all!J10="","",_crushing_month_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="22" t="str">
+      <c r="L13" s="23" t="str">
         <f>IF(_crushing_month_all!K10="","",_crushing_month_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="22" t="str">
+      <c r="M13" s="23" t="str">
         <f>IF(_crushing_month_all!L10="","",_crushing_month_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="34" t="str">
+      <c r="N13" s="24" t="str">
         <f>IF(_crushing_month_all!M10="","",_crushing_month_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="35" t="str">
+      <c r="O13" s="25" t="str">
         <f>IF(_crushing_month_all!N10="","",_crushing_month_all!N10)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="23" customHeight="1" spans="2:15">
-      <c r="B14" s="19" t="str">
+    <row ht="23" customHeight="1" r="14">
+      <c r="B14" s="21" t="str">
         <f>IF(_crushing_month_all!A11="","",_crushing_month_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="20" t="str">
+      <c r="C14" s="22" t="str">
         <f>IF(_crushing_month_all!B11="","",_crushing_month_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="21" t="str">
+      <c r="D14" s="22" t="str">
         <f>IF(_crushing_month_all!C11="","",_crushing_month_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="21" t="str">
+      <c r="E14" s="22" t="str">
         <f>IF(_crushing_month_all!D11="","",_crushing_month_all!D11)</f>
         <v/>
       </c>
-      <c r="F14" s="21" t="str">
+      <c r="F14" s="22" t="str">
         <f>IF(_crushing_month_all!E11="","",_crushing_month_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="22" t="str">
+      <c r="G14" s="23" t="str">
         <f>IF(_crushing_month_all!F11="","",_crushing_month_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="22" t="str">
+      <c r="H14" s="23" t="str">
         <f>IF(_crushing_month_all!G11="","",_crushing_month_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="22" t="str">
+      <c r="I14" s="23" t="str">
         <f>IF(_crushing_month_all!H11="","",_crushing_month_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="22" t="str">
+      <c r="J14" s="23" t="str">
         <f>IF(_crushing_month_all!I11="","",_crushing_month_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="22" t="str">
+      <c r="K14" s="23" t="str">
         <f>IF(_crushing_month_all!J11="","",_crushing_month_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="22" t="str">
+      <c r="L14" s="23" t="str">
         <f>IF(_crushing_month_all!K11="","",_crushing_month_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="22" t="str">
+      <c r="M14" s="23" t="str">
         <f>IF(_crushing_month_all!L11="","",_crushing_month_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="34" t="str">
+      <c r="N14" s="24" t="str">
         <f>IF(_crushing_month_all!M11="","",_crushing_month_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="35" t="str">
+      <c r="O14" s="25" t="str">
         <f>IF(_crushing_month_all!N11="","",_crushing_month_all!N11)</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="23" customHeight="1" spans="2:15">
-      <c r="B15" s="19" t="str">
+    <row ht="23" customHeight="1" r="15">
+      <c r="B15" s="21" t="str">
         <f>IF(_crushing_month_all!A12="","",_crushing_month_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="22" t="str">
         <f>IF(_crushing_month_all!B12="","",_crushing_month_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="21" t="str">
+      <c r="D15" s="22" t="str">
         <f>IF(_crushing_month_all!C12="","",_crushing_month_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="22" t="str">
         <f>IF(_crushing_month_all!D12="","",_crushing_month_all!D12)</f>
         <v/>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="22" t="str">
         <f>IF(_crushing_month_all!E12="","",_crushing_month_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="23" t="str">
         <f>IF(_crushing_month_all!F12="","",_crushing_month_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="22" t="str">
+      <c r="H15" s="23" t="str">
         <f>IF(_crushing_month_all!G12="","",_crushing_month_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="22" t="str">
+      <c r="I15" s="23" t="str">
         <f>IF(_crushing_month_all!H12="","",_crushing_month_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="22" t="str">
+      <c r="J15" s="23" t="str">
         <f>IF(_crushing_month_all!I12="","",_crushing_month_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="22" t="str">
+      <c r="K15" s="23" t="str">
         <f>IF(_crushing_month_all!J12="","",_crushing_month_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="22" t="str">
+      <c r="L15" s="23" t="str">
         <f>IF(_crushing_month_all!K12="","",_crushing_month_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="22" t="str">
+      <c r="M15" s="23" t="str">
         <f>IF(_crushing_month_all!L12="","",_crushing_month_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="34" t="str">
+      <c r="N15" s="24" t="str">
         <f>IF(_crushing_month_all!M12="","",_crushing_month_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="35" t="str">
+      <c r="O15" s="25" t="str">
         <f>IF(_crushing_month_all!N12="","",_crushing_month_all!N12)</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="23" customHeight="1" spans="2:15">
-      <c r="B16" s="19" t="str">
+    <row ht="23" customHeight="1" r="16">
+      <c r="B16" s="21" t="str">
         <f>IF(_crushing_month_all!A13="","",_crushing_month_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="20" t="str">
+      <c r="C16" s="22" t="str">
         <f>IF(_crushing_month_all!B13="","",_crushing_month_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="21" t="str">
+      <c r="D16" s="22" t="str">
         <f>IF(_crushing_month_all!C13="","",_crushing_month_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="21" t="str">
+      <c r="E16" s="22" t="str">
         <f>IF(_crushing_month_all!D13="","",_crushing_month_all!D13)</f>
         <v/>
       </c>
-      <c r="F16" s="21" t="str">
+      <c r="F16" s="22" t="str">
         <f>IF(_crushing_month_all!E13="","",_crushing_month_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="22" t="str">
+      <c r="G16" s="23" t="str">
         <f>IF(_crushing_month_all!F13="","",_crushing_month_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="22" t="str">
+      <c r="H16" s="23" t="str">
         <f>IF(_crushing_month_all!G13="","",_crushing_month_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="22" t="str">
+      <c r="I16" s="23" t="str">
         <f>IF(_crushing_month_all!H13="","",_crushing_month_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="22" t="str">
+      <c r="J16" s="23" t="str">
         <f>IF(_crushing_month_all!I13="","",_crushing_month_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="22" t="str">
+      <c r="K16" s="23" t="str">
         <f>IF(_crushing_month_all!J13="","",_crushing_month_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="22" t="str">
+      <c r="L16" s="23" t="str">
         <f>IF(_crushing_month_all!K13="","",_crushing_month_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="22" t="str">
+      <c r="M16" s="23" t="str">
         <f>IF(_crushing_month_all!L13="","",_crushing_month_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="34" t="str">
+      <c r="N16" s="24" t="str">
         <f>IF(_crushing_month_all!M13="","",_crushing_month_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="35" t="str">
+      <c r="O16" s="25" t="str">
         <f>IF(_crushing_month_all!N13="","",_crushing_month_all!N13)</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="23" customHeight="1" spans="2:15">
-      <c r="B17" s="19" t="str">
+    <row ht="23" customHeight="1" r="17">
+      <c r="B17" s="21" t="str">
         <f>IF(_crushing_month_all!A14="","",_crushing_month_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="20" t="str">
+      <c r="C17" s="22" t="str">
         <f>IF(_crushing_month_all!B14="","",_crushing_month_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="21" t="str">
+      <c r="D17" s="22" t="str">
         <f>IF(_crushing_month_all!C14="","",_crushing_month_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="21" t="str">
+      <c r="E17" s="22" t="str">
         <f>IF(_crushing_month_all!D14="","",_crushing_month_all!D14)</f>
         <v/>
       </c>
-      <c r="F17" s="21" t="str">
+      <c r="F17" s="22" t="str">
         <f>IF(_crushing_month_all!E14="","",_crushing_month_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="22" t="str">
+      <c r="G17" s="23" t="str">
         <f>IF(_crushing_month_all!F14="","",_crushing_month_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="22" t="str">
+      <c r="H17" s="23" t="str">
         <f>IF(_crushing_month_all!G14="","",_crushing_month_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="22" t="str">
+      <c r="I17" s="23" t="str">
         <f>IF(_crushing_month_all!H14="","",_crushing_month_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="22" t="str">
+      <c r="J17" s="23" t="str">
         <f>IF(_crushing_month_all!I14="","",_crushing_month_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="22" t="str">
+      <c r="K17" s="23" t="str">
         <f>IF(_crushing_month_all!J14="","",_crushing_month_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="22" t="str">
+      <c r="L17" s="23" t="str">
         <f>IF(_crushing_month_all!K14="","",_crushing_month_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="22" t="str">
+      <c r="M17" s="23" t="str">
         <f>IF(_crushing_month_all!L14="","",_crushing_month_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="34" t="str">
+      <c r="N17" s="24" t="str">
         <f>IF(_crushing_month_all!M14="","",_crushing_month_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="35" t="str">
+      <c r="O17" s="25" t="str">
         <f>IF(_crushing_month_all!N14="","",_crushing_month_all!N14)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="23" customHeight="1" spans="2:15">
-      <c r="B18" s="19" t="str">
+    <row ht="23" customHeight="1" r="18">
+      <c r="B18" s="21" t="str">
         <f>IF(_crushing_month_all!A15="","",_crushing_month_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="20" t="str">
+      <c r="C18" s="22" t="str">
         <f>IF(_crushing_month_all!B15="","",_crushing_month_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="21" t="str">
+      <c r="D18" s="22" t="str">
         <f>IF(_crushing_month_all!C15="","",_crushing_month_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="21" t="str">
+      <c r="E18" s="22" t="str">
         <f>IF(_crushing_month_all!D15="","",_crushing_month_all!D15)</f>
         <v/>
       </c>
-      <c r="F18" s="21" t="str">
+      <c r="F18" s="22" t="str">
         <f>IF(_crushing_month_all!E15="","",_crushing_month_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="22" t="str">
+      <c r="G18" s="23" t="str">
         <f>IF(_crushing_month_all!F15="","",_crushing_month_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="22" t="str">
+      <c r="H18" s="23" t="str">
         <f>IF(_crushing_month_all!G15="","",_crushing_month_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="22" t="str">
+      <c r="I18" s="23" t="str">
         <f>IF(_crushing_month_all!H15="","",_crushing_month_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="22" t="str">
+      <c r="J18" s="23" t="str">
         <f>IF(_crushing_month_all!I15="","",_crushing_month_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="22" t="str">
+      <c r="K18" s="23" t="str">
         <f>IF(_crushing_month_all!J15="","",_crushing_month_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="22" t="str">
+      <c r="L18" s="23" t="str">
         <f>IF(_crushing_month_all!K15="","",_crushing_month_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="22" t="str">
+      <c r="M18" s="23" t="str">
         <f>IF(_crushing_month_all!L15="","",_crushing_month_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="34" t="str">
+      <c r="N18" s="24" t="str">
         <f>IF(_crushing_month_all!M15="","",_crushing_month_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="35" t="str">
+      <c r="O18" s="25" t="str">
         <f>IF(_crushing_month_all!N15="","",_crushing_month_all!N15)</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="23" customHeight="1" spans="2:15">
-      <c r="B19" s="19" t="str">
+    <row ht="23" customHeight="1" r="19">
+      <c r="B19" s="21" t="str">
         <f>IF(_crushing_month_all!A16="","",_crushing_month_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="20" t="str">
+      <c r="C19" s="22" t="str">
         <f>IF(_crushing_month_all!B16="","",_crushing_month_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="21" t="str">
+      <c r="D19" s="22" t="str">
         <f>IF(_crushing_month_all!C16="","",_crushing_month_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="21" t="str">
+      <c r="E19" s="22" t="str">
         <f>IF(_crushing_month_all!D16="","",_crushing_month_all!D16)</f>
         <v/>
       </c>
-      <c r="F19" s="21" t="str">
+      <c r="F19" s="22" t="str">
         <f>IF(_crushing_month_all!E16="","",_crushing_month_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="22" t="str">
+      <c r="G19" s="23" t="str">
         <f>IF(_crushing_month_all!F16="","",_crushing_month_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="22" t="str">
+      <c r="H19" s="23" t="str">
         <f>IF(_crushing_month_all!G16="","",_crushing_month_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="22" t="str">
+      <c r="I19" s="23" t="str">
         <f>IF(_crushing_month_all!H16="","",_crushing_month_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="22" t="str">
+      <c r="J19" s="23" t="str">
         <f>IF(_crushing_month_all!I16="","",_crushing_month_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="22" t="str">
+      <c r="K19" s="23" t="str">
         <f>IF(_crushing_month_all!J16="","",_crushing_month_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="22" t="str">
+      <c r="L19" s="23" t="str">
         <f>IF(_crushing_month_all!K16="","",_crushing_month_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="22" t="str">
+      <c r="M19" s="23" t="str">
         <f>IF(_crushing_month_all!L16="","",_crushing_month_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="34" t="str">
+      <c r="N19" s="24" t="str">
         <f>IF(_crushing_month_all!M16="","",_crushing_month_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="35" t="str">
+      <c r="O19" s="25" t="str">
         <f>IF(_crushing_month_all!N16="","",_crushing_month_all!N16)</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="23" customHeight="1" spans="2:15">
-      <c r="B20" s="19" t="str">
+    <row ht="23" customHeight="1" r="20">
+      <c r="B20" s="21" t="str">
         <f>IF(_crushing_month_all!A17="","",_crushing_month_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="20" t="str">
+      <c r="C20" s="22" t="str">
         <f>IF(_crushing_month_all!B17="","",_crushing_month_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="21" t="str">
+      <c r="D20" s="22" t="str">
         <f>IF(_crushing_month_all!C17="","",_crushing_month_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="21" t="str">
+      <c r="E20" s="22" t="str">
         <f>IF(_crushing_month_all!D17="","",_crushing_month_all!D17)</f>
         <v/>
       </c>
-      <c r="F20" s="21" t="str">
+      <c r="F20" s="22" t="str">
         <f>IF(_crushing_month_all!E17="","",_crushing_month_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="22" t="str">
+      <c r="G20" s="23" t="str">
         <f>IF(_crushing_month_all!F17="","",_crushing_month_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="22" t="str">
+      <c r="H20" s="23" t="str">
         <f>IF(_crushing_month_all!G17="","",_crushing_month_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="22" t="str">
+      <c r="I20" s="23" t="str">
         <f>IF(_crushing_month_all!H17="","",_crushing_month_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="22" t="str">
+      <c r="J20" s="23" t="str">
         <f>IF(_crushing_month_all!I17="","",_crushing_month_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="22" t="str">
+      <c r="K20" s="23" t="str">
         <f>IF(_crushing_month_all!J17="","",_crushing_month_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="22" t="str">
+      <c r="L20" s="23" t="str">
         <f>IF(_crushing_month_all!K17="","",_crushing_month_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="22" t="str">
+      <c r="M20" s="23" t="str">
         <f>IF(_crushing_month_all!L17="","",_crushing_month_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="34" t="str">
+      <c r="N20" s="24" t="str">
         <f>IF(_crushing_month_all!M17="","",_crushing_month_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="35" t="str">
+      <c r="O20" s="25" t="str">
         <f>IF(_crushing_month_all!N17="","",_crushing_month_all!N17)</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="23" customHeight="1" spans="2:15">
-      <c r="B21" s="19" t="str">
+    <row ht="23" customHeight="1" r="21">
+      <c r="B21" s="21" t="str">
         <f>IF(_crushing_month_all!A18="","",_crushing_month_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="20" t="str">
+      <c r="C21" s="22" t="str">
         <f>IF(_crushing_month_all!B18="","",_crushing_month_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="21" t="str">
+      <c r="D21" s="22" t="str">
         <f>IF(_crushing_month_all!C18="","",_crushing_month_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="21" t="str">
+      <c r="E21" s="22" t="str">
         <f>IF(_crushing_month_all!D18="","",_crushing_month_all!D18)</f>
         <v/>
       </c>
-      <c r="F21" s="21" t="str">
+      <c r="F21" s="22" t="str">
         <f>IF(_crushing_month_all!E18="","",_crushing_month_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="22" t="str">
+      <c r="G21" s="23" t="str">
         <f>IF(_crushing_month_all!F18="","",_crushing_month_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="22" t="str">
+      <c r="H21" s="23" t="str">
         <f>IF(_crushing_month_all!G18="","",_crushing_month_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="22" t="str">
+      <c r="I21" s="23" t="str">
         <f>IF(_crushing_month_all!H18="","",_crushing_month_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="22" t="str">
+      <c r="J21" s="23" t="str">
         <f>IF(_crushing_month_all!I18="","",_crushing_month_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="22" t="str">
+      <c r="K21" s="23" t="str">
         <f>IF(_crushing_month_all!J18="","",_crushing_month_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="22" t="str">
+      <c r="L21" s="23" t="str">
         <f>IF(_crushing_month_all!K18="","",_crushing_month_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="22" t="str">
+      <c r="M21" s="23" t="str">
         <f>IF(_crushing_month_all!L18="","",_crushing_month_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="34" t="str">
+      <c r="N21" s="24" t="str">
         <f>IF(_crushing_month_all!M18="","",_crushing_month_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="35" t="str">
+      <c r="O21" s="25" t="str">
         <f>IF(_crushing_month_all!N18="","",_crushing_month_all!N18)</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="23" customHeight="1" spans="2:15">
-      <c r="B22" s="19" t="str">
+    <row ht="23" customHeight="1" r="22">
+      <c r="B22" s="21" t="str">
         <f>IF(_crushing_month_all!A19="","",_crushing_month_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="20" t="str">
+      <c r="C22" s="22" t="str">
         <f>IF(_crushing_month_all!B19="","",_crushing_month_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="21" t="str">
+      <c r="D22" s="22" t="str">
         <f>IF(_crushing_month_all!C19="","",_crushing_month_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="21" t="str">
+      <c r="E22" s="22" t="str">
         <f>IF(_crushing_month_all!D19="","",_crushing_month_all!D19)</f>
         <v/>
       </c>
-      <c r="F22" s="21" t="str">
+      <c r="F22" s="22" t="str">
         <f>IF(_crushing_month_all!E19="","",_crushing_month_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="22" t="str">
+      <c r="G22" s="23" t="str">
         <f>IF(_crushing_month_all!F19="","",_crushing_month_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="22" t="str">
+      <c r="H22" s="23" t="str">
         <f>IF(_crushing_month_all!G19="","",_crushing_month_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="22" t="str">
+      <c r="I22" s="23" t="str">
         <f>IF(_crushing_month_all!H19="","",_crushing_month_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="22" t="str">
+      <c r="J22" s="23" t="str">
         <f>IF(_crushing_month_all!I19="","",_crushing_month_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="22" t="str">
+      <c r="K22" s="23" t="str">
         <f>IF(_crushing_month_all!J19="","",_crushing_month_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="22" t="str">
+      <c r="L22" s="23" t="str">
         <f>IF(_crushing_month_all!K19="","",_crushing_month_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="22" t="str">
+      <c r="M22" s="23" t="str">
         <f>IF(_crushing_month_all!L19="","",_crushing_month_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="34" t="str">
+      <c r="N22" s="24" t="str">
         <f>IF(_crushing_month_all!M19="","",_crushing_month_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="35" t="str">
+      <c r="O22" s="25" t="str">
         <f>IF(_crushing_month_all!N19="","",_crushing_month_all!N19)</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="23" customHeight="1" spans="2:15">
-      <c r="B23" s="19" t="str">
+    <row ht="23" customHeight="1" r="23">
+      <c r="B23" s="21" t="str">
         <f>IF(_crushing_month_all!A20="","",_crushing_month_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="20" t="str">
+      <c r="C23" s="22" t="str">
         <f>IF(_crushing_month_all!B20="","",_crushing_month_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="21" t="str">
+      <c r="D23" s="22" t="str">
         <f>IF(_crushing_month_all!C20="","",_crushing_month_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="21" t="str">
+      <c r="E23" s="22" t="str">
         <f>IF(_crushing_month_all!D20="","",_crushing_month_all!D20)</f>
         <v/>
       </c>
-      <c r="F23" s="21" t="str">
+      <c r="F23" s="22" t="str">
         <f>IF(_crushing_month_all!E20="","",_crushing_month_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="22" t="str">
+      <c r="G23" s="23" t="str">
         <f>IF(_crushing_month_all!F20="","",_crushing_month_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="22" t="str">
+      <c r="H23" s="23" t="str">
         <f>IF(_crushing_month_all!G20="","",_crushing_month_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="22" t="str">
+      <c r="I23" s="23" t="str">
         <f>IF(_crushing_month_all!H20="","",_crushing_month_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="22" t="str">
+      <c r="J23" s="23" t="str">
         <f>IF(_crushing_month_all!I20="","",_crushing_month_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="22" t="str">
+      <c r="K23" s="23" t="str">
         <f>IF(_crushing_month_all!J20="","",_crushing_month_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="22" t="str">
+      <c r="L23" s="23" t="str">
         <f>IF(_crushing_month_all!K20="","",_crushing_month_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="22" t="str">
+      <c r="M23" s="23" t="str">
         <f>IF(_crushing_month_all!L20="","",_crushing_month_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="34" t="str">
+      <c r="N23" s="24" t="str">
         <f>IF(_crushing_month_all!M20="","",_crushing_month_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="35" t="str">
+      <c r="O23" s="25" t="str">
         <f>IF(_crushing_month_all!N20="","",_crushing_month_all!N20)</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="23" customHeight="1" spans="2:15">
-      <c r="B24" s="19" t="str">
+    <row ht="23" customHeight="1" r="24">
+      <c r="B24" s="21" t="str">
         <f>IF(_crushing_month_all!A21="","",_crushing_month_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="20" t="str">
+      <c r="C24" s="22" t="str">
         <f>IF(_crushing_month_all!B21="","",_crushing_month_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="21" t="str">
+      <c r="D24" s="22" t="str">
         <f>IF(_crushing_month_all!C21="","",_crushing_month_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="21" t="str">
+      <c r="E24" s="22" t="str">
         <f>IF(_crushing_month_all!D21="","",_crushing_month_all!D21)</f>
         <v/>
       </c>
-      <c r="F24" s="21" t="str">
+      <c r="F24" s="22" t="str">
         <f>IF(_crushing_month_all!E21="","",_crushing_month_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="22" t="str">
+      <c r="G24" s="23" t="str">
         <f>IF(_crushing_month_all!F21="","",_crushing_month_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="22" t="str">
+      <c r="H24" s="23" t="str">
         <f>IF(_crushing_month_all!G21="","",_crushing_month_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="22" t="str">
+      <c r="I24" s="23" t="str">
         <f>IF(_crushing_month_all!H21="","",_crushing_month_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="22" t="str">
+      <c r="J24" s="23" t="str">
         <f>IF(_crushing_month_all!I21="","",_crushing_month_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="22" t="str">
+      <c r="K24" s="23" t="str">
         <f>IF(_crushing_month_all!J21="","",_crushing_month_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="22" t="str">
+      <c r="L24" s="23" t="str">
         <f>IF(_crushing_month_all!K21="","",_crushing_month_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="22" t="str">
+      <c r="M24" s="23" t="str">
         <f>IF(_crushing_month_all!L21="","",_crushing_month_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="34" t="str">
+      <c r="N24" s="24" t="str">
         <f>IF(_crushing_month_all!M21="","",_crushing_month_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="35" t="str">
+      <c r="O24" s="25" t="str">
         <f>IF(_crushing_month_all!N21="","",_crushing_month_all!N21)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="23" customHeight="1" spans="2:15">
-      <c r="B25" s="19" t="str">
+    <row ht="23" customHeight="1" r="25">
+      <c r="B25" s="21" t="str">
         <f>IF(_crushing_month_all!A22="","",_crushing_month_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="20" t="str">
+      <c r="C25" s="22" t="str">
         <f>IF(_crushing_month_all!B22="","",_crushing_month_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="21" t="str">
+      <c r="D25" s="22" t="str">
         <f>IF(_crushing_month_all!C22="","",_crushing_month_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="21" t="str">
+      <c r="E25" s="22" t="str">
         <f>IF(_crushing_month_all!D22="","",_crushing_month_all!D22)</f>
         <v/>
       </c>
-      <c r="F25" s="21" t="str">
+      <c r="F25" s="22" t="str">
         <f>IF(_crushing_month_all!E22="","",_crushing_month_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="22" t="str">
+      <c r="G25" s="23" t="str">
         <f>IF(_crushing_month_all!F22="","",_crushing_month_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="22" t="str">
+      <c r="H25" s="23" t="str">
         <f>IF(_crushing_month_all!G22="","",_crushing_month_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="22" t="str">
+      <c r="I25" s="23" t="str">
         <f>IF(_crushing_month_all!H22="","",_crushing_month_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="22" t="str">
+      <c r="J25" s="23" t="str">
         <f>IF(_crushing_month_all!I22="","",_crushing_month_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="22" t="str">
+      <c r="K25" s="23" t="str">
         <f>IF(_crushing_month_all!J22="","",_crushing_month_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="22" t="str">
+      <c r="L25" s="23" t="str">
         <f>IF(_crushing_month_all!K22="","",_crushing_month_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="22" t="str">
+      <c r="M25" s="23" t="str">
         <f>IF(_crushing_month_all!L22="","",_crushing_month_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="34" t="str">
+      <c r="N25" s="24" t="str">
         <f>IF(_crushing_month_all!M22="","",_crushing_month_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="35" t="str">
+      <c r="O25" s="25" t="str">
         <f>IF(_crushing_month_all!N22="","",_crushing_month_all!N22)</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="23" customHeight="1" spans="2:15">
-      <c r="B26" s="19" t="str">
+    <row ht="23" customHeight="1" r="26">
+      <c r="B26" s="21" t="str">
         <f>IF(_crushing_month_all!A23="","",_crushing_month_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="20" t="str">
+      <c r="C26" s="22" t="str">
         <f>IF(_crushing_month_all!B23="","",_crushing_month_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="21" t="str">
+      <c r="D26" s="22" t="str">
         <f>IF(_crushing_month_all!C23="","",_crushing_month_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="21" t="str">
+      <c r="E26" s="22" t="str">
         <f>IF(_crushing_month_all!D23="","",_crushing_month_all!D23)</f>
         <v/>
       </c>
-      <c r="F26" s="21" t="str">
+      <c r="F26" s="22" t="str">
         <f>IF(_crushing_month_all!E23="","",_crushing_month_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="22" t="str">
+      <c r="G26" s="23" t="str">
         <f>IF(_crushing_month_all!F23="","",_crushing_month_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="22" t="str">
+      <c r="H26" s="23" t="str">
         <f>IF(_crushing_month_all!G23="","",_crushing_month_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="22" t="str">
+      <c r="I26" s="23" t="str">
         <f>IF(_crushing_month_all!H23="","",_crushing_month_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="22" t="str">
+      <c r="J26" s="23" t="str">
         <f>IF(_crushing_month_all!I23="","",_crushing_month_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="22" t="str">
+      <c r="K26" s="23" t="str">
         <f>IF(_crushing_month_all!J23="","",_crushing_month_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="22" t="str">
+      <c r="L26" s="23" t="str">
         <f>IF(_crushing_month_all!K23="","",_crushing_month_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="22" t="str">
+      <c r="M26" s="23" t="str">
         <f>IF(_crushing_month_all!L23="","",_crushing_month_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="34" t="str">
+      <c r="N26" s="24" t="str">
         <f>IF(_crushing_month_all!M23="","",_crushing_month_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="35" t="str">
+      <c r="O26" s="25" t="str">
         <f>IF(_crushing_month_all!N23="","",_crushing_month_all!N23)</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="23" customHeight="1" spans="2:15">
-      <c r="B27" s="19" t="str">
+    <row ht="23" customHeight="1" r="27">
+      <c r="B27" s="21" t="str">
         <f>IF(_crushing_month_all!A24="","",_crushing_month_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="20" t="str">
+      <c r="C27" s="22" t="str">
         <f>IF(_crushing_month_all!B24="","",_crushing_month_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="21" t="str">
+      <c r="D27" s="22" t="str">
         <f>IF(_crushing_month_all!C24="","",_crushing_month_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="21" t="str">
+      <c r="E27" s="22" t="str">
         <f>IF(_crushing_month_all!D24="","",_crushing_month_all!D24)</f>
         <v/>
       </c>
-      <c r="F27" s="21" t="str">
+      <c r="F27" s="22" t="str">
         <f>IF(_crushing_month_all!E24="","",_crushing_month_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="22" t="str">
+      <c r="G27" s="23" t="str">
         <f>IF(_crushing_month_all!F24="","",_crushing_month_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="22" t="str">
+      <c r="H27" s="23" t="str">
         <f>IF(_crushing_month_all!G24="","",_crushing_month_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="22" t="str">
+      <c r="I27" s="23" t="str">
         <f>IF(_crushing_month_all!H24="","",_crushing_month_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="22" t="str">
+      <c r="J27" s="23" t="str">
         <f>IF(_crushing_month_all!I24="","",_crushing_month_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="22" t="str">
+      <c r="K27" s="23" t="str">
         <f>IF(_crushing_month_all!J24="","",_crushing_month_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="22" t="str">
+      <c r="L27" s="23" t="str">
         <f>IF(_crushing_month_all!K24="","",_crushing_month_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="22" t="str">
+      <c r="M27" s="23" t="str">
         <f>IF(_crushing_month_all!L24="","",_crushing_month_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="34" t="str">
+      <c r="N27" s="24" t="str">
         <f>IF(_crushing_month_all!M24="","",_crushing_month_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="35" t="str">
+      <c r="O27" s="25" t="str">
         <f>IF(_crushing_month_all!N24="","",_crushing_month_all!N24)</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="23" customHeight="1" spans="2:15">
-      <c r="B28" s="19" t="str">
+    <row ht="23" customHeight="1" r="28">
+      <c r="B28" s="21" t="str">
         <f>IF(_crushing_month_all!A25="","",_crushing_month_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="20" t="str">
+      <c r="C28" s="22" t="str">
         <f>IF(_crushing_month_all!B25="","",_crushing_month_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="21" t="str">
+      <c r="D28" s="22" t="str">
         <f>IF(_crushing_month_all!C25="","",_crushing_month_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="21" t="str">
+      <c r="E28" s="22" t="str">
         <f>IF(_crushing_month_all!D25="","",_crushing_month_all!D25)</f>
         <v/>
       </c>
-      <c r="F28" s="21" t="str">
+      <c r="F28" s="22" t="str">
         <f>IF(_crushing_month_all!E25="","",_crushing_month_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="22" t="str">
+      <c r="G28" s="23" t="str">
         <f>IF(_crushing_month_all!F25="","",_crushing_month_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="22" t="str">
+      <c r="H28" s="23" t="str">
         <f>IF(_crushing_month_all!G25="","",_crushing_month_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="22" t="str">
+      <c r="I28" s="23" t="str">
         <f>IF(_crushing_month_all!H25="","",_crushing_month_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="22" t="str">
+      <c r="J28" s="23" t="str">
         <f>IF(_crushing_month_all!I25="","",_crushing_month_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="22" t="str">
+      <c r="K28" s="23" t="str">
         <f>IF(_crushing_month_all!J25="","",_crushing_month_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="22" t="str">
+      <c r="L28" s="23" t="str">
         <f>IF(_crushing_month_all!K25="","",_crushing_month_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="22" t="str">
+      <c r="M28" s="23" t="str">
         <f>IF(_crushing_month_all!L25="","",_crushing_month_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="34" t="str">
+      <c r="N28" s="24" t="str">
         <f>IF(_crushing_month_all!M25="","",_crushing_month_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="35" t="str">
+      <c r="O28" s="25" t="str">
         <f>IF(_crushing_month_all!N25="","",_crushing_month_all!N25)</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="23" customHeight="1" spans="2:15">
-      <c r="B29" s="19" t="str">
+    <row ht="23" customHeight="1" r="29">
+      <c r="B29" s="21" t="str">
         <f>IF(_crushing_month_all!A26="","",_crushing_month_all!A26)</f>
         <v/>
       </c>
-      <c r="C29" s="20" t="str">
+      <c r="C29" s="22" t="str">
         <f>IF(_crushing_month_all!B26="","",_crushing_month_all!B26)</f>
         <v/>
       </c>
-      <c r="D29" s="21" t="str">
+      <c r="D29" s="22" t="str">
         <f>IF(_crushing_month_all!C26="","",_crushing_month_all!C26)</f>
         <v/>
       </c>
-      <c r="E29" s="21" t="str">
+      <c r="E29" s="22" t="str">
         <f>IF(_crushing_month_all!D26="","",_crushing_month_all!D26)</f>
         <v/>
       </c>
-      <c r="F29" s="21" t="str">
+      <c r="F29" s="22" t="str">
         <f>IF(_crushing_month_all!E26="","",_crushing_month_all!E26)</f>
         <v/>
       </c>
-      <c r="G29" s="22" t="str">
+      <c r="G29" s="23" t="str">
         <f>IF(_crushing_month_all!F26="","",_crushing_month_all!F26)</f>
         <v/>
       </c>
-      <c r="H29" s="22" t="str">
+      <c r="H29" s="23" t="str">
         <f>IF(_crushing_month_all!G26="","",_crushing_month_all!G26)</f>
         <v/>
       </c>
-      <c r="I29" s="22" t="str">
+      <c r="I29" s="23" t="str">
         <f>IF(_crushing_month_all!H26="","",_crushing_month_all!H26)</f>
         <v/>
       </c>
-      <c r="J29" s="22" t="str">
+      <c r="J29" s="23" t="str">
         <f>IF(_crushing_month_all!I26="","",_crushing_month_all!I26)</f>
         <v/>
       </c>
-      <c r="K29" s="22" t="str">
+      <c r="K29" s="23" t="str">
         <f>IF(_crushing_month_all!J26="","",_crushing_month_all!J26)</f>
         <v/>
       </c>
-      <c r="L29" s="22" t="str">
+      <c r="L29" s="23" t="str">
         <f>IF(_crushing_month_all!K26="","",_crushing_month_all!K26)</f>
         <v/>
       </c>
-      <c r="M29" s="22" t="str">
+      <c r="M29" s="23" t="str">
         <f>IF(_crushing_month_all!L26="","",_crushing_month_all!L26)</f>
         <v/>
       </c>
-      <c r="N29" s="34" t="str">
+      <c r="N29" s="24" t="str">
         <f>IF(_crushing_month_all!M26="","",_crushing_month_all!M26)</f>
         <v/>
       </c>
-      <c r="O29" s="35" t="str">
+      <c r="O29" s="25" t="str">
         <f>IF(_crushing_month_all!N26="","",_crushing_month_all!N26)</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="23" customHeight="1" spans="2:15">
-      <c r="B30" s="19" t="str">
+    <row ht="23" customHeight="1" r="30">
+      <c r="B30" s="21" t="str">
         <f>IF(_crushing_month_all!A27="","",_crushing_month_all!A27)</f>
         <v/>
       </c>
-      <c r="C30" s="20" t="str">
+      <c r="C30" s="22" t="str">
         <f>IF(_crushing_month_all!B27="","",_crushing_month_all!B27)</f>
         <v/>
       </c>
-      <c r="D30" s="21" t="str">
+      <c r="D30" s="22" t="str">
         <f>IF(_crushing_month_all!C27="","",_crushing_month_all!C27)</f>
         <v/>
       </c>
-      <c r="E30" s="21" t="str">
+      <c r="E30" s="22" t="str">
         <f>IF(_crushing_month_all!D27="","",_crushing_month_all!D27)</f>
         <v/>
       </c>
-      <c r="F30" s="21" t="str">
+      <c r="F30" s="22" t="str">
         <f>IF(_crushing_month_all!E27="","",_crushing_month_all!E27)</f>
         <v/>
       </c>
-      <c r="G30" s="22" t="str">
+      <c r="G30" s="23" t="str">
         <f>IF(_crushing_month_all!F27="","",_crushing_month_all!F27)</f>
         <v/>
       </c>
-      <c r="H30" s="22" t="str">
+      <c r="H30" s="23" t="str">
         <f>IF(_crushing_month_all!G27="","",_crushing_month_all!G27)</f>
         <v/>
       </c>
-      <c r="I30" s="22" t="str">
+      <c r="I30" s="23" t="str">
         <f>IF(_crushing_month_all!H27="","",_crushing_month_all!H27)</f>
         <v/>
       </c>
-      <c r="J30" s="22" t="str">
+      <c r="J30" s="23" t="str">
         <f>IF(_crushing_month_all!I27="","",_crushing_month_all!I27)</f>
         <v/>
       </c>
-      <c r="K30" s="22" t="str">
+      <c r="K30" s="23" t="str">
         <f>IF(_crushing_month_all!J27="","",_crushing_month_all!J27)</f>
         <v/>
       </c>
-      <c r="L30" s="22" t="str">
+      <c r="L30" s="23" t="str">
         <f>IF(_crushing_month_all!K27="","",_crushing_month_all!K27)</f>
         <v/>
       </c>
-      <c r="M30" s="22" t="str">
+      <c r="M30" s="23" t="str">
         <f>IF(_crushing_month_all!L27="","",_crushing_month_all!L27)</f>
         <v/>
       </c>
-      <c r="N30" s="34" t="str">
+      <c r="N30" s="24" t="str">
         <f>IF(_crushing_month_all!M27="","",_crushing_month_all!M27)</f>
         <v/>
       </c>
-      <c r="O30" s="35" t="str">
+      <c r="O30" s="25" t="str">
         <f>IF(_crushing_month_all!N27="","",_crushing_month_all!N27)</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="23" customHeight="1" spans="2:15">
-      <c r="B31" s="19" t="str">
+    <row ht="23" customHeight="1" r="31">
+      <c r="B31" s="21" t="str">
         <f>IF(_crushing_month_all!A28="","",_crushing_month_all!A28)</f>
         <v/>
       </c>
-      <c r="C31" s="20" t="str">
+      <c r="C31" s="22" t="str">
         <f>IF(_crushing_month_all!B28="","",_crushing_month_all!B28)</f>
         <v/>
       </c>
-      <c r="D31" s="21" t="str">
+      <c r="D31" s="22" t="str">
         <f>IF(_crushing_month_all!C28="","",_crushing_month_all!C28)</f>
         <v/>
       </c>
-      <c r="E31" s="21" t="str">
+      <c r="E31" s="22" t="str">
         <f>IF(_crushing_month_all!D28="","",_crushing_month_all!D28)</f>
         <v/>
       </c>
-      <c r="F31" s="21" t="str">
+      <c r="F31" s="22" t="str">
         <f>IF(_crushing_month_all!E28="","",_crushing_month_all!E28)</f>
         <v/>
       </c>
-      <c r="G31" s="22" t="str">
+      <c r="G31" s="23" t="str">
         <f>IF(_crushing_month_all!F28="","",_crushing_month_all!F28)</f>
         <v/>
       </c>
-      <c r="H31" s="22" t="str">
+      <c r="H31" s="23" t="str">
         <f>IF(_crushing_month_all!G28="","",_crushing_month_all!G28)</f>
         <v/>
       </c>
-      <c r="I31" s="22" t="str">
+      <c r="I31" s="23" t="str">
         <f>IF(_crushing_month_all!H28="","",_crushing_month_all!H28)</f>
         <v/>
       </c>
-      <c r="J31" s="22" t="str">
+      <c r="J31" s="23" t="str">
         <f>IF(_crushing_month_all!I28="","",_crushing_month_all!I28)</f>
         <v/>
       </c>
-      <c r="K31" s="22" t="str">
+      <c r="K31" s="23" t="str">
         <f>IF(_crushing_month_all!J28="","",_crushing_month_all!J28)</f>
         <v/>
       </c>
-      <c r="L31" s="22" t="str">
+      <c r="L31" s="23" t="str">
         <f>IF(_crushing_month_all!K28="","",_crushing_month_all!K28)</f>
         <v/>
       </c>
-      <c r="M31" s="22" t="str">
+      <c r="M31" s="23" t="str">
         <f>IF(_crushing_month_all!L28="","",_crushing_month_all!L28)</f>
         <v/>
       </c>
-      <c r="N31" s="34" t="str">
+      <c r="N31" s="24" t="str">
         <f>IF(_crushing_month_all!M28="","",_crushing_month_all!M28)</f>
         <v/>
       </c>
-      <c r="O31" s="35" t="str">
+      <c r="O31" s="25" t="str">
         <f>IF(_crushing_month_all!N28="","",_crushing_month_all!N28)</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="23" customHeight="1" spans="2:15">
-      <c r="B32" s="19" t="str">
+    <row ht="23" customHeight="1" r="32">
+      <c r="B32" s="21" t="str">
         <f>IF(_crushing_month_all!A29="","",_crushing_month_all!A29)</f>
         <v/>
       </c>
-      <c r="C32" s="20" t="str">
+      <c r="C32" s="22" t="str">
         <f>IF(_crushing_month_all!B29="","",_crushing_month_all!B29)</f>
         <v/>
       </c>
-      <c r="D32" s="21" t="str">
+      <c r="D32" s="22" t="str">
         <f>IF(_crushing_month_all!C29="","",_crushing_month_all!C29)</f>
         <v/>
       </c>
-      <c r="E32" s="21" t="str">
+      <c r="E32" s="22" t="str">
         <f>IF(_crushing_month_all!D29="","",_crushing_month_all!D29)</f>
         <v/>
       </c>
-      <c r="F32" s="21" t="str">
+      <c r="F32" s="22" t="str">
         <f>IF(_crushing_month_all!E29="","",_crushing_month_all!E29)</f>
         <v/>
       </c>
-      <c r="G32" s="22" t="str">
+      <c r="G32" s="23" t="str">
         <f>IF(_crushing_month_all!F29="","",_crushing_month_all!F29)</f>
         <v/>
       </c>
-      <c r="H32" s="22" t="str">
+      <c r="H32" s="23" t="str">
         <f>IF(_crushing_month_all!G29="","",_crushing_month_all!G29)</f>
         <v/>
       </c>
-      <c r="I32" s="22" t="str">
+      <c r="I32" s="23" t="str">
         <f>IF(_crushing_month_all!H29="","",_crushing_month_all!H29)</f>
         <v/>
       </c>
-      <c r="J32" s="22" t="str">
+      <c r="J32" s="23" t="str">
         <f>IF(_crushing_month_all!I29="","",_crushing_month_all!I29)</f>
         <v/>
       </c>
-      <c r="K32" s="22" t="str">
+      <c r="K32" s="23" t="str">
         <f>IF(_crushing_month_all!J29="","",_crushing_month_all!J29)</f>
         <v/>
       </c>
-      <c r="L32" s="22" t="str">
+      <c r="L32" s="23" t="str">
         <f>IF(_crushing_month_all!K29="","",_crushing_month_all!K29)</f>
         <v/>
       </c>
-      <c r="M32" s="22" t="str">
+      <c r="M32" s="23" t="str">
         <f>IF(_crushing_month_all!L29="","",_crushing_month_all!L29)</f>
         <v/>
       </c>
-      <c r="N32" s="34" t="str">
+      <c r="N32" s="24" t="str">
         <f>IF(_crushing_month_all!M29="","",_crushing_month_all!M29)</f>
         <v/>
       </c>
-      <c r="O32" s="35" t="str">
+      <c r="O32" s="25" t="str">
         <f>IF(_crushing_month_all!N29="","",_crushing_month_all!N29)</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="23" customHeight="1" spans="2:15">
-      <c r="B33" s="19" t="str">
+    <row ht="23" customHeight="1" r="33">
+      <c r="B33" s="21" t="str">
         <f>IF(_crushing_month_all!A30="","",_crushing_month_all!A30)</f>
         <v/>
       </c>
-      <c r="C33" s="20" t="str">
+      <c r="C33" s="22" t="str">
         <f>IF(_crushing_month_all!B30="","",_crushing_month_all!B30)</f>
         <v/>
       </c>
-      <c r="D33" s="21" t="str">
+      <c r="D33" s="22" t="str">
         <f>IF(_crushing_month_all!C30="","",_crushing_month_all!C30)</f>
         <v/>
       </c>
-      <c r="E33" s="21" t="str">
+      <c r="E33" s="22" t="str">
         <f>IF(_crushing_month_all!D30="","",_crushing_month_all!D30)</f>
         <v/>
       </c>
-      <c r="F33" s="21" t="str">
+      <c r="F33" s="22" t="str">
         <f>IF(_crushing_month_all!E30="","",_crushing_month_all!E30)</f>
         <v/>
       </c>
-      <c r="G33" s="22" t="str">
+      <c r="G33" s="23" t="str">
         <f>IF(_crushing_month_all!F30="","",_crushing_month_all!F30)</f>
         <v/>
       </c>
-      <c r="H33" s="22" t="str">
+      <c r="H33" s="23" t="str">
         <f>IF(_crushing_month_all!G30="","",_crushing_month_all!G30)</f>
         <v/>
       </c>
-      <c r="I33" s="22" t="str">
+      <c r="I33" s="23" t="str">
         <f>IF(_crushing_month_all!H30="","",_crushing_month_all!H30)</f>
         <v/>
       </c>
-      <c r="J33" s="22" t="str">
+      <c r="J33" s="23" t="str">
         <f>IF(_crushing_month_all!I30="","",_crushing_month_all!I30)</f>
         <v/>
       </c>
-      <c r="K33" s="22" t="str">
+      <c r="K33" s="23" t="str">
         <f>IF(_crushing_month_all!J30="","",_crushing_month_all!J30)</f>
         <v/>
       </c>
-      <c r="L33" s="22" t="str">
+      <c r="L33" s="23" t="str">
         <f>IF(_crushing_month_all!K30="","",_crushing_month_all!K30)</f>
         <v/>
       </c>
-      <c r="M33" s="22" t="str">
+      <c r="M33" s="23" t="str">
         <f>IF(_crushing_month_all!L30="","",_crushing_month_all!L30)</f>
         <v/>
       </c>
-      <c r="N33" s="34" t="str">
+      <c r="N33" s="24" t="str">
         <f>IF(_crushing_month_all!M30="","",_crushing_month_all!M30)</f>
         <v/>
       </c>
-      <c r="O33" s="35" t="str">
+      <c r="O33" s="25" t="str">
         <f>IF(_crushing_month_all!N30="","",_crushing_month_all!N30)</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="23" customHeight="1" spans="2:15">
-      <c r="B34" s="19" t="str">
+    <row ht="23" customHeight="1" r="34">
+      <c r="B34" s="21" t="str">
         <f>IF(_crushing_month_all!A31="","",_crushing_month_all!A31)</f>
         <v/>
       </c>
-      <c r="C34" s="20" t="str">
+      <c r="C34" s="22" t="str">
         <f>IF(_crushing_month_all!B31="","",_crushing_month_all!B31)</f>
         <v/>
       </c>
-      <c r="D34" s="21" t="str">
+      <c r="D34" s="22" t="str">
         <f>IF(_crushing_month_all!C31="","",_crushing_month_all!C31)</f>
         <v/>
       </c>
-      <c r="E34" s="21" t="str">
+      <c r="E34" s="22" t="str">
         <f>IF(_crushing_month_all!D31="","",_crushing_month_all!D31)</f>
         <v/>
       </c>
-      <c r="F34" s="21" t="str">
+      <c r="F34" s="22" t="str">
         <f>IF(_crushing_month_all!E31="","",_crushing_month_all!E31)</f>
         <v/>
       </c>
-      <c r="G34" s="22" t="str">
+      <c r="G34" s="23" t="str">
         <f>IF(_crushing_month_all!F31="","",_crushing_month_all!F31)</f>
         <v/>
       </c>
-      <c r="H34" s="22" t="str">
+      <c r="H34" s="23" t="str">
         <f>IF(_crushing_month_all!G31="","",_crushing_month_all!G31)</f>
         <v/>
       </c>
-      <c r="I34" s="22" t="str">
+      <c r="I34" s="23" t="str">
         <f>IF(_crushing_month_all!H31="","",_crushing_month_all!H31)</f>
         <v/>
       </c>
-      <c r="J34" s="22" t="str">
+      <c r="J34" s="23" t="str">
         <f>IF(_crushing_month_all!I31="","",_crushing_month_all!I31)</f>
         <v/>
       </c>
-      <c r="K34" s="22" t="str">
+      <c r="K34" s="23" t="str">
         <f>IF(_crushing_month_all!J31="","",_crushing_month_all!J31)</f>
         <v/>
       </c>
-      <c r="L34" s="22" t="str">
+      <c r="L34" s="23" t="str">
         <f>IF(_crushing_month_all!K31="","",_crushing_month_all!K31)</f>
         <v/>
       </c>
-      <c r="M34" s="22" t="str">
+      <c r="M34" s="23" t="str">
         <f>IF(_crushing_month_all!L31="","",_crushing_month_all!L31)</f>
         <v/>
       </c>
-      <c r="N34" s="34" t="str">
+      <c r="N34" s="24" t="str">
         <f>IF(_crushing_month_all!M31="","",_crushing_month_all!M31)</f>
         <v/>
       </c>
-      <c r="O34" s="35" t="str">
+      <c r="O34" s="25" t="str">
         <f>IF(_crushing_month_all!N31="","",_crushing_month_all!N31)</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="23" customHeight="1" spans="2:15">
-      <c r="B35" s="24" t="str">
+    <row ht="23" customHeight="1" r="35">
+      <c r="B35" s="27" t="str">
         <f>IF(_crushing_month_all!A32="","",_crushing_month_all!A32)</f>
         <v/>
       </c>
-      <c r="C35" s="25" t="str">
+      <c r="C35" s="28" t="str">
         <f>IF(_crushing_month_all!B32="","",_crushing_month_all!B32)</f>
         <v/>
       </c>
-      <c r="D35" s="26" t="str">
+      <c r="D35" s="28" t="str">
         <f>IF(_crushing_month_all!C32="","",_crushing_month_all!C32)</f>
         <v/>
       </c>
-      <c r="E35" s="26" t="str">
+      <c r="E35" s="28" t="str">
         <f>IF(_crushing_month_all!D32="","",_crushing_month_all!D32)</f>
         <v/>
       </c>
-      <c r="F35" s="26" t="str">
+      <c r="F35" s="28" t="str">
         <f>IF(_crushing_month_all!E32="","",_crushing_month_all!E32)</f>
         <v/>
       </c>
-      <c r="G35" s="27" t="str">
+      <c r="G35" s="29" t="str">
         <f>IF(_crushing_month_all!F32="","",_crushing_month_all!F32)</f>
         <v/>
       </c>
-      <c r="H35" s="27" t="str">
+      <c r="H35" s="29" t="str">
         <f>IF(_crushing_month_all!G32="","",_crushing_month_all!G32)</f>
         <v/>
       </c>
-      <c r="I35" s="27" t="str">
+      <c r="I35" s="29" t="str">
         <f>IF(_crushing_month_all!H32="","",_crushing_month_all!H32)</f>
         <v/>
       </c>
-      <c r="J35" s="27" t="str">
+      <c r="J35" s="29" t="str">
         <f>IF(_crushing_month_all!I32="","",_crushing_month_all!I32)</f>
         <v/>
       </c>
-      <c r="K35" s="27" t="str">
+      <c r="K35" s="29" t="str">
         <f>IF(_crushing_month_all!J32="","",_crushing_month_all!J32)</f>
         <v/>
       </c>
-      <c r="L35" s="27" t="str">
+      <c r="L35" s="29" t="str">
         <f>IF(_crushing_month_all!K32="","",_crushing_month_all!K32)</f>
         <v/>
       </c>
-      <c r="M35" s="27" t="str">
+      <c r="M35" s="29" t="str">
         <f>IF(_crushing_month_all!L32="","",_crushing_month_all!L32)</f>
         <v/>
       </c>
-      <c r="N35" s="36" t="str">
+      <c r="N35" s="30" t="str">
         <f>IF(_crushing_month_all!M32="","",_crushing_month_all!M32)</f>
         <v/>
       </c>
-      <c r="O35" s="37" t="str">
+      <c r="O35" s="31" t="str">
         <f>IF(_crushing_month_all!N32="","",_crushing_month_all!N32)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="28" t="str">
+    <row r="36">
+      <c r="B36" s="1" t="str">
         <f>IF(_crushing_month_all!A33="","",_crushing_month_all!A33)</f>
         <v/>
       </c>
-      <c r="C36" s="28" t="str">
+      <c r="C36" s="1" t="str">
         <f>IF(_crushing_month_all!B33="","",_crushing_month_all!B33)</f>
         <v/>
       </c>
-      <c r="D36" s="28" t="str">
+      <c r="D36" s="1" t="str">
         <f>IF(_crushing_month_all!C33="","",_crushing_month_all!C33)</f>
         <v/>
       </c>
-      <c r="E36" s="28" t="str">
+      <c r="E36" s="1" t="str">
         <f>IF(_crushing_month_all!D33="","",_crushing_month_all!D33)</f>
         <v/>
       </c>
-      <c r="F36" s="28" t="str">
+      <c r="F36" s="1" t="str">
         <f>IF(_crushing_month_all!E33="","",_crushing_month_all!E33)</f>
         <v/>
       </c>
-      <c r="G36" s="28" t="str">
+      <c r="G36" s="1" t="str">
         <f>IF(_crushing_month_all!F33="","",_crushing_month_all!F33)</f>
         <v/>
       </c>
-      <c r="H36" s="28" t="str">
+      <c r="H36" s="1" t="str">
         <f>IF(_crushing_month_all!G33="","",_crushing_month_all!G33)</f>
         <v/>
       </c>
-      <c r="I36" s="28" t="str">
+      <c r="I36" s="1" t="str">
         <f>IF(_crushing_month_all!H33="","",_crushing_month_all!H33)</f>
         <v/>
       </c>
-      <c r="J36" s="28" t="str">
+      <c r="J36" s="1" t="str">
         <f>IF(_crushing_month_all!I33="","",_crushing_month_all!I33)</f>
         <v/>
       </c>
-      <c r="K36" s="28" t="str">
+      <c r="K36" s="1" t="str">
         <f>IF(_crushing_month_all!J33="","",_crushing_month_all!J33)</f>
         <v/>
       </c>
-      <c r="L36" s="28" t="str">
+      <c r="L36" s="1" t="str">
         <f>IF(_crushing_month_all!K33="","",_crushing_month_all!K33)</f>
         <v/>
       </c>
-      <c r="M36" s="28" t="str">
+      <c r="M36" s="1" t="str">
         <f>IF(_crushing_month_all!L33="","",_crushing_month_all!L33)</f>
         <v/>
       </c>
-      <c r="N36" s="28" t="str">
+      <c r="N36" s="1" t="str">
         <f>IF(_crushing_month_all!M33="","",_crushing_month_all!M33)</f>
         <v/>
       </c>
-      <c r="O36" s="28" t="str">
+      <c r="O36" s="1" t="str">
         <f>IF(_crushing_month_all!N33="","",_crushing_month_all!N33)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:15">
-      <c r="B37" s="28" t="str">
+    <row r="37">
+      <c r="B37" s="1" t="str">
         <f>IF(_crushing_month_all!A34="","",_crushing_month_all!A34)</f>
         <v/>
       </c>
-      <c r="C37" s="28" t="str">
+      <c r="C37" s="1" t="str">
         <f>IF(_crushing_month_all!B34="","",_crushing_month_all!B34)</f>
         <v/>
       </c>
-      <c r="D37" s="28" t="str">
+      <c r="D37" s="1" t="str">
         <f>IF(_crushing_month_all!C34="","",_crushing_month_all!C34)</f>
         <v/>
       </c>
-      <c r="E37" s="28" t="str">
+      <c r="E37" s="1" t="str">
         <f>IF(_crushing_month_all!D34="","",_crushing_month_all!D34)</f>
         <v/>
       </c>
-      <c r="F37" s="28" t="str">
+      <c r="F37" s="1" t="str">
         <f>IF(_crushing_month_all!E34="","",_crushing_month_all!E34)</f>
         <v/>
       </c>
-      <c r="G37" s="28" t="str">
+      <c r="G37" s="1" t="str">
         <f>IF(_crushing_month_all!F34="","",_crushing_month_all!F34)</f>
         <v/>
       </c>
-      <c r="H37" s="28" t="str">
+      <c r="H37" s="1" t="str">
         <f>IF(_crushing_month_all!G34="","",_crushing_month_all!G34)</f>
         <v/>
       </c>
-      <c r="I37" s="28" t="str">
+      <c r="I37" s="1" t="str">
         <f>IF(_crushing_month_all!H34="","",_crushing_month_all!H34)</f>
         <v/>
       </c>
-      <c r="J37" s="28" t="str">
+      <c r="J37" s="1" t="str">
         <f>IF(_crushing_month_all!I34="","",_crushing_month_all!I34)</f>
         <v/>
       </c>
-      <c r="K37" s="28" t="str">
+      <c r="K37" s="1" t="str">
         <f>IF(_crushing_month_all!J34="","",_crushing_month_all!J34)</f>
         <v/>
       </c>
-      <c r="L37" s="28" t="str">
+      <c r="L37" s="1" t="str">
         <f>IF(_crushing_month_all!K34="","",_crushing_month_all!K34)</f>
         <v/>
       </c>
-      <c r="M37" s="28" t="str">
+      <c r="M37" s="1" t="str">
         <f>IF(_crushing_month_all!L34="","",_crushing_month_all!L34)</f>
         <v/>
       </c>
-      <c r="N37" s="28" t="str">
+      <c r="N37" s="1" t="str">
         <f>IF(_crushing_month_all!M34="","",_crushing_month_all!M34)</f>
         <v/>
       </c>
-      <c r="O37" s="28" t="str">
+      <c r="O37" s="1" t="str">
         <f>IF(_crushing_month_all!N34="","",_crushing_month_all!N34)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="28" t="str">
+    <row r="38">
+      <c r="B38" s="1" t="str">
         <f>IF(_crushing_month_all!A35="","",_crushing_month_all!A35)</f>
         <v/>
       </c>
-      <c r="C38" s="28" t="str">
+      <c r="C38" s="1" t="str">
         <f>IF(_crushing_month_all!B35="","",_crushing_month_all!B35)</f>
         <v/>
       </c>
-      <c r="D38" s="28" t="str">
+      <c r="D38" s="1" t="str">
         <f>IF(_crushing_month_all!C35="","",_crushing_month_all!C35)</f>
         <v/>
       </c>
-      <c r="E38" s="28" t="str">
+      <c r="E38" s="1" t="str">
         <f>IF(_crushing_month_all!D35="","",_crushing_month_all!D35)</f>
         <v/>
       </c>
-      <c r="F38" s="28" t="str">
+      <c r="F38" s="1" t="str">
         <f>IF(_crushing_month_all!E35="","",_crushing_month_all!E35)</f>
         <v/>
       </c>
-      <c r="G38" s="28" t="str">
+      <c r="G38" s="1" t="str">
         <f>IF(_crushing_month_all!F35="","",_crushing_month_all!F35)</f>
         <v/>
       </c>
-      <c r="H38" s="28" t="str">
+      <c r="H38" s="1" t="str">
         <f>IF(_crushing_month_all!G35="","",_crushing_month_all!G35)</f>
         <v/>
       </c>
-      <c r="I38" s="28" t="str">
+      <c r="I38" s="1" t="str">
         <f>IF(_crushing_month_all!H35="","",_crushing_month_all!H35)</f>
         <v/>
       </c>
-      <c r="J38" s="28" t="str">
+      <c r="J38" s="1" t="str">
         <f>IF(_crushing_month_all!I35="","",_crushing_month_all!I35)</f>
         <v/>
       </c>
-      <c r="K38" s="28" t="str">
+      <c r="K38" s="1" t="str">
         <f>IF(_crushing_month_all!J35="","",_crushing_month_all!J35)</f>
         <v/>
       </c>
-      <c r="L38" s="28" t="str">
+      <c r="L38" s="1" t="str">
         <f>IF(_crushing_month_all!K35="","",_crushing_month_all!K35)</f>
         <v/>
       </c>
-      <c r="M38" s="28" t="str">
+      <c r="M38" s="1" t="str">
         <f>IF(_crushing_month_all!L35="","",_crushing_month_all!L35)</f>
         <v/>
       </c>
-      <c r="N38" s="28" t="str">
+      <c r="N38" s="1" t="str">
         <f>IF(_crushing_month_all!M35="","",_crushing_month_all!M35)</f>
         <v/>
       </c>
-      <c r="O38" s="28" t="str">
+      <c r="O38" s="1" t="str">
         <f>IF(_crushing_month_all!N35="","",_crushing_month_all!N35)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:15">
-      <c r="B39" s="28" t="str">
+    <row r="39">
+      <c r="B39" s="1" t="str">
         <f>IF(_crushing_month_all!A36="","",_crushing_month_all!A36)</f>
         <v/>
       </c>
-      <c r="C39" s="28" t="str">
+      <c r="C39" s="1" t="str">
         <f>IF(_crushing_month_all!B36="","",_crushing_month_all!B36)</f>
         <v/>
       </c>
-      <c r="D39" s="28" t="str">
+      <c r="D39" s="1" t="str">
         <f>IF(_crushing_month_all!C36="","",_crushing_month_all!C36)</f>
         <v/>
       </c>
-      <c r="E39" s="28" t="str">
+      <c r="E39" s="1" t="str">
         <f>IF(_crushing_month_all!D36="","",_crushing_month_all!D36)</f>
         <v/>
       </c>
-      <c r="F39" s="28" t="str">
+      <c r="F39" s="1" t="str">
         <f>IF(_crushing_month_all!E36="","",_crushing_month_all!E36)</f>
         <v/>
       </c>
-      <c r="G39" s="28" t="str">
+      <c r="G39" s="1" t="str">
         <f>IF(_crushing_month_all!F36="","",_crushing_month_all!F36)</f>
         <v/>
       </c>
-      <c r="H39" s="28" t="str">
+      <c r="H39" s="1" t="str">
         <f>IF(_crushing_month_all!G36="","",_crushing_month_all!G36)</f>
         <v/>
       </c>
-      <c r="I39" s="28" t="str">
+      <c r="I39" s="1" t="str">
         <f>IF(_crushing_month_all!H36="","",_crushing_month_all!H36)</f>
         <v/>
       </c>
-      <c r="J39" s="28" t="str">
+      <c r="J39" s="1" t="str">
         <f>IF(_crushing_month_all!I36="","",_crushing_month_all!I36)</f>
         <v/>
       </c>
-      <c r="K39" s="28" t="str">
+      <c r="K39" s="1" t="str">
         <f>IF(_crushing_month_all!J36="","",_crushing_month_all!J36)</f>
         <v/>
       </c>
-      <c r="L39" s="28" t="str">
+      <c r="L39" s="1" t="str">
         <f>IF(_crushing_month_all!K36="","",_crushing_month_all!K36)</f>
         <v/>
       </c>
-      <c r="M39" s="28" t="str">
+      <c r="M39" s="1" t="str">
         <f>IF(_crushing_month_all!L36="","",_crushing_month_all!L36)</f>
         <v/>
       </c>
-      <c r="N39" s="28" t="str">
+      <c r="N39" s="1" t="str">
         <f>IF(_crushing_month_all!M36="","",_crushing_month_all!M36)</f>
         <v/>
       </c>
-      <c r="O39" s="28" t="str">
+      <c r="O39" s="1" t="str">
         <f>IF(_crushing_month_all!N36="","",_crushing_month_all!N36)</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:15">
-      <c r="B40" s="28" t="str">
+    <row r="40">
+      <c r="B40" s="1" t="str">
         <f>IF(_crushing_month_all!A37="","",_crushing_month_all!A37)</f>
         <v/>
       </c>
-      <c r="C40" s="28" t="str">
+      <c r="C40" s="1" t="str">
         <f>IF(_crushing_month_all!B37="","",_crushing_month_all!B37)</f>
         <v/>
       </c>
-      <c r="D40" s="28" t="str">
+      <c r="D40" s="1" t="str">
         <f>IF(_crushing_month_all!C37="","",_crushing_month_all!C37)</f>
         <v/>
       </c>
-      <c r="E40" s="28" t="str">
+      <c r="E40" s="1" t="str">
         <f>IF(_crushing_month_all!D37="","",_crushing_month_all!D37)</f>
         <v/>
       </c>
-      <c r="F40" s="28" t="str">
+      <c r="F40" s="1" t="str">
         <f>IF(_crushing_month_all!E37="","",_crushing_month_all!E37)</f>
         <v/>
       </c>
-      <c r="G40" s="28" t="str">
+      <c r="G40" s="1" t="str">
         <f>IF(_crushing_month_all!F37="","",_crushing_month_all!F37)</f>
         <v/>
       </c>
-      <c r="H40" s="28" t="str">
+      <c r="H40" s="1" t="str">
         <f>IF(_crushing_month_all!G37="","",_crushing_month_all!G37)</f>
         <v/>
       </c>
-      <c r="I40" s="28" t="str">
+      <c r="I40" s="1" t="str">
         <f>IF(_crushing_month_all!H37="","",_crushing_month_all!H37)</f>
         <v/>
       </c>
-      <c r="J40" s="28" t="str">
+      <c r="J40" s="1" t="str">
         <f>IF(_crushing_month_all!I37="","",_crushing_month_all!I37)</f>
         <v/>
       </c>
-      <c r="K40" s="28" t="str">
+      <c r="K40" s="1" t="str">
         <f>IF(_crushing_month_all!J37="","",_crushing_month_all!J37)</f>
         <v/>
       </c>
-      <c r="L40" s="28" t="str">
+      <c r="L40" s="1" t="str">
         <f>IF(_crushing_month_all!K37="","",_crushing_month_all!K37)</f>
         <v/>
       </c>
-      <c r="M40" s="28" t="str">
+      <c r="M40" s="1" t="str">
         <f>IF(_crushing_month_all!L37="","",_crushing_month_all!L37)</f>
         <v/>
       </c>
-      <c r="N40" s="28" t="str">
+      <c r="N40" s="1" t="str">
         <f>IF(_crushing_month_all!M37="","",_crushing_month_all!M37)</f>
         <v/>
       </c>
-      <c r="O40" s="28" t="str">
+      <c r="O40" s="1" t="str">
         <f>IF(_crushing_month_all!N37="","",_crushing_month_all!N37)</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:15">
-      <c r="B41" s="28" t="str">
+    <row r="41">
+      <c r="B41" s="1" t="str">
         <f>IF(_crushing_month_all!A38="","",_crushing_month_all!A38)</f>
         <v/>
       </c>
-      <c r="C41" s="28" t="str">
+      <c r="C41" s="1" t="str">
         <f>IF(_crushing_month_all!B38="","",_crushing_month_all!B38)</f>
         <v/>
       </c>
-      <c r="D41" s="28" t="str">
+      <c r="D41" s="1" t="str">
         <f>IF(_crushing_month_all!C38="","",_crushing_month_all!C38)</f>
         <v/>
       </c>
-      <c r="E41" s="28" t="str">
+      <c r="E41" s="1" t="str">
         <f>IF(_crushing_month_all!D38="","",_crushing_month_all!D38)</f>
         <v/>
       </c>
-      <c r="F41" s="28" t="str">
+      <c r="F41" s="1" t="str">
         <f>IF(_crushing_month_all!E38="","",_crushing_month_all!E38)</f>
         <v/>
       </c>
-      <c r="G41" s="28" t="str">
+      <c r="G41" s="1" t="str">
         <f>IF(_crushing_month_all!F38="","",_crushing_month_all!F38)</f>
         <v/>
       </c>
-      <c r="H41" s="28" t="str">
+      <c r="H41" s="1" t="str">
         <f>IF(_crushing_month_all!G38="","",_crushing_month_all!G38)</f>
         <v/>
       </c>
-      <c r="I41" s="28" t="str">
+      <c r="I41" s="1" t="str">
         <f>IF(_crushing_month_all!H38="","",_crushing_month_all!H38)</f>
         <v/>
       </c>
-      <c r="J41" s="28" t="str">
+      <c r="J41" s="1" t="str">
         <f>IF(_crushing_month_all!I38="","",_crushing_month_all!I38)</f>
         <v/>
       </c>
-      <c r="K41" s="28" t="str">
+      <c r="K41" s="1" t="str">
         <f>IF(_crushing_month_all!J38="","",_crushing_month_all!J38)</f>
         <v/>
       </c>
-      <c r="L41" s="28" t="str">
+      <c r="L41" s="1" t="str">
         <f>IF(_crushing_month_all!K38="","",_crushing_month_all!K38)</f>
         <v/>
       </c>
-      <c r="M41" s="28" t="str">
+      <c r="M41" s="1" t="str">
         <f>IF(_crushing_month_all!L38="","",_crushing_month_all!L38)</f>
         <v/>
       </c>
-      <c r="N41" s="28" t="str">
+      <c r="N41" s="1" t="str">
         <f>IF(_crushing_month_all!M38="","",_crushing_month_all!M38)</f>
         <v/>
       </c>
-      <c r="O41" s="28" t="str">
+      <c r="O41" s="1" t="str">
         <f>IF(_crushing_month_all!N38="","",_crushing_month_all!N38)</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:15">
-      <c r="B42" s="28" t="str">
+    <row r="42">
+      <c r="B42" s="1" t="str">
         <f>IF(_crushing_month_all!A39="","",_crushing_month_all!A39)</f>
         <v/>
       </c>
-      <c r="C42" s="28" t="str">
+      <c r="C42" s="1" t="str">
         <f>IF(_crushing_month_all!B39="","",_crushing_month_all!B39)</f>
         <v/>
       </c>
-      <c r="D42" s="28" t="str">
+      <c r="D42" s="1" t="str">
         <f>IF(_crushing_month_all!C39="","",_crushing_month_all!C39)</f>
         <v/>
       </c>
-      <c r="E42" s="28" t="str">
+      <c r="E42" s="1" t="str">
         <f>IF(_crushing_month_all!D39="","",_crushing_month_all!D39)</f>
         <v/>
       </c>
-      <c r="F42" s="28" t="str">
+      <c r="F42" s="1" t="str">
         <f>IF(_crushing_month_all!E39="","",_crushing_month_all!E39)</f>
         <v/>
       </c>
-      <c r="G42" s="28" t="str">
+      <c r="G42" s="1" t="str">
         <f>IF(_crushing_month_all!F39="","",_crushing_month_all!F39)</f>
         <v/>
       </c>
-      <c r="H42" s="28" t="str">
+      <c r="H42" s="1" t="str">
         <f>IF(_crushing_month_all!G39="","",_crushing_month_all!G39)</f>
         <v/>
       </c>
-      <c r="I42" s="28" t="str">
+      <c r="I42" s="1" t="str">
         <f>IF(_crushing_month_all!H39="","",_crushing_month_all!H39)</f>
         <v/>
       </c>
-      <c r="J42" s="28" t="str">
+      <c r="J42" s="1" t="str">
         <f>IF(_crushing_month_all!I39="","",_crushing_month_all!I39)</f>
         <v/>
       </c>
-      <c r="K42" s="28" t="str">
+      <c r="K42" s="1" t="str">
         <f>IF(_crushing_month_all!J39="","",_crushing_month_all!J39)</f>
         <v/>
       </c>
-      <c r="L42" s="28" t="str">
+      <c r="L42" s="1" t="str">
         <f>IF(_crushing_month_all!K39="","",_crushing_month_all!K39)</f>
         <v/>
       </c>
-      <c r="M42" s="28" t="str">
+      <c r="M42" s="1" t="str">
         <f>IF(_crushing_month_all!L39="","",_crushing_month_all!L39)</f>
         <v/>
       </c>
-      <c r="N42" s="28" t="str">
+      <c r="N42" s="1" t="str">
         <f>IF(_crushing_month_all!M39="","",_crushing_month_all!M39)</f>
         <v/>
       </c>
-      <c r="O42" s="28" t="str">
+      <c r="O42" s="1" t="str">
         <f>IF(_crushing_month_all!N39="","",_crushing_month_all!N39)</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:15">
-      <c r="B43" s="28" t="str">
+    <row r="43">
+      <c r="B43" s="1" t="str">
         <f>IF(_crushing_month_all!A40="","",_crushing_month_all!A40)</f>
         <v/>
       </c>
-      <c r="C43" s="28" t="str">
+      <c r="C43" s="1" t="str">
         <f>IF(_crushing_month_all!B40="","",_crushing_month_all!B40)</f>
         <v/>
       </c>
-      <c r="D43" s="28" t="str">
+      <c r="D43" s="1" t="str">
         <f>IF(_crushing_month_all!C40="","",_crushing_month_all!C40)</f>
         <v/>
       </c>
-      <c r="E43" s="28" t="str">
+      <c r="E43" s="1" t="str">
         <f>IF(_crushing_month_all!D40="","",_crushing_month_all!D40)</f>
         <v/>
       </c>
-      <c r="F43" s="28" t="str">
+      <c r="F43" s="1" t="str">
         <f>IF(_crushing_month_all!E40="","",_crushing_month_all!E40)</f>
         <v/>
       </c>
-      <c r="G43" s="28" t="str">
+      <c r="G43" s="1" t="str">
         <f>IF(_crushing_month_all!F40="","",_crushing_month_all!F40)</f>
         <v/>
       </c>
-      <c r="H43" s="28" t="str">
+      <c r="H43" s="1" t="str">
         <f>IF(_crushing_month_all!G40="","",_crushing_month_all!G40)</f>
         <v/>
       </c>
-      <c r="I43" s="28" t="str">
+      <c r="I43" s="1" t="str">
         <f>IF(_crushing_month_all!H40="","",_crushing_month_all!H40)</f>
         <v/>
       </c>
-      <c r="J43" s="28" t="str">
+      <c r="J43" s="1" t="str">
         <f>IF(_crushing_month_all!I40="","",_crushing_month_all!I40)</f>
         <v/>
       </c>
-      <c r="K43" s="28" t="str">
+      <c r="K43" s="1" t="str">
         <f>IF(_crushing_month_all!J40="","",_crushing_month_all!J40)</f>
         <v/>
       </c>
-      <c r="L43" s="28" t="str">
+      <c r="L43" s="1" t="str">
         <f>IF(_crushing_month_all!K40="","",_crushing_month_all!K40)</f>
         <v/>
       </c>
-      <c r="M43" s="28" t="str">
+      <c r="M43" s="1" t="str">
         <f>IF(_crushing_month_all!L40="","",_crushing_month_all!L40)</f>
         <v/>
       </c>
-      <c r="N43" s="28" t="str">
+      <c r="N43" s="1" t="str">
         <f>IF(_crushing_month_all!M40="","",_crushing_month_all!M40)</f>
         <v/>
       </c>
-      <c r="O43" s="28" t="str">
+      <c r="O43" s="1" t="str">
         <f>IF(_crushing_month_all!N40="","",_crushing_month_all!N40)</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:15">
-      <c r="B44" s="28" t="str">
+    <row r="44">
+      <c r="B44" s="1" t="str">
         <f>IF(_crushing_month_all!A41="","",_crushing_month_all!A41)</f>
         <v/>
       </c>
-      <c r="C44" s="28" t="str">
+      <c r="C44" s="1" t="str">
         <f>IF(_crushing_month_all!B41="","",_crushing_month_all!B41)</f>
         <v/>
       </c>
-      <c r="D44" s="28" t="str">
+      <c r="D44" s="1" t="str">
         <f>IF(_crushing_month_all!C41="","",_crushing_month_all!C41)</f>
         <v/>
       </c>
-      <c r="E44" s="28" t="str">
+      <c r="E44" s="1" t="str">
         <f>IF(_crushing_month_all!D41="","",_crushing_month_all!D41)</f>
         <v/>
       </c>
-      <c r="F44" s="28" t="str">
+      <c r="F44" s="1" t="str">
         <f>IF(_crushing_month_all!E41="","",_crushing_month_all!E41)</f>
         <v/>
       </c>
-      <c r="G44" s="28" t="str">
+      <c r="G44" s="1" t="str">
         <f>IF(_crushing_month_all!F41="","",_crushing_month_all!F41)</f>
         <v/>
       </c>
-      <c r="H44" s="28" t="str">
+      <c r="H44" s="1" t="str">
         <f>IF(_crushing_month_all!G41="","",_crushing_month_all!G41)</f>
         <v/>
       </c>
-      <c r="I44" s="28" t="str">
+      <c r="I44" s="1" t="str">
         <f>IF(_crushing_month_all!H41="","",_crushing_month_all!H41)</f>
         <v/>
       </c>
-      <c r="J44" s="28" t="str">
+      <c r="J44" s="1" t="str">
         <f>IF(_crushing_month_all!I41="","",_crushing_month_all!I41)</f>
         <v/>
       </c>
-      <c r="K44" s="28" t="str">
+      <c r="K44" s="1" t="str">
         <f>IF(_crushing_month_all!J41="","",_crushing_month_all!J41)</f>
         <v/>
       </c>
-      <c r="L44" s="28" t="str">
+      <c r="L44" s="1" t="str">
         <f>IF(_crushing_month_all!K41="","",_crushing_month_all!K41)</f>
         <v/>
       </c>
-      <c r="M44" s="28" t="str">
+      <c r="M44" s="1" t="str">
         <f>IF(_crushing_month_all!L41="","",_crushing_month_all!L41)</f>
         <v/>
       </c>
-      <c r="N44" s="28" t="str">
+      <c r="N44" s="1" t="str">
         <f>IF(_crushing_month_all!M41="","",_crushing_month_all!M41)</f>
         <v/>
       </c>
-      <c r="O44" s="28" t="str">
+      <c r="O44" s="1" t="str">
         <f>IF(_crushing_month_all!N41="","",_crushing_month_all!N41)</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:15">
-      <c r="B45" s="28" t="str">
+    <row r="45">
+      <c r="B45" s="1" t="str">
         <f>IF(_crushing_month_all!A42="","",_crushing_month_all!A42)</f>
         <v/>
       </c>
-      <c r="C45" s="28" t="str">
+      <c r="C45" s="1" t="str">
         <f>IF(_crushing_month_all!B42="","",_crushing_month_all!B42)</f>
         <v/>
       </c>
-      <c r="D45" s="28" t="str">
+      <c r="D45" s="1" t="str">
         <f>IF(_crushing_month_all!C42="","",_crushing_month_all!C42)</f>
         <v/>
       </c>
-      <c r="E45" s="28" t="str">
+      <c r="E45" s="1" t="str">
         <f>IF(_crushing_month_all!D42="","",_crushing_month_all!D42)</f>
         <v/>
       </c>
-      <c r="F45" s="28" t="str">
+      <c r="F45" s="1" t="str">
         <f>IF(_crushing_month_all!E42="","",_crushing_month_all!E42)</f>
         <v/>
       </c>
-      <c r="G45" s="28" t="str">
+      <c r="G45" s="1" t="str">
         <f>IF(_crushing_month_all!F42="","",_crushing_month_all!F42)</f>
         <v/>
       </c>
-      <c r="H45" s="28" t="str">
+      <c r="H45" s="1" t="str">
         <f>IF(_crushing_month_all!G42="","",_crushing_month_all!G42)</f>
         <v/>
       </c>
-      <c r="I45" s="28" t="str">
+      <c r="I45" s="1" t="str">
         <f>IF(_crushing_month_all!H42="","",_crushing_month_all!H42)</f>
         <v/>
       </c>
-      <c r="J45" s="28" t="str">
+      <c r="J45" s="1" t="str">
         <f>IF(_crushing_month_all!I42="","",_crushing_month_all!I42)</f>
         <v/>
       </c>
-      <c r="K45" s="28" t="str">
+      <c r="K45" s="1" t="str">
         <f>IF(_crushing_month_all!J42="","",_crushing_month_all!J42)</f>
         <v/>
       </c>
-      <c r="L45" s="28" t="str">
+      <c r="L45" s="1" t="str">
         <f>IF(_crushing_month_all!K42="","",_crushing_month_all!K42)</f>
         <v/>
       </c>
-      <c r="M45" s="28" t="str">
+      <c r="M45" s="1" t="str">
         <f>IF(_crushing_month_all!L42="","",_crushing_month_all!L42)</f>
         <v/>
       </c>
-      <c r="N45" s="28" t="str">
+      <c r="N45" s="1" t="str">
         <f>IF(_crushing_month_all!M42="","",_crushing_month_all!M42)</f>
         <v/>
       </c>
-      <c r="O45" s="28" t="str">
+      <c r="O45" s="1" t="str">
         <f>IF(_crushing_month_all!N42="","",_crushing_month_all!N42)</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:15">
-      <c r="B46" s="28" t="str">
+    <row r="46">
+      <c r="B46" s="1" t="str">
         <f>IF(_crushing_month_all!A43="","",_crushing_month_all!A43)</f>
         <v/>
       </c>
-      <c r="C46" s="28" t="str">
+      <c r="C46" s="1" t="str">
         <f>IF(_crushing_month_all!B43="","",_crushing_month_all!B43)</f>
         <v/>
       </c>
-      <c r="D46" s="28" t="str">
+      <c r="D46" s="1" t="str">
         <f>IF(_crushing_month_all!C43="","",_crushing_month_all!C43)</f>
         <v/>
       </c>
-      <c r="E46" s="28" t="str">
+      <c r="E46" s="1" t="str">
         <f>IF(_crushing_month_all!D43="","",_crushing_month_all!D43)</f>
         <v/>
       </c>
-      <c r="F46" s="28" t="str">
+      <c r="F46" s="1" t="str">
         <f>IF(_crushing_month_all!E43="","",_crushing_month_all!E43)</f>
         <v/>
       </c>
-      <c r="G46" s="28" t="str">
+      <c r="G46" s="1" t="str">
         <f>IF(_crushing_month_all!F43="","",_crushing_month_all!F43)</f>
         <v/>
       </c>
-      <c r="H46" s="28" t="str">
+      <c r="H46" s="1" t="str">
         <f>IF(_crushing_month_all!G43="","",_crushing_month_all!G43)</f>
         <v/>
       </c>
-      <c r="I46" s="28" t="str">
+      <c r="I46" s="1" t="str">
         <f>IF(_crushing_month_all!H43="","",_crushing_month_all!H43)</f>
         <v/>
       </c>
-      <c r="J46" s="28" t="str">
+      <c r="J46" s="1" t="str">
         <f>IF(_crushing_month_all!I43="","",_crushing_month_all!I43)</f>
         <v/>
       </c>
-      <c r="K46" s="28" t="str">
+      <c r="K46" s="1" t="str">
         <f>IF(_crushing_month_all!J43="","",_crushing_month_all!J43)</f>
         <v/>
       </c>
-      <c r="L46" s="28" t="str">
+      <c r="L46" s="1" t="str">
         <f>IF(_crushing_month_all!K43="","",_crushing_month_all!K43)</f>
         <v/>
       </c>
-      <c r="M46" s="28" t="str">
+      <c r="M46" s="1" t="str">
         <f>IF(_crushing_month_all!L43="","",_crushing_month_all!L43)</f>
         <v/>
       </c>
-      <c r="N46" s="28" t="str">
+      <c r="N46" s="1" t="str">
         <f>IF(_crushing_month_all!M43="","",_crushing_month_all!M43)</f>
         <v/>
       </c>
-      <c r="O46" s="28" t="str">
+      <c r="O46" s="1" t="str">
         <f>IF(_crushing_month_all!N43="","",_crushing_month_all!N43)</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:15">
-      <c r="B47" s="28" t="str">
+    <row r="47">
+      <c r="B47" s="1" t="str">
         <f>IF(_crushing_month_all!A44="","",_crushing_month_all!A44)</f>
         <v/>
       </c>
-      <c r="C47" s="28" t="str">
+      <c r="C47" s="1" t="str">
         <f>IF(_crushing_month_all!B44="","",_crushing_month_all!B44)</f>
         <v/>
       </c>
-      <c r="D47" s="28" t="str">
+      <c r="D47" s="1" t="str">
         <f>IF(_crushing_month_all!C44="","",_crushing_month_all!C44)</f>
         <v/>
       </c>
-      <c r="E47" s="28" t="str">
+      <c r="E47" s="1" t="str">
         <f>IF(_crushing_month_all!D44="","",_crushing_month_all!D44)</f>
         <v/>
       </c>
-      <c r="F47" s="28" t="str">
+      <c r="F47" s="1" t="str">
         <f>IF(_crushing_month_all!E44="","",_crushing_month_all!E44)</f>
         <v/>
       </c>
-      <c r="G47" s="28" t="str">
+      <c r="G47" s="1" t="str">
         <f>IF(_crushing_month_all!F44="","",_crushing_month_all!F44)</f>
         <v/>
       </c>
-      <c r="H47" s="28" t="str">
+      <c r="H47" s="1" t="str">
         <f>IF(_crushing_month_all!G44="","",_crushing_month_all!G44)</f>
         <v/>
       </c>
-      <c r="I47" s="28" t="str">
+      <c r="I47" s="1" t="str">
         <f>IF(_crushing_month_all!H44="","",_crushing_month_all!H44)</f>
         <v/>
       </c>
-      <c r="J47" s="28" t="str">
+      <c r="J47" s="1" t="str">
         <f>IF(_crushing_month_all!I44="","",_crushing_month_all!I44)</f>
         <v/>
       </c>
-      <c r="K47" s="28" t="str">
+      <c r="K47" s="1" t="str">
         <f>IF(_crushing_month_all!J44="","",_crushing_month_all!J44)</f>
         <v/>
       </c>
-      <c r="L47" s="28" t="str">
+      <c r="L47" s="1" t="str">
         <f>IF(_crushing_month_all!K44="","",_crushing_month_all!K44)</f>
         <v/>
       </c>
-      <c r="M47" s="28" t="str">
+      <c r="M47" s="1" t="str">
         <f>IF(_crushing_month_all!L44="","",_crushing_month_all!L44)</f>
         <v/>
       </c>
-      <c r="N47" s="28" t="str">
+      <c r="N47" s="1" t="str">
         <f>IF(_crushing_month_all!M44="","",_crushing_month_all!M44)</f>
         <v/>
       </c>
-      <c r="O47" s="28" t="str">
+      <c r="O47" s="1" t="str">
         <f>IF(_crushing_month_all!N44="","",_crushing_month_all!N44)</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:15">
-      <c r="B48" s="28" t="str">
+    <row r="48">
+      <c r="B48" s="1" t="str">
         <f>IF(_crushing_month_all!A45="","",_crushing_month_all!A45)</f>
         <v/>
       </c>
-      <c r="C48" s="28" t="str">
+      <c r="C48" s="1" t="str">
         <f>IF(_crushing_month_all!B45="","",_crushing_month_all!B45)</f>
         <v/>
       </c>
-      <c r="D48" s="28" t="str">
+      <c r="D48" s="1" t="str">
         <f>IF(_crushing_month_all!C45="","",_crushing_month_all!C45)</f>
         <v/>
       </c>
-      <c r="E48" s="28" t="str">
+      <c r="E48" s="1" t="str">
         <f>IF(_crushing_month_all!D45="","",_crushing_month_all!D45)</f>
         <v/>
       </c>
-      <c r="F48" s="28" t="str">
+      <c r="F48" s="1" t="str">
         <f>IF(_crushing_month_all!E45="","",_crushing_month_all!E45)</f>
         <v/>
       </c>
-      <c r="G48" s="28" t="str">
+      <c r="G48" s="1" t="str">
         <f>IF(_crushing_month_all!F45="","",_crushing_month_all!F45)</f>
         <v/>
       </c>
-      <c r="H48" s="28" t="str">
+      <c r="H48" s="1" t="str">
         <f>IF(_crushing_month_all!G45="","",_crushing_month_all!G45)</f>
         <v/>
       </c>
-      <c r="I48" s="28" t="str">
+      <c r="I48" s="1" t="str">
         <f>IF(_crushing_month_all!H45="","",_crushing_month_all!H45)</f>
         <v/>
       </c>
-      <c r="J48" s="28" t="str">
+      <c r="J48" s="1" t="str">
         <f>IF(_crushing_month_all!I45="","",_crushing_month_all!I45)</f>
         <v/>
       </c>
-      <c r="K48" s="28" t="str">
+      <c r="K48" s="1" t="str">
         <f>IF(_crushing_month_all!J45="","",_crushing_month_all!J45)</f>
         <v/>
       </c>
-      <c r="L48" s="28" t="str">
+      <c r="L48" s="1" t="str">
         <f>IF(_crushing_month_all!K45="","",_crushing_month_all!K45)</f>
         <v/>
       </c>
-      <c r="M48" s="28" t="str">
+      <c r="M48" s="1" t="str">
         <f>IF(_crushing_month_all!L45="","",_crushing_month_all!L45)</f>
         <v/>
       </c>
-      <c r="N48" s="28" t="str">
+      <c r="N48" s="1" t="str">
         <f>IF(_crushing_month_all!M45="","",_crushing_month_all!M45)</f>
         <v/>
       </c>
-      <c r="O48" s="28" t="str">
+      <c r="O48" s="1" t="str">
         <f>IF(_crushing_month_all!N45="","",_crushing_month_all!N45)</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:15">
-      <c r="B49" s="28" t="str">
+    <row r="49">
+      <c r="B49" s="1" t="str">
         <f>IF(_crushing_month_all!A46="","",_crushing_month_all!A46)</f>
         <v/>
       </c>
-      <c r="C49" s="28" t="str">
+      <c r="C49" s="1" t="str">
         <f>IF(_crushing_month_all!B46="","",_crushing_month_all!B46)</f>
         <v/>
       </c>
-      <c r="D49" s="28" t="str">
+      <c r="D49" s="1" t="str">
         <f>IF(_crushing_month_all!C46="","",_crushing_month_all!C46)</f>
         <v/>
       </c>
-      <c r="E49" s="28" t="str">
+      <c r="E49" s="1" t="str">
         <f>IF(_crushing_month_all!D46="","",_crushing_month_all!D46)</f>
         <v/>
       </c>
-      <c r="F49" s="28" t="str">
+      <c r="F49" s="1" t="str">
         <f>IF(_crushing_month_all!E46="","",_crushing_month_all!E46)</f>
         <v/>
       </c>
-      <c r="G49" s="28" t="str">
+      <c r="G49" s="1" t="str">
         <f>IF(_crushing_month_all!F46="","",_crushing_month_all!F46)</f>
         <v/>
       </c>
-      <c r="H49" s="28" t="str">
+      <c r="H49" s="1" t="str">
         <f>IF(_crushing_month_all!G46="","",_crushing_month_all!G46)</f>
         <v/>
       </c>
-      <c r="I49" s="28" t="str">
+      <c r="I49" s="1" t="str">
         <f>IF(_crushing_month_all!H46="","",_crushing_month_all!H46)</f>
         <v/>
       </c>
-      <c r="J49" s="28" t="str">
+      <c r="J49" s="1" t="str">
         <f>IF(_crushing_month_all!I46="","",_crushing_month_all!I46)</f>
         <v/>
       </c>
-      <c r="K49" s="28" t="str">
+      <c r="K49" s="1" t="str">
         <f>IF(_crushing_month_all!J46="","",_crushing_month_all!J46)</f>
         <v/>
       </c>
-      <c r="L49" s="28" t="str">
+      <c r="L49" s="1" t="str">
         <f>IF(_crushing_month_all!K46="","",_crushing_month_all!K46)</f>
         <v/>
       </c>
-      <c r="M49" s="28" t="str">
+      <c r="M49" s="1" t="str">
         <f>IF(_crushing_month_all!L46="","",_crushing_month_all!L46)</f>
         <v/>
       </c>
-      <c r="N49" s="28" t="str">
+      <c r="N49" s="1" t="str">
         <f>IF(_crushing_month_all!M46="","",_crushing_month_all!M46)</f>
         <v/>
       </c>
-      <c r="O49" s="28" t="str">
+      <c r="O49" s="1" t="str">
         <f>IF(_crushing_month_all!N46="","",_crushing_month_all!N46)</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:15">
-      <c r="B50" s="28" t="str">
+    <row r="50">
+      <c r="B50" s="1" t="str">
         <f>IF(_crushing_month_all!A47="","",_crushing_month_all!A47)</f>
         <v/>
       </c>
-      <c r="C50" s="28" t="str">
+      <c r="C50" s="1" t="str">
         <f>IF(_crushing_month_all!B47="","",_crushing_month_all!B47)</f>
         <v/>
       </c>
-      <c r="D50" s="28" t="str">
+      <c r="D50" s="1" t="str">
         <f>IF(_crushing_month_all!C47="","",_crushing_month_all!C47)</f>
         <v/>
       </c>
-      <c r="E50" s="28" t="str">
+      <c r="E50" s="1" t="str">
         <f>IF(_crushing_month_all!D47="","",_crushing_month_all!D47)</f>
         <v/>
       </c>
-      <c r="F50" s="28" t="str">
+      <c r="F50" s="1" t="str">
         <f>IF(_crushing_month_all!E47="","",_crushing_month_all!E47)</f>
         <v/>
       </c>
-      <c r="G50" s="28" t="str">
+      <c r="G50" s="1" t="str">
         <f>IF(_crushing_month_all!F47="","",_crushing_month_all!F47)</f>
         <v/>
       </c>
-      <c r="H50" s="28" t="str">
+      <c r="H50" s="1" t="str">
         <f>IF(_crushing_month_all!G47="","",_crushing_month_all!G47)</f>
         <v/>
       </c>
-      <c r="I50" s="28" t="str">
+      <c r="I50" s="1" t="str">
         <f>IF(_crushing_month_all!H47="","",_crushing_month_all!H47)</f>
         <v/>
       </c>
-      <c r="J50" s="28" t="str">
+      <c r="J50" s="1" t="str">
         <f>IF(_crushing_month_all!I47="","",_crushing_month_all!I47)</f>
         <v/>
       </c>
-      <c r="K50" s="28" t="str">
+      <c r="K50" s="1" t="str">
         <f>IF(_crushing_month_all!J47="","",_crushing_month_all!J47)</f>
         <v/>
       </c>
-      <c r="L50" s="28" t="str">
+      <c r="L50" s="1" t="str">
         <f>IF(_crushing_month_all!K47="","",_crushing_month_all!K47)</f>
         <v/>
       </c>
-      <c r="M50" s="28" t="str">
+      <c r="M50" s="1" t="str">
         <f>IF(_crushing_month_all!L47="","",_crushing_month_all!L47)</f>
         <v/>
       </c>
-      <c r="N50" s="28" t="str">
+      <c r="N50" s="1" t="str">
         <f>IF(_crushing_month_all!M47="","",_crushing_month_all!M47)</f>
         <v/>
       </c>
-      <c r="O50" s="28" t="str">
+      <c r="O50" s="1" t="str">
         <f>IF(_crushing_month_all!N47="","",_crushing_month_all!N47)</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:15">
-      <c r="B51" s="28" t="str">
+    <row r="51">
+      <c r="B51" s="1" t="str">
         <f>IF(_crushing_month_all!A48="","",_crushing_month_all!A48)</f>
         <v/>
       </c>
-      <c r="C51" s="28" t="str">
+      <c r="C51" s="1" t="str">
         <f>IF(_crushing_month_all!B48="","",_crushing_month_all!B48)</f>
         <v/>
       </c>
-      <c r="D51" s="28" t="str">
+      <c r="D51" s="1" t="str">
         <f>IF(_crushing_month_all!C48="","",_crushing_month_all!C48)</f>
         <v/>
       </c>
-      <c r="E51" s="28" t="str">
+      <c r="E51" s="1" t="str">
         <f>IF(_crushing_month_all!D48="","",_crushing_month_all!D48)</f>
         <v/>
       </c>
-      <c r="F51" s="28" t="str">
+      <c r="F51" s="1" t="str">
         <f>IF(_crushing_month_all!E48="","",_crushing_month_all!E48)</f>
         <v/>
       </c>
-      <c r="G51" s="28" t="str">
+      <c r="G51" s="1" t="str">
         <f>IF(_crushing_month_all!F48="","",_crushing_month_all!F48)</f>
         <v/>
       </c>
-      <c r="H51" s="28" t="str">
+      <c r="H51" s="1" t="str">
         <f>IF(_crushing_month_all!G48="","",_crushing_month_all!G48)</f>
         <v/>
       </c>
-      <c r="I51" s="28" t="str">
+      <c r="I51" s="1" t="str">
         <f>IF(_crushing_month_all!H48="","",_crushing_month_all!H48)</f>
         <v/>
       </c>
-      <c r="J51" s="28" t="str">
+      <c r="J51" s="1" t="str">
         <f>IF(_crushing_month_all!I48="","",_crushing_month_all!I48)</f>
         <v/>
       </c>
-      <c r="K51" s="28" t="str">
+      <c r="K51" s="1" t="str">
         <f>IF(_crushing_month_all!J48="","",_crushing_month_all!J48)</f>
         <v/>
       </c>
-      <c r="L51" s="28" t="str">
+      <c r="L51" s="1" t="str">
         <f>IF(_crushing_month_all!K48="","",_crushing_month_all!K48)</f>
         <v/>
       </c>
-      <c r="M51" s="28" t="str">
+      <c r="M51" s="1" t="str">
         <f>IF(_crushing_month_all!L48="","",_crushing_month_all!L48)</f>
         <v/>
       </c>
-      <c r="N51" s="28" t="str">
+      <c r="N51" s="1" t="str">
         <f>IF(_crushing_month_all!M48="","",_crushing_month_all!M48)</f>
         <v/>
       </c>
-      <c r="O51" s="28" t="str">
+      <c r="O51" s="1" t="str">
         <f>IF(_crushing_month_all!N48="","",_crushing_month_all!N48)</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:15">
-      <c r="B52" s="28" t="str">
+    <row r="52">
+      <c r="B52" s="1" t="str">
         <f>IF(_crushing_month_all!A49="","",_crushing_month_all!A49)</f>
         <v/>
       </c>
-      <c r="C52" s="28" t="str">
+      <c r="C52" s="1" t="str">
         <f>IF(_crushing_month_all!B49="","",_crushing_month_all!B49)</f>
         <v/>
       </c>
-      <c r="D52" s="28" t="str">
+      <c r="D52" s="1" t="str">
         <f>IF(_crushing_month_all!C49="","",_crushing_month_all!C49)</f>
         <v/>
       </c>
-      <c r="E52" s="28" t="str">
+      <c r="E52" s="1" t="str">
         <f>IF(_crushing_month_all!D49="","",_crushing_month_all!D49)</f>
         <v/>
       </c>
-      <c r="F52" s="28" t="str">
+      <c r="F52" s="1" t="str">
         <f>IF(_crushing_month_all!E49="","",_crushing_month_all!E49)</f>
         <v/>
       </c>
-      <c r="G52" s="28" t="str">
+      <c r="G52" s="1" t="str">
         <f>IF(_crushing_month_all!F49="","",_crushing_month_all!F49)</f>
         <v/>
       </c>
-      <c r="H52" s="28" t="str">
+      <c r="H52" s="1" t="str">
         <f>IF(_crushing_month_all!G49="","",_crushing_month_all!G49)</f>
         <v/>
       </c>
-      <c r="I52" s="28" t="str">
+      <c r="I52" s="1" t="str">
         <f>IF(_crushing_month_all!H49="","",_crushing_month_all!H49)</f>
         <v/>
       </c>
-      <c r="J52" s="28" t="str">
+      <c r="J52" s="1" t="str">
         <f>IF(_crushing_month_all!I49="","",_crushing_month_all!I49)</f>
         <v/>
       </c>
-      <c r="K52" s="28" t="str">
+      <c r="K52" s="1" t="str">
         <f>IF(_crushing_month_all!J49="","",_crushing_month_all!J49)</f>
         <v/>
       </c>
-      <c r="L52" s="28" t="str">
+      <c r="L52" s="1" t="str">
         <f>IF(_crushing_month_all!K49="","",_crushing_month_all!K49)</f>
         <v/>
       </c>
-      <c r="M52" s="28" t="str">
+      <c r="M52" s="1" t="str">
         <f>IF(_crushing_month_all!L49="","",_crushing_month_all!L49)</f>
         <v/>
       </c>
-      <c r="N52" s="28" t="str">
+      <c r="N52" s="1" t="str">
         <f>IF(_crushing_month_all!M49="","",_crushing_month_all!M49)</f>
         <v/>
       </c>
-      <c r="O52" s="28" t="str">
+      <c r="O52" s="1" t="str">
         <f>IF(_crushing_month_all!N49="","",_crushing_month_all!N49)</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:15">
-      <c r="B53" s="28" t="str">
+    <row r="53">
+      <c r="B53" s="1" t="str">
         <f>IF(_crushing_month_all!A50="","",_crushing_month_all!A50)</f>
         <v/>
       </c>
-      <c r="C53" s="28" t="str">
+      <c r="C53" s="1" t="str">
         <f>IF(_crushing_month_all!B50="","",_crushing_month_all!B50)</f>
         <v/>
       </c>
-      <c r="D53" s="28" t="str">
+      <c r="D53" s="1" t="str">
         <f>IF(_crushing_month_all!C50="","",_crushing_month_all!C50)</f>
         <v/>
       </c>
-      <c r="E53" s="28" t="str">
+      <c r="E53" s="1" t="str">
         <f>IF(_crushing_month_all!D50="","",_crushing_month_all!D50)</f>
         <v/>
       </c>
-      <c r="F53" s="28" t="str">
+      <c r="F53" s="1" t="str">
         <f>IF(_crushing_month_all!E50="","",_crushing_month_all!E50)</f>
         <v/>
       </c>
-      <c r="G53" s="28" t="str">
+      <c r="G53" s="1" t="str">
         <f>IF(_crushing_month_all!F50="","",_crushing_month_all!F50)</f>
         <v/>
       </c>
-      <c r="H53" s="28" t="str">
+      <c r="H53" s="1" t="str">
         <f>IF(_crushing_month_all!G50="","",_crushing_month_all!G50)</f>
         <v/>
       </c>
-      <c r="I53" s="28" t="str">
+      <c r="I53" s="1" t="str">
         <f>IF(_crushing_month_all!H50="","",_crushing_month_all!H50)</f>
         <v/>
       </c>
-      <c r="J53" s="28" t="str">
+      <c r="J53" s="1" t="str">
         <f>IF(_crushing_month_all!I50="","",_crushing_month_all!I50)</f>
         <v/>
       </c>
-      <c r="K53" s="28" t="str">
+      <c r="K53" s="1" t="str">
         <f>IF(_crushing_month_all!J50="","",_crushing_month_all!J50)</f>
         <v/>
       </c>
-      <c r="L53" s="28" t="str">
+      <c r="L53" s="1" t="str">
         <f>IF(_crushing_month_all!K50="","",_crushing_month_all!K50)</f>
         <v/>
       </c>
-      <c r="M53" s="28" t="str">
+      <c r="M53" s="1" t="str">
         <f>IF(_crushing_month_all!L50="","",_crushing_month_all!L50)</f>
         <v/>
       </c>
-      <c r="N53" s="28" t="str">
+      <c r="N53" s="1" t="str">
         <f>IF(_crushing_month_all!M50="","",_crushing_month_all!M50)</f>
         <v/>
       </c>
-      <c r="O53" s="28" t="str">
+      <c r="O53" s="1" t="str">
         <f>IF(_crushing_month_all!N50="","",_crushing_month_all!N50)</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:15">
-      <c r="B54" s="28" t="str">
+    <row r="54">
+      <c r="B54" s="1" t="str">
         <f>IF(_crushing_month_all!A51="","",_crushing_month_all!A51)</f>
         <v/>
       </c>
-      <c r="C54" s="28" t="str">
+      <c r="C54" s="1" t="str">
         <f>IF(_crushing_month_all!B51="","",_crushing_month_all!B51)</f>
         <v/>
       </c>
-      <c r="D54" s="28" t="str">
+      <c r="D54" s="1" t="str">
         <f>IF(_crushing_month_all!C51="","",_crushing_month_all!C51)</f>
         <v/>
       </c>
-      <c r="E54" s="28" t="str">
+      <c r="E54" s="1" t="str">
         <f>IF(_crushing_month_all!D51="","",_crushing_month_all!D51)</f>
         <v/>
       </c>
-      <c r="F54" s="28" t="str">
+      <c r="F54" s="1" t="str">
         <f>IF(_crushing_month_all!E51="","",_crushing_month_all!E51)</f>
         <v/>
       </c>
-      <c r="G54" s="28" t="str">
+      <c r="G54" s="1" t="str">
         <f>IF(_crushing_month_all!F51="","",_crushing_month_all!F51)</f>
         <v/>
       </c>
-      <c r="H54" s="28" t="str">
+      <c r="H54" s="1" t="str">
         <f>IF(_crushing_month_all!G51="","",_crushing_month_all!G51)</f>
         <v/>
       </c>
-      <c r="I54" s="28" t="str">
+      <c r="I54" s="1" t="str">
         <f>IF(_crushing_month_all!H51="","",_crushing_month_all!H51)</f>
         <v/>
       </c>
-      <c r="J54" s="28" t="str">
+      <c r="J54" s="1" t="str">
         <f>IF(_crushing_month_all!I51="","",_crushing_month_all!I51)</f>
         <v/>
       </c>
-      <c r="K54" s="28" t="str">
+      <c r="K54" s="1" t="str">
         <f>IF(_crushing_month_all!J51="","",_crushing_month_all!J51)</f>
         <v/>
       </c>
-      <c r="L54" s="28" t="str">
+      <c r="L54" s="1" t="str">
         <f>IF(_crushing_month_all!K51="","",_crushing_month_all!K51)</f>
         <v/>
       </c>
-      <c r="M54" s="28" t="str">
+      <c r="M54" s="1" t="str">
         <f>IF(_crushing_month_all!L51="","",_crushing_month_all!L51)</f>
         <v/>
       </c>
-      <c r="N54" s="28" t="str">
+      <c r="N54" s="1" t="str">
         <f>IF(_crushing_month_all!M51="","",_crushing_month_all!M51)</f>
         <v/>
       </c>
-      <c r="O54" s="28" t="str">
+      <c r="O54" s="1" t="str">
         <f>IF(_crushing_month_all!N51="","",_crushing_month_all!N51)</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:15">
-      <c r="B55" s="28" t="str">
+    <row r="55">
+      <c r="B55" s="1" t="str">
         <f>IF(_crushing_month_all!A52="","",_crushing_month_all!A52)</f>
         <v/>
       </c>
-      <c r="C55" s="28" t="str">
+      <c r="C55" s="1" t="str">
         <f>IF(_crushing_month_all!B52="","",_crushing_month_all!B52)</f>
         <v/>
       </c>
-      <c r="D55" s="28" t="str">
+      <c r="D55" s="1" t="str">
         <f>IF(_crushing_month_all!C52="","",_crushing_month_all!C52)</f>
         <v/>
       </c>
-      <c r="E55" s="28" t="str">
+      <c r="E55" s="1" t="str">
         <f>IF(_crushing_month_all!D52="","",_crushing_month_all!D52)</f>
         <v/>
       </c>
-      <c r="F55" s="28" t="str">
+      <c r="F55" s="1" t="str">
         <f>IF(_crushing_month_all!E52="","",_crushing_month_all!E52)</f>
         <v/>
       </c>
-      <c r="G55" s="28" t="str">
+      <c r="G55" s="1" t="str">
         <f>IF(_crushing_month_all!F52="","",_crushing_month_all!F52)</f>
         <v/>
       </c>
-      <c r="H55" s="28" t="str">
+      <c r="H55" s="1" t="str">
         <f>IF(_crushing_month_all!G52="","",_crushing_month_all!G52)</f>
         <v/>
       </c>
-      <c r="I55" s="28" t="str">
+      <c r="I55" s="1" t="str">
         <f>IF(_crushing_month_all!H52="","",_crushing_month_all!H52)</f>
         <v/>
       </c>
-      <c r="J55" s="28" t="str">
+      <c r="J55" s="1" t="str">
         <f>IF(_crushing_month_all!I52="","",_crushing_month_all!I52)</f>
         <v/>
       </c>
-      <c r="K55" s="28" t="str">
+      <c r="K55" s="1" t="str">
         <f>IF(_crushing_month_all!J52="","",_crushing_month_all!J52)</f>
         <v/>
       </c>
-      <c r="L55" s="28" t="str">
+      <c r="L55" s="1" t="str">
         <f>IF(_crushing_month_all!K52="","",_crushing_month_all!K52)</f>
         <v/>
       </c>
-      <c r="M55" s="28" t="str">
+      <c r="M55" s="1" t="str">
         <f>IF(_crushing_month_all!L52="","",_crushing_month_all!L52)</f>
         <v/>
       </c>
-      <c r="N55" s="28" t="str">
+      <c r="N55" s="1" t="str">
         <f>IF(_crushing_month_all!M52="","",_crushing_month_all!M52)</f>
         <v/>
       </c>
-      <c r="O55" s="28" t="str">
+      <c r="O55" s="1" t="str">
         <f>IF(_crushing_month_all!N52="","",_crushing_month_all!N52)</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:15">
-      <c r="B56" s="28" t="str">
+    <row r="56">
+      <c r="B56" s="1" t="str">
         <f>IF(_crushing_month_all!A53="","",_crushing_month_all!A53)</f>
         <v/>
       </c>
-      <c r="C56" s="28" t="str">
+      <c r="C56" s="1" t="str">
         <f>IF(_crushing_month_all!B53="","",_crushing_month_all!B53)</f>
         <v/>
       </c>
-      <c r="D56" s="28" t="str">
+      <c r="D56" s="1" t="str">
         <f>IF(_crushing_month_all!C53="","",_crushing_month_all!C53)</f>
         <v/>
       </c>
-      <c r="E56" s="28" t="str">
+      <c r="E56" s="1" t="str">
         <f>IF(_crushing_month_all!D53="","",_crushing_month_all!D53)</f>
         <v/>
       </c>
-      <c r="F56" s="28" t="str">
+      <c r="F56" s="1" t="str">
         <f>IF(_crushing_month_all!E53="","",_crushing_month_all!E53)</f>
         <v/>
       </c>
-      <c r="G56" s="28" t="str">
+      <c r="G56" s="1" t="str">
         <f>IF(_crushing_month_all!F53="","",_crushing_month_all!F53)</f>
         <v/>
       </c>
-      <c r="H56" s="28" t="str">
+      <c r="H56" s="1" t="str">
         <f>IF(_crushing_month_all!G53="","",_crushing_month_all!G53)</f>
         <v/>
       </c>
-      <c r="I56" s="28" t="str">
+      <c r="I56" s="1" t="str">
         <f>IF(_crushing_month_all!H53="","",_crushing_month_all!H53)</f>
         <v/>
       </c>
-      <c r="J56" s="28" t="str">
+      <c r="J56" s="1" t="str">
         <f>IF(_crushing_month_all!I53="","",_crushing_month_all!I53)</f>
         <v/>
       </c>
-      <c r="K56" s="28" t="str">
+      <c r="K56" s="1" t="str">
         <f>IF(_crushing_month_all!J53="","",_crushing_month_all!J53)</f>
         <v/>
       </c>
-      <c r="L56" s="28" t="str">
+      <c r="L56" s="1" t="str">
         <f>IF(_crushing_month_all!K53="","",_crushing_month_all!K53)</f>
         <v/>
       </c>
-      <c r="M56" s="28" t="str">
+      <c r="M56" s="1" t="str">
         <f>IF(_crushing_month_all!L53="","",_crushing_month_all!L53)</f>
         <v/>
       </c>
-      <c r="N56" s="28" t="str">
+      <c r="N56" s="1" t="str">
         <f>IF(_crushing_month_all!M53="","",_crushing_month_all!M53)</f>
         <v/>
       </c>
-      <c r="O56" s="28" t="str">
+      <c r="O56" s="1" t="str">
         <f>IF(_crushing_month_all!N53="","",_crushing_month_all!N53)</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:15">
-      <c r="B57" s="28" t="str">
+    <row r="57">
+      <c r="B57" s="1" t="str">
         <f>IF(_crushing_month_all!A54="","",_crushing_month_all!A54)</f>
         <v/>
       </c>
-      <c r="C57" s="28" t="str">
+      <c r="C57" s="1" t="str">
         <f>IF(_crushing_month_all!B54="","",_crushing_month_all!B54)</f>
         <v/>
       </c>
-      <c r="D57" s="28" t="str">
+      <c r="D57" s="1" t="str">
         <f>IF(_crushing_month_all!C54="","",_crushing_month_all!C54)</f>
         <v/>
       </c>
-      <c r="E57" s="28" t="str">
+      <c r="E57" s="1" t="str">
         <f>IF(_crushing_month_all!D54="","",_crushing_month_all!D54)</f>
         <v/>
       </c>
-      <c r="F57" s="28" t="str">
+      <c r="F57" s="1" t="str">
         <f>IF(_crushing_month_all!E54="","",_crushing_month_all!E54)</f>
         <v/>
       </c>
-      <c r="G57" s="28" t="str">
+      <c r="G57" s="1" t="str">
         <f>IF(_crushing_month_all!F54="","",_crushing_month_all!F54)</f>
         <v/>
       </c>
-      <c r="H57" s="28" t="str">
+      <c r="H57" s="1" t="str">
         <f>IF(_crushing_month_all!G54="","",_crushing_month_all!G54)</f>
         <v/>
       </c>
-      <c r="I57" s="28" t="str">
+      <c r="I57" s="1" t="str">
         <f>IF(_crushing_month_all!H54="","",_crushing_month_all!H54)</f>
         <v/>
       </c>
-      <c r="J57" s="28" t="str">
+      <c r="J57" s="1" t="str">
         <f>IF(_crushing_month_all!I54="","",_crushing_month_all!I54)</f>
         <v/>
       </c>
-      <c r="K57" s="28" t="str">
+      <c r="K57" s="1" t="str">
         <f>IF(_crushing_month_all!J54="","",_crushing_month_all!J54)</f>
         <v/>
       </c>
-      <c r="L57" s="28" t="str">
+      <c r="L57" s="1" t="str">
         <f>IF(_crushing_month_all!K54="","",_crushing_month_all!K54)</f>
         <v/>
       </c>
-      <c r="M57" s="28" t="str">
+      <c r="M57" s="1" t="str">
         <f>IF(_crushing_month_all!L54="","",_crushing_month_all!L54)</f>
         <v/>
       </c>
-      <c r="N57" s="28" t="str">
+      <c r="N57" s="1" t="str">
         <f>IF(_crushing_month_all!M54="","",_crushing_month_all!M54)</f>
         <v/>
       </c>
-      <c r="O57" s="28" t="str">
+      <c r="O57" s="1" t="str">
         <f>IF(_crushing_month_all!N54="","",_crushing_month_all!N54)</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:15">
-      <c r="B58" s="28" t="str">
+    <row r="58">
+      <c r="B58" s="1" t="str">
         <f>IF(_crushing_month_all!A55="","",_crushing_month_all!A55)</f>
         <v/>
       </c>
-      <c r="C58" s="28" t="str">
+      <c r="C58" s="1" t="str">
         <f>IF(_crushing_month_all!B55="","",_crushing_month_all!B55)</f>
         <v/>
       </c>
-      <c r="D58" s="28" t="str">
+      <c r="D58" s="1" t="str">
         <f>IF(_crushing_month_all!C55="","",_crushing_month_all!C55)</f>
         <v/>
       </c>
-      <c r="E58" s="28" t="str">
+      <c r="E58" s="1" t="str">
         <f>IF(_crushing_month_all!D55="","",_crushing_month_all!D55)</f>
         <v/>
       </c>
-      <c r="F58" s="28" t="str">
+      <c r="F58" s="1" t="str">
         <f>IF(_crushing_month_all!E55="","",_crushing_month_all!E55)</f>
         <v/>
       </c>
-      <c r="G58" s="28" t="str">
+      <c r="G58" s="1" t="str">
         <f>IF(_crushing_month_all!F55="","",_crushing_month_all!F55)</f>
         <v/>
       </c>
-      <c r="H58" s="28" t="str">
+      <c r="H58" s="1" t="str">
         <f>IF(_crushing_month_all!G55="","",_crushing_month_all!G55)</f>
         <v/>
       </c>
-      <c r="I58" s="28" t="str">
+      <c r="I58" s="1" t="str">
         <f>IF(_crushing_month_all!H55="","",_crushing_month_all!H55)</f>
         <v/>
       </c>
-      <c r="J58" s="28" t="str">
+      <c r="J58" s="1" t="str">
         <f>IF(_crushing_month_all!I55="","",_crushing_month_all!I55)</f>
         <v/>
       </c>
-      <c r="K58" s="28" t="str">
+      <c r="K58" s="1" t="str">
         <f>IF(_crushing_month_all!J55="","",_crushing_month_all!J55)</f>
         <v/>
       </c>
-      <c r="L58" s="28" t="str">
+      <c r="L58" s="1" t="str">
         <f>IF(_crushing_month_all!K55="","",_crushing_month_all!K55)</f>
         <v/>
       </c>
-      <c r="M58" s="28" t="str">
+      <c r="M58" s="1" t="str">
         <f>IF(_crushing_month_all!L55="","",_crushing_month_all!L55)</f>
         <v/>
       </c>
-      <c r="N58" s="28" t="str">
+      <c r="N58" s="1" t="str">
         <f>IF(_crushing_month_all!M55="","",_crushing_month_all!M55)</f>
         <v/>
       </c>
-      <c r="O58" s="28" t="str">
+      <c r="O58" s="1" t="str">
         <f>IF(_crushing_month_all!N55="","",_crushing_month_all!N55)</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:15">
-      <c r="B59" s="28" t="str">
+    <row r="59">
+      <c r="B59" s="1" t="str">
         <f>IF(_crushing_month_all!A56="","",_crushing_month_all!A56)</f>
         <v/>
       </c>
-      <c r="C59" s="28" t="str">
+      <c r="C59" s="1" t="str">
         <f>IF(_crushing_month_all!B56="","",_crushing_month_all!B56)</f>
         <v/>
       </c>
-      <c r="D59" s="28" t="str">
+      <c r="D59" s="1" t="str">
         <f>IF(_crushing_month_all!C56="","",_crushing_month_all!C56)</f>
         <v/>
       </c>
-      <c r="E59" s="28" t="str">
+      <c r="E59" s="1" t="str">
         <f>IF(_crushing_month_all!D56="","",_crushing_month_all!D56)</f>
         <v/>
       </c>
-      <c r="F59" s="28" t="str">
+      <c r="F59" s="1" t="str">
         <f>IF(_crushing_month_all!E56="","",_crushing_month_all!E56)</f>
         <v/>
       </c>
-      <c r="G59" s="28" t="str">
+      <c r="G59" s="1" t="str">
         <f>IF(_crushing_month_all!F56="","",_crushing_month_all!F56)</f>
         <v/>
       </c>
-      <c r="H59" s="28" t="str">
+      <c r="H59" s="1" t="str">
         <f>IF(_crushing_month_all!G56="","",_crushing_month_all!G56)</f>
         <v/>
       </c>
-      <c r="I59" s="28" t="str">
+      <c r="I59" s="1" t="str">
         <f>IF(_crushing_month_all!H56="","",_crushing_month_all!H56)</f>
         <v/>
       </c>
-      <c r="J59" s="28" t="str">
+      <c r="J59" s="1" t="str">
         <f>IF(_crushing_month_all!I56="","",_crushing_month_all!I56)</f>
         <v/>
       </c>
-      <c r="K59" s="28" t="str">
+      <c r="K59" s="1" t="str">
         <f>IF(_crushing_month_all!J56="","",_crushing_month_all!J56)</f>
         <v/>
       </c>
-      <c r="L59" s="28" t="str">
+      <c r="L59" s="1" t="str">
         <f>IF(_crushing_month_all!K56="","",_crushing_month_all!K56)</f>
         <v/>
       </c>
-      <c r="M59" s="28" t="str">
+      <c r="M59" s="1" t="str">
         <f>IF(_crushing_month_all!L56="","",_crushing_month_all!L56)</f>
         <v/>
       </c>
-      <c r="N59" s="28" t="str">
+      <c r="N59" s="1" t="str">
         <f>IF(_crushing_month_all!M56="","",_crushing_month_all!M56)</f>
         <v/>
       </c>
-      <c r="O59" s="28" t="str">
+      <c r="O59" s="1" t="str">
         <f>IF(_crushing_month_all!N56="","",_crushing_month_all!N56)</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:15">
-      <c r="B60" s="28" t="str">
+    <row r="60">
+      <c r="B60" s="1" t="str">
         <f>IF(_crushing_month_all!A57="","",_crushing_month_all!A57)</f>
         <v/>
       </c>
-      <c r="C60" s="28" t="str">
+      <c r="C60" s="1" t="str">
         <f>IF(_crushing_month_all!B57="","",_crushing_month_all!B57)</f>
         <v/>
       </c>
-      <c r="D60" s="28" t="str">
+      <c r="D60" s="1" t="str">
         <f>IF(_crushing_month_all!C57="","",_crushing_month_all!C57)</f>
         <v/>
       </c>
-      <c r="E60" s="28" t="str">
+      <c r="E60" s="1" t="str">
         <f>IF(_crushing_month_all!D57="","",_crushing_month_all!D57)</f>
         <v/>
       </c>
-      <c r="F60" s="28" t="str">
+      <c r="F60" s="1" t="str">
         <f>IF(_crushing_month_all!E57="","",_crushing_month_all!E57)</f>
         <v/>
       </c>
-      <c r="G60" s="28" t="str">
+      <c r="G60" s="1" t="str">
         <f>IF(_crushing_month_all!F57="","",_crushing_month_all!F57)</f>
         <v/>
       </c>
-      <c r="H60" s="28" t="str">
+      <c r="H60" s="1" t="str">
         <f>IF(_crushing_month_all!G57="","",_crushing_month_all!G57)</f>
         <v/>
       </c>
-      <c r="I60" s="28" t="str">
+      <c r="I60" s="1" t="str">
         <f>IF(_crushing_month_all!H57="","",_crushing_month_all!H57)</f>
         <v/>
       </c>
-      <c r="J60" s="28" t="str">
+      <c r="J60" s="1" t="str">
         <f>IF(_crushing_month_all!I57="","",_crushing_month_all!I57)</f>
         <v/>
       </c>
-      <c r="K60" s="28" t="str">
+      <c r="K60" s="1" t="str">
         <f>IF(_crushing_month_all!J57="","",_crushing_month_all!J57)</f>
         <v/>
       </c>
-      <c r="L60" s="28" t="str">
+      <c r="L60" s="1" t="str">
         <f>IF(_crushing_month_all!K57="","",_crushing_month_all!K57)</f>
         <v/>
       </c>
-      <c r="M60" s="28" t="str">
+      <c r="M60" s="1" t="str">
         <f>IF(_crushing_month_all!L57="","",_crushing_month_all!L57)</f>
         <v/>
       </c>
-      <c r="N60" s="28" t="str">
+      <c r="N60" s="1" t="str">
         <f>IF(_crushing_month_all!M57="","",_crushing_month_all!M57)</f>
         <v/>
       </c>
-      <c r="O60" s="28" t="str">
+      <c r="O60" s="1" t="str">
         <f>IF(_crushing_month_all!N57="","",_crushing_month_all!N57)</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:15">
-      <c r="B61" s="28" t="str">
+    <row r="61">
+      <c r="B61" s="1" t="str">
         <f>IF(_crushing_month_all!A58="","",_crushing_month_all!A58)</f>
         <v/>
       </c>
-      <c r="C61" s="28" t="str">
+      <c r="C61" s="1" t="str">
         <f>IF(_crushing_month_all!B58="","",_crushing_month_all!B58)</f>
         <v/>
       </c>
-      <c r="D61" s="28" t="str">
+      <c r="D61" s="1" t="str">
         <f>IF(_crushing_month_all!C58="","",_crushing_month_all!C58)</f>
         <v/>
       </c>
-      <c r="E61" s="28" t="str">
+      <c r="E61" s="1" t="str">
         <f>IF(_crushing_month_all!D58="","",_crushing_month_all!D58)</f>
         <v/>
       </c>
-      <c r="F61" s="28" t="str">
+      <c r="F61" s="1" t="str">
         <f>IF(_crushing_month_all!E58="","",_crushing_month_all!E58)</f>
         <v/>
       </c>
-      <c r="G61" s="28" t="str">
+      <c r="G61" s="1" t="str">
         <f>IF(_crushing_month_all!F58="","",_crushing_month_all!F58)</f>
         <v/>
       </c>
-      <c r="H61" s="28" t="str">
+      <c r="H61" s="1" t="str">
         <f>IF(_crushing_month_all!G58="","",_crushing_month_all!G58)</f>
         <v/>
       </c>
-      <c r="I61" s="28" t="str">
+      <c r="I61" s="1" t="str">
         <f>IF(_crushing_month_all!H58="","",_crushing_month_all!H58)</f>
         <v/>
       </c>
-      <c r="J61" s="28" t="str">
+      <c r="J61" s="1" t="str">
         <f>IF(_crushing_month_all!I58="","",_crushing_month_all!I58)</f>
         <v/>
       </c>
-      <c r="K61" s="28" t="str">
+      <c r="K61" s="1" t="str">
         <f>IF(_crushing_month_all!J58="","",_crushing_month_all!J58)</f>
         <v/>
       </c>
-      <c r="L61" s="28" t="str">
+      <c r="L61" s="1" t="str">
         <f>IF(_crushing_month_all!K58="","",_crushing_month_all!K58)</f>
         <v/>
       </c>
-      <c r="M61" s="28" t="str">
+      <c r="M61" s="1" t="str">
         <f>IF(_crushing_month_all!L58="","",_crushing_month_all!L58)</f>
         <v/>
       </c>
-      <c r="N61" s="28" t="str">
+      <c r="N61" s="1" t="str">
         <f>IF(_crushing_month_all!M58="","",_crushing_month_all!M58)</f>
         <v/>
       </c>
-      <c r="O61" s="28" t="str">
+      <c r="O61" s="1" t="str">
         <f>IF(_crushing_month_all!N58="","",_crushing_month_all!N58)</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:15">
-      <c r="B62" s="28" t="str">
+    <row r="62">
+      <c r="B62" s="1" t="str">
         <f>IF(_crushing_month_all!A59="","",_crushing_month_all!A59)</f>
         <v/>
       </c>
-      <c r="C62" s="28" t="str">
+      <c r="C62" s="1" t="str">
         <f>IF(_crushing_month_all!B59="","",_crushing_month_all!B59)</f>
         <v/>
       </c>
-      <c r="D62" s="28" t="str">
+      <c r="D62" s="1" t="str">
         <f>IF(_crushing_month_all!C59="","",_crushing_month_all!C59)</f>
         <v/>
       </c>
-      <c r="E62" s="28" t="str">
+      <c r="E62" s="1" t="str">
         <f>IF(_crushing_month_all!D59="","",_crushing_month_all!D59)</f>
         <v/>
       </c>
-      <c r="F62" s="28" t="str">
+      <c r="F62" s="1" t="str">
         <f>IF(_crushing_month_all!E59="","",_crushing_month_all!E59)</f>
         <v/>
       </c>
-      <c r="G62" s="28" t="str">
+      <c r="G62" s="1" t="str">
         <f>IF(_crushing_month_all!F59="","",_crushing_month_all!F59)</f>
         <v/>
       </c>
-      <c r="H62" s="28" t="str">
+      <c r="H62" s="1" t="str">
         <f>IF(_crushing_month_all!G59="","",_crushing_month_all!G59)</f>
         <v/>
       </c>
-      <c r="I62" s="28" t="str">
+      <c r="I62" s="1" t="str">
         <f>IF(_crushing_month_all!H59="","",_crushing_month_all!H59)</f>
         <v/>
       </c>
-      <c r="J62" s="28" t="str">
+      <c r="J62" s="1" t="str">
         <f>IF(_crushing_month_all!I59="","",_crushing_month_all!I59)</f>
         <v/>
       </c>
-      <c r="K62" s="28" t="str">
+      <c r="K62" s="1" t="str">
         <f>IF(_crushing_month_all!J59="","",_crushing_month_all!J59)</f>
         <v/>
       </c>
-      <c r="L62" s="28" t="str">
+      <c r="L62" s="1" t="str">
         <f>IF(_crushing_month_all!K59="","",_crushing_month_all!K59)</f>
         <v/>
       </c>
-      <c r="M62" s="28" t="str">
+      <c r="M62" s="1" t="str">
         <f>IF(_crushing_month_all!L59="","",_crushing_month_all!L59)</f>
         <v/>
       </c>
-      <c r="N62" s="28" t="str">
+      <c r="N62" s="1" t="str">
         <f>IF(_crushing_month_all!M59="","",_crushing_month_all!M59)</f>
         <v/>
       </c>
-      <c r="O62" s="28" t="str">
+      <c r="O62" s="1" t="str">
         <f>IF(_crushing_month_all!N59="","",_crushing_month_all!N59)</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:15">
-      <c r="B63" s="28" t="str">
+    <row r="63">
+      <c r="B63" s="1" t="str">
         <f>IF(_crushing_month_all!A60="","",_crushing_month_all!A60)</f>
         <v/>
       </c>
-      <c r="C63" s="28" t="str">
+      <c r="C63" s="1" t="str">
         <f>IF(_crushing_month_all!B60="","",_crushing_month_all!B60)</f>
         <v/>
       </c>
-      <c r="D63" s="28" t="str">
+      <c r="D63" s="1" t="str">
         <f>IF(_crushing_month_all!C60="","",_crushing_month_all!C60)</f>
         <v/>
       </c>
-      <c r="E63" s="28" t="str">
+      <c r="E63" s="1" t="str">
         <f>IF(_crushing_month_all!D60="","",_crushing_month_all!D60)</f>
         <v/>
       </c>
-      <c r="F63" s="28" t="str">
+      <c r="F63" s="1" t="str">
         <f>IF(_crushing_month_all!E60="","",_crushing_month_all!E60)</f>
         <v/>
       </c>
-      <c r="G63" s="28" t="str">
+      <c r="G63" s="1" t="str">
         <f>IF(_crushing_month_all!F60="","",_crushing_month_all!F60)</f>
         <v/>
       </c>
-      <c r="H63" s="28" t="str">
+      <c r="H63" s="1" t="str">
         <f>IF(_crushing_month_all!G60="","",_crushing_month_all!G60)</f>
         <v/>
       </c>
-      <c r="I63" s="28" t="str">
+      <c r="I63" s="1" t="str">
         <f>IF(_crushing_month_all!H60="","",_crushing_month_all!H60)</f>
         <v/>
       </c>
-      <c r="J63" s="28" t="str">
+      <c r="J63" s="1" t="str">
         <f>IF(_crushing_month_all!I60="","",_crushing_month_all!I60)</f>
         <v/>
       </c>
-      <c r="K63" s="28" t="str">
+      <c r="K63" s="1" t="str">
         <f>IF(_crushing_month_all!J60="","",_crushing_month_all!J60)</f>
         <v/>
       </c>
-      <c r="L63" s="28" t="str">
+      <c r="L63" s="1" t="str">
         <f>IF(_crushing_month_all!K60="","",_crushing_month_all!K60)</f>
         <v/>
       </c>
-      <c r="M63" s="28" t="str">
+      <c r="M63" s="1" t="str">
         <f>IF(_crushing_month_all!L60="","",_crushing_month_all!L60)</f>
         <v/>
       </c>
-      <c r="N63" s="28" t="str">
+      <c r="N63" s="1" t="str">
         <f>IF(_crushing_month_all!M60="","",_crushing_month_all!M60)</f>
         <v/>
       </c>
-      <c r="O63" s="28" t="str">
+      <c r="O63" s="1" t="str">
         <f>IF(_crushing_month_all!N60="","",_crushing_month_all!N60)</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:15">
-      <c r="B64" s="28" t="str">
+    <row r="64">
+      <c r="B64" s="1" t="str">
         <f>IF(_crushing_month_all!A61="","",_crushing_month_all!A61)</f>
         <v/>
       </c>
-      <c r="C64" s="28" t="str">
+      <c r="C64" s="1" t="str">
         <f>IF(_crushing_month_all!B61="","",_crushing_month_all!B61)</f>
         <v/>
       </c>
-      <c r="D64" s="28" t="str">
+      <c r="D64" s="1" t="str">
         <f>IF(_crushing_month_all!C61="","",_crushing_month_all!C61)</f>
         <v/>
       </c>
-      <c r="E64" s="28" t="str">
+      <c r="E64" s="1" t="str">
         <f>IF(_crushing_month_all!D61="","",_crushing_month_all!D61)</f>
         <v/>
       </c>
-      <c r="F64" s="28" t="str">
+      <c r="F64" s="1" t="str">
         <f>IF(_crushing_month_all!E61="","",_crushing_month_all!E61)</f>
         <v/>
       </c>
-      <c r="G64" s="28" t="str">
+      <c r="G64" s="1" t="str">
         <f>IF(_crushing_month_all!F61="","",_crushing_month_all!F61)</f>
         <v/>
       </c>
-      <c r="H64" s="28" t="str">
+      <c r="H64" s="1" t="str">
         <f>IF(_crushing_month_all!G61="","",_crushing_month_all!G61)</f>
         <v/>
       </c>
-      <c r="I64" s="28" t="str">
+      <c r="I64" s="1" t="str">
         <f>IF(_crushing_month_all!H61="","",_crushing_month_all!H61)</f>
         <v/>
       </c>
-      <c r="J64" s="28" t="str">
+      <c r="J64" s="1" t="str">
         <f>IF(_crushing_month_all!I61="","",_crushing_month_all!I61)</f>
         <v/>
       </c>
-      <c r="K64" s="28" t="str">
+      <c r="K64" s="1" t="str">
         <f>IF(_crushing_month_all!J61="","",_crushing_month_all!J61)</f>
         <v/>
       </c>
-      <c r="L64" s="28" t="str">
+      <c r="L64" s="1" t="str">
         <f>IF(_crushing_month_all!K61="","",_crushing_month_all!K61)</f>
         <v/>
       </c>
-      <c r="M64" s="28" t="str">
+      <c r="M64" s="1" t="str">
         <f>IF(_crushing_month_all!L61="","",_crushing_month_all!L61)</f>
         <v/>
       </c>
-      <c r="N64" s="28" t="str">
+      <c r="N64" s="1" t="str">
         <f>IF(_crushing_month_all!M61="","",_crushing_month_all!M61)</f>
         <v/>
       </c>
-      <c r="O64" s="28" t="str">
+      <c r="O64" s="1" t="str">
         <f>IF(_crushing_month_all!N61="","",_crushing_month_all!N61)</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:15">
-      <c r="B65" s="28" t="str">
+    <row r="65">
+      <c r="B65" s="1" t="str">
         <f>IF(_crushing_month_all!A62="","",_crushing_month_all!A62)</f>
         <v/>
       </c>
-      <c r="C65" s="28" t="str">
+      <c r="C65" s="1" t="str">
         <f>IF(_crushing_month_all!B62="","",_crushing_month_all!B62)</f>
         <v/>
       </c>
-      <c r="D65" s="28" t="str">
+      <c r="D65" s="1" t="str">
         <f>IF(_crushing_month_all!C62="","",_crushing_month_all!C62)</f>
         <v/>
       </c>
-      <c r="E65" s="28" t="str">
+      <c r="E65" s="1" t="str">
         <f>IF(_crushing_month_all!D62="","",_crushing_month_all!D62)</f>
         <v/>
       </c>
-      <c r="F65" s="28" t="str">
+      <c r="F65" s="1" t="str">
         <f>IF(_crushing_month_all!E62="","",_crushing_month_all!E62)</f>
         <v/>
       </c>
-      <c r="G65" s="28" t="str">
+      <c r="G65" s="1" t="str">
         <f>IF(_crushing_month_all!F62="","",_crushing_month_all!F62)</f>
         <v/>
       </c>
-      <c r="H65" s="28" t="str">
+      <c r="H65" s="1" t="str">
         <f>IF(_crushing_month_all!G62="","",_crushing_month_all!G62)</f>
         <v/>
       </c>
-      <c r="I65" s="28" t="str">
+      <c r="I65" s="1" t="str">
         <f>IF(_crushing_month_all!H62="","",_crushing_month_all!H62)</f>
         <v/>
       </c>
-      <c r="J65" s="28" t="str">
+      <c r="J65" s="1" t="str">
         <f>IF(_crushing_month_all!I62="","",_crushing_month_all!I62)</f>
         <v/>
       </c>
-      <c r="K65" s="28" t="str">
+      <c r="K65" s="1" t="str">
         <f>IF(_crushing_month_all!J62="","",_crushing_month_all!J62)</f>
         <v/>
       </c>
-      <c r="L65" s="28" t="str">
+      <c r="L65" s="1" t="str">
         <f>IF(_crushing_month_all!K62="","",_crushing_month_all!K62)</f>
         <v/>
       </c>
-      <c r="M65" s="28" t="str">
+      <c r="M65" s="1" t="str">
         <f>IF(_crushing_month_all!L62="","",_crushing_month_all!L62)</f>
         <v/>
       </c>
-      <c r="N65" s="28" t="str">
+      <c r="N65" s="1" t="str">
         <f>IF(_crushing_month_all!M62="","",_crushing_month_all!M62)</f>
         <v/>
       </c>
-      <c r="O65" s="28" t="str">
+      <c r="O65" s="1" t="str">
         <f>IF(_crushing_month_all!N62="","",_crushing_month_all!N62)</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:15">
-      <c r="B66" s="28" t="str">
+    <row r="66">
+      <c r="B66" s="1" t="str">
         <f>IF(_crushing_month_all!A63="","",_crushing_month_all!A63)</f>
         <v/>
       </c>
-      <c r="C66" s="28" t="str">
+      <c r="C66" s="1" t="str">
         <f>IF(_crushing_month_all!B63="","",_crushing_month_all!B63)</f>
         <v/>
       </c>
-      <c r="D66" s="28" t="str">
+      <c r="D66" s="1" t="str">
         <f>IF(_crushing_month_all!C63="","",_crushing_month_all!C63)</f>
         <v/>
       </c>
-      <c r="E66" s="28" t="str">
+      <c r="E66" s="1" t="str">
         <f>IF(_crushing_month_all!D63="","",_crushing_month_all!D63)</f>
         <v/>
       </c>
-      <c r="F66" s="28" t="str">
+      <c r="F66" s="1" t="str">
         <f>IF(_crushing_month_all!E63="","",_crushing_month_all!E63)</f>
         <v/>
       </c>
-      <c r="G66" s="28" t="str">
+      <c r="G66" s="1" t="str">
         <f>IF(_crushing_month_all!F63="","",_crushing_month_all!F63)</f>
         <v/>
       </c>
-      <c r="H66" s="28" t="str">
+      <c r="H66" s="1" t="str">
         <f>IF(_crushing_month_all!G63="","",_crushing_month_all!G63)</f>
         <v/>
       </c>
-      <c r="I66" s="28" t="str">
+      <c r="I66" s="1" t="str">
         <f>IF(_crushing_month_all!H63="","",_crushing_month_all!H63)</f>
         <v/>
       </c>
-      <c r="J66" s="28" t="str">
+      <c r="J66" s="1" t="str">
         <f>IF(_crushing_month_all!I63="","",_crushing_month_all!I63)</f>
         <v/>
       </c>
-      <c r="K66" s="28" t="str">
+      <c r="K66" s="1" t="str">
         <f>IF(_crushing_month_all!J63="","",_crushing_month_all!J63)</f>
         <v/>
       </c>
-      <c r="L66" s="28" t="str">
+      <c r="L66" s="1" t="str">
         <f>IF(_crushing_month_all!K63="","",_crushing_month_all!K63)</f>
         <v/>
       </c>
-      <c r="M66" s="28" t="str">
+      <c r="M66" s="1" t="str">
         <f>IF(_crushing_month_all!L63="","",_crushing_month_all!L63)</f>
         <v/>
       </c>
-      <c r="N66" s="28" t="str">
+      <c r="N66" s="1" t="str">
         <f>IF(_crushing_month_all!M63="","",_crushing_month_all!M63)</f>
         <v/>
       </c>
-      <c r="O66" s="28" t="str">
+      <c r="O66" s="1" t="str">
         <f>IF(_crushing_month_all!N63="","",_crushing_month_all!N63)</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:15">
-      <c r="B67" s="28" t="str">
+    <row r="67">
+      <c r="B67" s="1" t="str">
         <f>IF(_crushing_month_all!A64="","",_crushing_month_all!A64)</f>
         <v/>
       </c>
-      <c r="C67" s="28" t="str">
+      <c r="C67" s="1" t="str">
         <f>IF(_crushing_month_all!B64="","",_crushing_month_all!B64)</f>
         <v/>
       </c>
-      <c r="D67" s="28" t="str">
+      <c r="D67" s="1" t="str">
         <f>IF(_crushing_month_all!C64="","",_crushing_month_all!C64)</f>
         <v/>
       </c>
-      <c r="E67" s="28" t="str">
+      <c r="E67" s="1" t="str">
         <f>IF(_crushing_month_all!D64="","",_crushing_month_all!D64)</f>
         <v/>
       </c>
-      <c r="F67" s="28" t="str">
+      <c r="F67" s="1" t="str">
         <f>IF(_crushing_month_all!E64="","",_crushing_month_all!E64)</f>
         <v/>
       </c>
-      <c r="G67" s="28" t="str">
+      <c r="G67" s="1" t="str">
         <f>IF(_crushing_month_all!F64="","",_crushing_month_all!F64)</f>
         <v/>
       </c>
-      <c r="H67" s="28" t="str">
+      <c r="H67" s="1" t="str">
         <f>IF(_crushing_month_all!G64="","",_crushing_month_all!G64)</f>
         <v/>
       </c>
-      <c r="I67" s="28" t="str">
+      <c r="I67" s="1" t="str">
         <f>IF(_crushing_month_all!H64="","",_crushing_month_all!H64)</f>
         <v/>
       </c>
-      <c r="J67" s="28" t="str">
+      <c r="J67" s="1" t="str">
         <f>IF(_crushing_month_all!I64="","",_crushing_month_all!I64)</f>
         <v/>
       </c>
-      <c r="K67" s="28" t="str">
+      <c r="K67" s="1" t="str">
         <f>IF(_crushing_month_all!J64="","",_crushing_month_all!J64)</f>
         <v/>
       </c>
-      <c r="L67" s="28" t="str">
+      <c r="L67" s="1" t="str">
         <f>IF(_crushing_month_all!K64="","",_crushing_month_all!K64)</f>
         <v/>
       </c>
-      <c r="M67" s="28" t="str">
+      <c r="M67" s="1" t="str">
         <f>IF(_crushing_month_all!L64="","",_crushing_month_all!L64)</f>
         <v/>
       </c>
-      <c r="N67" s="28" t="str">
+      <c r="N67" s="1" t="str">
         <f>IF(_crushing_month_all!M64="","",_crushing_month_all!M64)</f>
         <v/>
       </c>
-      <c r="O67" s="28" t="str">
+      <c r="O67" s="1" t="str">
         <f>IF(_crushing_month_all!N64="","",_crushing_month_all!N64)</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:15">
-      <c r="B68" s="28" t="str">
+    <row r="68">
+      <c r="B68" s="1" t="str">
         <f>IF(_crushing_month_all!A65="","",_crushing_month_all!A65)</f>
         <v/>
       </c>
-      <c r="C68" s="28" t="str">
+      <c r="C68" s="1" t="str">
         <f>IF(_crushing_month_all!B65="","",_crushing_month_all!B65)</f>
         <v/>
       </c>
-      <c r="D68" s="28" t="str">
+      <c r="D68" s="1" t="str">
         <f>IF(_crushing_month_all!C65="","",_crushing_month_all!C65)</f>
         <v/>
       </c>
-      <c r="E68" s="28" t="str">
+      <c r="E68" s="1" t="str">
         <f>IF(_crushing_month_all!D65="","",_crushing_month_all!D65)</f>
         <v/>
       </c>
-      <c r="F68" s="28" t="str">
+      <c r="F68" s="1" t="str">
         <f>IF(_crushing_month_all!E65="","",_crushing_month_all!E65)</f>
         <v/>
       </c>
-      <c r="G68" s="28" t="str">
+      <c r="G68" s="1" t="str">
         <f>IF(_crushing_month_all!F65="","",_crushing_month_all!F65)</f>
         <v/>
       </c>
-      <c r="H68" s="28" t="str">
+      <c r="H68" s="1" t="str">
         <f>IF(_crushing_month_all!G65="","",_crushing_month_all!G65)</f>
         <v/>
       </c>
-      <c r="I68" s="28" t="str">
+      <c r="I68" s="1" t="str">
         <f>IF(_crushing_month_all!H65="","",_crushing_month_all!H65)</f>
         <v/>
       </c>
-      <c r="J68" s="28" t="str">
+      <c r="J68" s="1" t="str">
         <f>IF(_crushing_month_all!I65="","",_crushing_month_all!I65)</f>
         <v/>
       </c>
-      <c r="K68" s="28" t="str">
+      <c r="K68" s="1" t="str">
         <f>IF(_crushing_month_all!J65="","",_crushing_month_all!J65)</f>
         <v/>
       </c>
-      <c r="L68" s="28" t="str">
+      <c r="L68" s="1" t="str">
         <f>IF(_crushing_month_all!K65="","",_crushing_month_all!K65)</f>
         <v/>
       </c>
-      <c r="M68" s="28" t="str">
+      <c r="M68" s="1" t="str">
         <f>IF(_crushing_month_all!L65="","",_crushing_month_all!L65)</f>
         <v/>
       </c>
-      <c r="N68" s="28" t="str">
+      <c r="N68" s="1" t="str">
         <f>IF(_crushing_month_all!M65="","",_crushing_month_all!M65)</f>
         <v/>
       </c>
-      <c r="O68" s="28" t="str">
+      <c r="O68" s="1" t="str">
         <f>IF(_crushing_month_all!N65="","",_crushing_month_all!N65)</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:15">
-      <c r="B69" s="28" t="str">
+    <row r="69">
+      <c r="B69" s="1" t="str">
         <f>IF(_crushing_month_all!A66="","",_crushing_month_all!A66)</f>
         <v/>
       </c>
-      <c r="C69" s="28" t="str">
+      <c r="C69" s="1" t="str">
         <f>IF(_crushing_month_all!B66="","",_crushing_month_all!B66)</f>
         <v/>
       </c>
-      <c r="D69" s="28" t="str">
+      <c r="D69" s="1" t="str">
         <f>IF(_crushing_month_all!C66="","",_crushing_month_all!C66)</f>
         <v/>
       </c>
-      <c r="E69" s="28" t="str">
+      <c r="E69" s="1" t="str">
         <f>IF(_crushing_month_all!D66="","",_crushing_month_all!D66)</f>
         <v/>
       </c>
-      <c r="F69" s="28" t="str">
+      <c r="F69" s="1" t="str">
         <f>IF(_crushing_month_all!E66="","",_crushing_month_all!E66)</f>
         <v/>
       </c>
-      <c r="G69" s="28" t="str">
+      <c r="G69" s="1" t="str">
         <f>IF(_crushing_month_all!F66="","",_crushing_month_all!F66)</f>
         <v/>
       </c>
-      <c r="H69" s="28" t="str">
+      <c r="H69" s="1" t="str">
         <f>IF(_crushing_month_all!G66="","",_crushing_month_all!G66)</f>
         <v/>
       </c>
-      <c r="I69" s="28" t="str">
+      <c r="I69" s="1" t="str">
         <f>IF(_crushing_month_all!H66="","",_crushing_month_all!H66)</f>
         <v/>
       </c>
-      <c r="J69" s="28" t="str">
+      <c r="J69" s="1" t="str">
         <f>IF(_crushing_month_all!I66="","",_crushing_month_all!I66)</f>
         <v/>
       </c>
-      <c r="K69" s="28" t="str">
+      <c r="K69" s="1" t="str">
         <f>IF(_crushing_month_all!J66="","",_crushing_month_all!J66)</f>
         <v/>
       </c>
-      <c r="L69" s="28" t="str">
+      <c r="L69" s="1" t="str">
         <f>IF(_crushing_month_all!K66="","",_crushing_month_all!K66)</f>
         <v/>
       </c>
-      <c r="M69" s="28" t="str">
+      <c r="M69" s="1" t="str">
         <f>IF(_crushing_month_all!L66="","",_crushing_month_all!L66)</f>
         <v/>
       </c>
-      <c r="N69" s="28" t="str">
+      <c r="N69" s="1" t="str">
         <f>IF(_crushing_month_all!M66="","",_crushing_month_all!M66)</f>
         <v/>
       </c>
-      <c r="O69" s="28" t="str">
+      <c r="O69" s="1" t="str">
         <f>IF(_crushing_month_all!N66="","",_crushing_month_all!N66)</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:15">
-      <c r="B70" s="28" t="str">
+    <row r="70">
+      <c r="B70" s="1" t="str">
         <f>IF(_crushing_month_all!A67="","",_crushing_month_all!A67)</f>
         <v/>
       </c>
-      <c r="C70" s="28" t="str">
+      <c r="C70" s="1" t="str">
         <f>IF(_crushing_month_all!B67="","",_crushing_month_all!B67)</f>
         <v/>
       </c>
-      <c r="D70" s="28" t="str">
+      <c r="D70" s="1" t="str">
         <f>IF(_crushing_month_all!C67="","",_crushing_month_all!C67)</f>
         <v/>
       </c>
-      <c r="E70" s="28" t="str">
+      <c r="E70" s="1" t="str">
         <f>IF(_crushing_month_all!D67="","",_crushing_month_all!D67)</f>
         <v/>
       </c>
-      <c r="F70" s="28" t="str">
+      <c r="F70" s="1" t="str">
         <f>IF(_crushing_month_all!E67="","",_crushing_month_all!E67)</f>
         <v/>
       </c>
-      <c r="G70" s="28" t="str">
+      <c r="G70" s="1" t="str">
         <f>IF(_crushing_month_all!F67="","",_crushing_month_all!F67)</f>
         <v/>
       </c>
-      <c r="H70" s="28" t="str">
+      <c r="H70" s="1" t="str">
         <f>IF(_crushing_month_all!G67="","",_crushing_month_all!G67)</f>
         <v/>
       </c>
-      <c r="I70" s="28" t="str">
+      <c r="I70" s="1" t="str">
         <f>IF(_crushing_month_all!H67="","",_crushing_month_all!H67)</f>
         <v/>
       </c>
-      <c r="J70" s="28" t="str">
+      <c r="J70" s="1" t="str">
         <f>IF(_crushing_month_all!I67="","",_crushing_month_all!I67)</f>
         <v/>
       </c>
-      <c r="K70" s="28" t="str">
+      <c r="K70" s="1" t="str">
         <f>IF(_crushing_month_all!J67="","",_crushing_month_all!J67)</f>
         <v/>
       </c>
-      <c r="L70" s="28" t="str">
+      <c r="L70" s="1" t="str">
         <f>IF(_crushing_month_all!K67="","",_crushing_month_all!K67)</f>
         <v/>
       </c>
-      <c r="M70" s="28" t="str">
+      <c r="M70" s="1" t="str">
         <f>IF(_crushing_month_all!L67="","",_crushing_month_all!L67)</f>
         <v/>
       </c>
-      <c r="N70" s="28" t="str">
+      <c r="N70" s="1" t="str">
         <f>IF(_crushing_month_all!M67="","",_crushing_month_all!M67)</f>
         <v/>
       </c>
-      <c r="O70" s="28" t="str">
+      <c r="O70" s="1" t="str">
         <f>IF(_crushing_month_all!N67="","",_crushing_month_all!N67)</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:15">
-      <c r="B71" s="28" t="str">
+    <row r="71">
+      <c r="B71" s="1" t="str">
         <f>IF(_crushing_month_all!A68="","",_crushing_month_all!A68)</f>
         <v/>
       </c>
-      <c r="C71" s="28" t="str">
+      <c r="C71" s="1" t="str">
         <f>IF(_crushing_month_all!B68="","",_crushing_month_all!B68)</f>
         <v/>
       </c>
-      <c r="D71" s="28" t="str">
+      <c r="D71" s="1" t="str">
         <f>IF(_crushing_month_all!C68="","",_crushing_month_all!C68)</f>
         <v/>
       </c>
-      <c r="E71" s="28" t="str">
+      <c r="E71" s="1" t="str">
         <f>IF(_crushing_month_all!D68="","",_crushing_month_all!D68)</f>
         <v/>
       </c>
-      <c r="F71" s="28" t="str">
+      <c r="F71" s="1" t="str">
         <f>IF(_crushing_month_all!E68="","",_crushing_month_all!E68)</f>
         <v/>
       </c>
-      <c r="G71" s="28" t="str">
+      <c r="G71" s="1" t="str">
         <f>IF(_crushing_month_all!F68="","",_crushing_month_all!F68)</f>
         <v/>
       </c>
-      <c r="H71" s="28" t="str">
+      <c r="H71" s="1" t="str">
         <f>IF(_crushing_month_all!G68="","",_crushing_month_all!G68)</f>
         <v/>
       </c>
-      <c r="I71" s="28" t="str">
+      <c r="I71" s="1" t="str">
         <f>IF(_crushing_month_all!H68="","",_crushing_month_all!H68)</f>
         <v/>
       </c>
-      <c r="J71" s="28" t="str">
+      <c r="J71" s="1" t="str">
         <f>IF(_crushing_month_all!I68="","",_crushing_month_all!I68)</f>
         <v/>
       </c>
-      <c r="K71" s="28" t="str">
+      <c r="K71" s="1" t="str">
         <f>IF(_crushing_month_all!J68="","",_crushing_month_all!J68)</f>
         <v/>
       </c>
-      <c r="L71" s="28" t="str">
+      <c r="L71" s="1" t="str">
         <f>IF(_crushing_month_all!K68="","",_crushing_month_all!K68)</f>
         <v/>
       </c>
-      <c r="M71" s="28" t="str">
+      <c r="M71" s="1" t="str">
         <f>IF(_crushing_month_all!L68="","",_crushing_month_all!L68)</f>
         <v/>
       </c>
-      <c r="N71" s="28" t="str">
+      <c r="N71" s="1" t="str">
         <f>IF(_crushing_month_all!M68="","",_crushing_month_all!M68)</f>
         <v/>
       </c>
-      <c r="O71" s="28" t="str">
+      <c r="O71" s="1" t="str">
         <f>IF(_crushing_month_all!N68="","",_crushing_month_all!N68)</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:15">
-      <c r="B72" s="28" t="str">
+    <row r="72">
+      <c r="B72" s="1" t="str">
         <f>IF(_crushing_month_all!A69="","",_crushing_month_all!A69)</f>
         <v/>
       </c>
-      <c r="C72" s="28" t="str">
+      <c r="C72" s="1" t="str">
         <f>IF(_crushing_month_all!B69="","",_crushing_month_all!B69)</f>
         <v/>
       </c>
-      <c r="D72" s="28" t="str">
+      <c r="D72" s="1" t="str">
         <f>IF(_crushing_month_all!C69="","",_crushing_month_all!C69)</f>
         <v/>
       </c>
-      <c r="E72" s="28" t="str">
+      <c r="E72" s="1" t="str">
         <f>IF(_crushing_month_all!D69="","",_crushing_month_all!D69)</f>
         <v/>
       </c>
-      <c r="F72" s="28" t="str">
+      <c r="F72" s="1" t="str">
         <f>IF(_crushing_month_all!E69="","",_crushing_month_all!E69)</f>
         <v/>
       </c>
-      <c r="G72" s="28" t="str">
+      <c r="G72" s="1" t="str">
         <f>IF(_crushing_month_all!F69="","",_crushing_month_all!F69)</f>
         <v/>
       </c>
-      <c r="H72" s="28" t="str">
+      <c r="H72" s="1" t="str">
         <f>IF(_crushing_month_all!G69="","",_crushing_month_all!G69)</f>
         <v/>
       </c>
-      <c r="I72" s="28" t="str">
+      <c r="I72" s="1" t="str">
         <f>IF(_crushing_month_all!H69="","",_crushing_month_all!H69)</f>
         <v/>
       </c>
-      <c r="J72" s="28" t="str">
+      <c r="J72" s="1" t="str">
         <f>IF(_crushing_month_all!I69="","",_crushing_month_all!I69)</f>
         <v/>
       </c>
-      <c r="K72" s="28" t="str">
+      <c r="K72" s="1" t="str">
         <f>IF(_crushing_month_all!J69="","",_crushing_month_all!J69)</f>
         <v/>
       </c>
-      <c r="L72" s="28" t="str">
+      <c r="L72" s="1" t="str">
         <f>IF(_crushing_month_all!K69="","",_crushing_month_all!K69)</f>
         <v/>
       </c>
-      <c r="M72" s="28" t="str">
+      <c r="M72" s="1" t="str">
         <f>IF(_crushing_month_all!L69="","",_crushing_month_all!L69)</f>
         <v/>
       </c>
-      <c r="N72" s="28" t="str">
+      <c r="N72" s="1" t="str">
         <f>IF(_crushing_month_all!M69="","",_crushing_month_all!M69)</f>
         <v/>
       </c>
-      <c r="O72" s="28" t="str">
+      <c r="O72" s="1" t="str">
         <f>IF(_crushing_month_all!N69="","",_crushing_month_all!N69)</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:15">
-      <c r="B73" s="28" t="str">
+    <row r="73">
+      <c r="B73" s="1" t="str">
         <f>IF(_crushing_month_all!A70="","",_crushing_month_all!A70)</f>
         <v/>
       </c>
-      <c r="C73" s="28" t="str">
+      <c r="C73" s="1" t="str">
         <f>IF(_crushing_month_all!B70="","",_crushing_month_all!B70)</f>
         <v/>
       </c>
-      <c r="D73" s="28" t="str">
+      <c r="D73" s="1" t="str">
         <f>IF(_crushing_month_all!C70="","",_crushing_month_all!C70)</f>
         <v/>
       </c>
-      <c r="E73" s="28" t="str">
+      <c r="E73" s="1" t="str">
         <f>IF(_crushing_month_all!D70="","",_crushing_month_all!D70)</f>
         <v/>
       </c>
-      <c r="F73" s="28" t="str">
+      <c r="F73" s="1" t="str">
         <f>IF(_crushing_month_all!E70="","",_crushing_month_all!E70)</f>
         <v/>
       </c>
-      <c r="G73" s="28" t="str">
+      <c r="G73" s="1" t="str">
         <f>IF(_crushing_month_all!F70="","",_crushing_month_all!F70)</f>
         <v/>
       </c>
-      <c r="H73" s="28" t="str">
+      <c r="H73" s="1" t="str">
         <f>IF(_crushing_month_all!G70="","",_crushing_month_all!G70)</f>
         <v/>
       </c>
-      <c r="I73" s="28" t="str">
+      <c r="I73" s="1" t="str">
         <f>IF(_crushing_month_all!H70="","",_crushing_month_all!H70)</f>
         <v/>
       </c>
-      <c r="J73" s="28" t="str">
+      <c r="J73" s="1" t="str">
         <f>IF(_crushing_month_all!I70="","",_crushing_month_all!I70)</f>
         <v/>
       </c>
-      <c r="K73" s="28" t="str">
+      <c r="K73" s="1" t="str">
         <f>IF(_crushing_month_all!J70="","",_crushing_month_all!J70)</f>
         <v/>
       </c>
-      <c r="L73" s="28" t="str">
+      <c r="L73" s="1" t="str">
         <f>IF(_crushing_month_all!K70="","",_crushing_month_all!K70)</f>
         <v/>
       </c>
-      <c r="M73" s="28" t="str">
+      <c r="M73" s="1" t="str">
         <f>IF(_crushing_month_all!L70="","",_crushing_month_all!L70)</f>
         <v/>
       </c>
-      <c r="N73" s="28" t="str">
+      <c r="N73" s="1" t="str">
         <f>IF(_crushing_month_all!M70="","",_crushing_month_all!M70)</f>
         <v/>
       </c>
-      <c r="O73" s="28" t="str">
+      <c r="O73" s="1" t="str">
         <f>IF(_crushing_month_all!N70="","",_crushing_month_all!N70)</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:15">
-      <c r="B74" s="28" t="str">
+    <row r="74">
+      <c r="B74" s="1" t="str">
         <f>IF(_crushing_month_all!A71="","",_crushing_month_all!A71)</f>
         <v/>
       </c>
-      <c r="C74" s="28" t="str">
+      <c r="C74" s="1" t="str">
         <f>IF(_crushing_month_all!B71="","",_crushing_month_all!B71)</f>
         <v/>
       </c>
-      <c r="D74" s="28" t="str">
+      <c r="D74" s="1" t="str">
         <f>IF(_crushing_month_all!C71="","",_crushing_month_all!C71)</f>
         <v/>
       </c>
-      <c r="E74" s="28" t="str">
+      <c r="E74" s="1" t="str">
         <f>IF(_crushing_month_all!D71="","",_crushing_month_all!D71)</f>
         <v/>
       </c>
-      <c r="F74" s="28" t="str">
+      <c r="F74" s="1" t="str">
         <f>IF(_crushing_month_all!E71="","",_crushing_month_all!E71)</f>
         <v/>
       </c>
-      <c r="G74" s="28" t="str">
+      <c r="G74" s="1" t="str">
         <f>IF(_crushing_month_all!F71="","",_crushing_month_all!F71)</f>
         <v/>
       </c>
-      <c r="H74" s="28" t="str">
+      <c r="H74" s="1" t="str">
         <f>IF(_crushing_month_all!G71="","",_crushing_month_all!G71)</f>
         <v/>
       </c>
-      <c r="I74" s="28" t="str">
+      <c r="I74" s="1" t="str">
         <f>IF(_crushing_month_all!H71="","",_crushing_month_all!H71)</f>
         <v/>
       </c>
-      <c r="J74" s="28" t="str">
+      <c r="J74" s="1" t="str">
         <f>IF(_crushing_month_all!I71="","",_crushing_month_all!I71)</f>
         <v/>
       </c>
-      <c r="K74" s="28" t="str">
+      <c r="K74" s="1" t="str">
         <f>IF(_crushing_month_all!J71="","",_crushing_month_all!J71)</f>
         <v/>
       </c>
-      <c r="L74" s="28" t="str">
+      <c r="L74" s="1" t="str">
         <f>IF(_crushing_month_all!K71="","",_crushing_month_all!K71)</f>
         <v/>
       </c>
-      <c r="M74" s="28" t="str">
+      <c r="M74" s="1" t="str">
         <f>IF(_crushing_month_all!L71="","",_crushing_month_all!L71)</f>
         <v/>
       </c>
-      <c r="N74" s="28" t="str">
+      <c r="N74" s="1" t="str">
         <f>IF(_crushing_month_all!M71="","",_crushing_month_all!M71)</f>
         <v/>
       </c>
-      <c r="O74" s="28" t="str">
+      <c r="O74" s="1" t="str">
         <f>IF(_crushing_month_all!N71="","",_crushing_month_all!N71)</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:15">
-      <c r="B75" s="28" t="str">
+    <row r="75">
+      <c r="B75" s="1" t="str">
         <f>IF(_crushing_month_all!A72="","",_crushing_month_all!A72)</f>
         <v/>
       </c>
-      <c r="C75" s="28" t="str">
+      <c r="C75" s="1" t="str">
         <f>IF(_crushing_month_all!B72="","",_crushing_month_all!B72)</f>
         <v/>
       </c>
-      <c r="D75" s="28" t="str">
+      <c r="D75" s="1" t="str">
         <f>IF(_crushing_month_all!C72="","",_crushing_month_all!C72)</f>
         <v/>
       </c>
-      <c r="E75" s="28" t="str">
+      <c r="E75" s="1" t="str">
         <f>IF(_crushing_month_all!D72="","",_crushing_month_all!D72)</f>
         <v/>
       </c>
-      <c r="F75" s="28" t="str">
+      <c r="F75" s="1" t="str">
         <f>IF(_crushing_month_all!E72="","",_crushing_month_all!E72)</f>
         <v/>
       </c>
-      <c r="G75" s="28" t="str">
+      <c r="G75" s="1" t="str">
         <f>IF(_crushing_month_all!F72="","",_crushing_month_all!F72)</f>
         <v/>
       </c>
-      <c r="H75" s="28" t="str">
+      <c r="H75" s="1" t="str">
         <f>IF(_crushing_month_all!G72="","",_crushing_month_all!G72)</f>
         <v/>
       </c>
-      <c r="I75" s="28" t="str">
+      <c r="I75" s="1" t="str">
         <f>IF(_crushing_month_all!H72="","",_crushing_month_all!H72)</f>
         <v/>
       </c>
-      <c r="J75" s="28" t="str">
+      <c r="J75" s="1" t="str">
         <f>IF(_crushing_month_all!I72="","",_crushing_month_all!I72)</f>
         <v/>
       </c>
-      <c r="K75" s="28" t="str">
+      <c r="K75" s="1" t="str">
         <f>IF(_crushing_month_all!J72="","",_crushing_month_all!J72)</f>
         <v/>
       </c>
-      <c r="L75" s="28" t="str">
+      <c r="L75" s="1" t="str">
         <f>IF(_crushing_month_all!K72="","",_crushing_month_all!K72)</f>
         <v/>
       </c>
-      <c r="M75" s="28" t="str">
+      <c r="M75" s="1" t="str">
         <f>IF(_crushing_month_all!L72="","",_crushing_month_all!L72)</f>
         <v/>
       </c>
-      <c r="N75" s="28" t="str">
+      <c r="N75" s="1" t="str">
         <f>IF(_crushing_month_all!M72="","",_crushing_month_all!M72)</f>
         <v/>
       </c>
-      <c r="O75" s="28" t="str">
+      <c r="O75" s="1" t="str">
         <f>IF(_crushing_month_all!N72="","",_crushing_month_all!N72)</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:15">
-      <c r="B76" s="28" t="str">
+    <row r="76">
+      <c r="B76" s="1" t="str">
         <f>IF(_crushing_month_all!A73="","",_crushing_month_all!A73)</f>
         <v/>
       </c>
-      <c r="C76" s="28" t="str">
+      <c r="C76" s="1" t="str">
         <f>IF(_crushing_month_all!B73="","",_crushing_month_all!B73)</f>
         <v/>
       </c>
-      <c r="D76" s="28" t="str">
+      <c r="D76" s="1" t="str">
         <f>IF(_crushing_month_all!C73="","",_crushing_month_all!C73)</f>
         <v/>
       </c>
-      <c r="E76" s="28" t="str">
+      <c r="E76" s="1" t="str">
         <f>IF(_crushing_month_all!D73="","",_crushing_month_all!D73)</f>
         <v/>
       </c>
-      <c r="F76" s="28" t="str">
+      <c r="F76" s="1" t="str">
         <f>IF(_crushing_month_all!E73="","",_crushing_month_all!E73)</f>
         <v/>
       </c>
-      <c r="G76" s="28" t="str">
+      <c r="G76" s="1" t="str">
         <f>IF(_crushing_month_all!F73="","",_crushing_month_all!F73)</f>
         <v/>
       </c>
-      <c r="H76" s="28" t="str">
+      <c r="H76" s="1" t="str">
         <f>IF(_crushing_month_all!G73="","",_crushing_month_all!G73)</f>
         <v/>
       </c>
-      <c r="I76" s="28" t="str">
+      <c r="I76" s="1" t="str">
         <f>IF(_crushing_month_all!H73="","",_crushing_month_all!H73)</f>
         <v/>
       </c>
-      <c r="J76" s="28" t="str">
+      <c r="J76" s="1" t="str">
         <f>IF(_crushing_month_all!I73="","",_crushing_month_all!I73)</f>
         <v/>
       </c>
-      <c r="K76" s="28" t="str">
+      <c r="K76" s="1" t="str">
         <f>IF(_crushing_month_all!J73="","",_crushing_month_all!J73)</f>
         <v/>
       </c>
-      <c r="L76" s="28" t="str">
+      <c r="L76" s="1" t="str">
         <f>IF(_crushing_month_all!K73="","",_crushing_month_all!K73)</f>
         <v/>
       </c>
-      <c r="M76" s="28" t="str">
+      <c r="M76" s="1" t="str">
         <f>IF(_crushing_month_all!L73="","",_crushing_month_all!L73)</f>
         <v/>
       </c>
-      <c r="N76" s="28" t="str">
+      <c r="N76" s="1" t="str">
         <f>IF(_crushing_month_all!M73="","",_crushing_month_all!M73)</f>
         <v/>
       </c>
-      <c r="O76" s="28" t="str">
+      <c r="O76" s="1" t="str">
         <f>IF(_crushing_month_all!N73="","",_crushing_month_all!N73)</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:15">
-      <c r="B77" s="28" t="str">
+    <row r="77">
+      <c r="B77" s="1" t="str">
         <f>IF(_crushing_month_all!A74="","",_crushing_month_all!A74)</f>
         <v/>
       </c>
-      <c r="C77" s="28" t="str">
+      <c r="C77" s="1" t="str">
         <f>IF(_crushing_month_all!B74="","",_crushing_month_all!B74)</f>
         <v/>
       </c>
-      <c r="D77" s="28" t="str">
+      <c r="D77" s="1" t="str">
         <f>IF(_crushing_month_all!C74="","",_crushing_month_all!C74)</f>
         <v/>
       </c>
-      <c r="E77" s="28" t="str">
+      <c r="E77" s="1" t="str">
         <f>IF(_crushing_month_all!D74="","",_crushing_month_all!D74)</f>
         <v/>
       </c>
-      <c r="F77" s="28" t="str">
+      <c r="F77" s="1" t="str">
         <f>IF(_crushing_month_all!E74="","",_crushing_month_all!E74)</f>
         <v/>
       </c>
-      <c r="G77" s="28" t="str">
+      <c r="G77" s="1" t="str">
         <f>IF(_crushing_month_all!F74="","",_crushing_month_all!F74)</f>
         <v/>
       </c>
-      <c r="H77" s="28" t="str">
+      <c r="H77" s="1" t="str">
         <f>IF(_crushing_month_all!G74="","",_crushing_month_all!G74)</f>
         <v/>
       </c>
-      <c r="I77" s="28" t="str">
+      <c r="I77" s="1" t="str">
         <f>IF(_crushing_month_all!H74="","",_crushing_month_all!H74)</f>
         <v/>
       </c>
-      <c r="J77" s="28" t="str">
+      <c r="J77" s="1" t="str">
         <f>IF(_crushing_month_all!I74="","",_crushing_month_all!I74)</f>
         <v/>
       </c>
-      <c r="K77" s="28" t="str">
+      <c r="K77" s="1" t="str">
         <f>IF(_crushing_month_all!J74="","",_crushing_month_all!J74)</f>
         <v/>
       </c>
-      <c r="L77" s="28" t="str">
+      <c r="L77" s="1" t="str">
         <f>IF(_crushing_month_all!K74="","",_crushing_month_all!K74)</f>
         <v/>
       </c>
-      <c r="M77" s="28" t="str">
+      <c r="M77" s="1" t="str">
         <f>IF(_crushing_month_all!L74="","",_crushing_month_all!L74)</f>
         <v/>
       </c>
-      <c r="N77" s="28" t="str">
+      <c r="N77" s="1" t="str">
         <f>IF(_crushing_month_all!M74="","",_crushing_month_all!M74)</f>
         <v/>
       </c>
-      <c r="O77" s="28" t="str">
+      <c r="O77" s="1" t="str">
         <f>IF(_crushing_month_all!N74="","",_crushing_month_all!N74)</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:15">
-      <c r="B78" s="28" t="str">
+    <row r="78">
+      <c r="B78" s="1" t="str">
         <f>IF(_crushing_month_all!A75="","",_crushing_month_all!A75)</f>
         <v/>
       </c>
-      <c r="C78" s="28" t="str">
+      <c r="C78" s="1" t="str">
         <f>IF(_crushing_month_all!B75="","",_crushing_month_all!B75)</f>
         <v/>
       </c>
-      <c r="D78" s="28" t="str">
+      <c r="D78" s="1" t="str">
         <f>IF(_crushing_month_all!C75="","",_crushing_month_all!C75)</f>
         <v/>
       </c>
-      <c r="E78" s="28" t="str">
+      <c r="E78" s="1" t="str">
         <f>IF(_crushing_month_all!D75="","",_crushing_month_all!D75)</f>
         <v/>
       </c>
-      <c r="F78" s="28" t="str">
+      <c r="F78" s="1" t="str">
         <f>IF(_crushing_month_all!E75="","",_crushing_month_all!E75)</f>
         <v/>
       </c>
-      <c r="G78" s="28" t="str">
+      <c r="G78" s="1" t="str">
         <f>IF(_crushing_month_all!F75="","",_crushing_month_all!F75)</f>
         <v/>
       </c>
-      <c r="H78" s="28" t="str">
+      <c r="H78" s="1" t="str">
         <f>IF(_crushing_month_all!G75="","",_crushing_month_all!G75)</f>
         <v/>
       </c>
-      <c r="I78" s="28" t="str">
+      <c r="I78" s="1" t="str">
         <f>IF(_crushing_month_all!H75="","",_crushing_month_all!H75)</f>
         <v/>
       </c>
-      <c r="J78" s="28" t="str">
+      <c r="J78" s="1" t="str">
         <f>IF(_crushing_month_all!I75="","",_crushing_month_all!I75)</f>
         <v/>
       </c>
-      <c r="K78" s="28" t="str">
+      <c r="K78" s="1" t="str">
         <f>IF(_crushing_month_all!J75="","",_crushing_month_all!J75)</f>
         <v/>
       </c>
-      <c r="L78" s="28" t="str">
+      <c r="L78" s="1" t="str">
         <f>IF(_crushing_month_all!K75="","",_crushing_month_all!K75)</f>
         <v/>
       </c>
-      <c r="M78" s="28" t="str">
+      <c r="M78" s="1" t="str">
         <f>IF(_crushing_month_all!L75="","",_crushing_month_all!L75)</f>
         <v/>
       </c>
-      <c r="N78" s="28" t="str">
+      <c r="N78" s="1" t="str">
         <f>IF(_crushing_month_all!M75="","",_crushing_month_all!M75)</f>
         <v/>
       </c>
-      <c r="O78" s="28" t="str">
+      <c r="O78" s="1" t="str">
         <f>IF(_crushing_month_all!N75="","",_crushing_month_all!N75)</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:15">
-      <c r="B79" s="28" t="str">
+    <row r="79">
+      <c r="B79" s="1" t="str">
         <f>IF(_crushing_month_all!A76="","",_crushing_month_all!A76)</f>
         <v/>
       </c>
-      <c r="C79" s="28" t="str">
+      <c r="C79" s="1" t="str">
         <f>IF(_crushing_month_all!B76="","",_crushing_month_all!B76)</f>
         <v/>
       </c>
-      <c r="D79" s="28" t="str">
+      <c r="D79" s="1" t="str">
         <f>IF(_crushing_month_all!C76="","",_crushing_month_all!C76)</f>
         <v/>
       </c>
-      <c r="E79" s="28" t="str">
+      <c r="E79" s="1" t="str">
         <f>IF(_crushing_month_all!D76="","",_crushing_month_all!D76)</f>
         <v/>
       </c>
-      <c r="F79" s="28" t="str">
+      <c r="F79" s="1" t="str">
         <f>IF(_crushing_month_all!E76="","",_crushing_month_all!E76)</f>
         <v/>
       </c>
-      <c r="G79" s="28" t="str">
+      <c r="G79" s="1" t="str">
         <f>IF(_crushing_month_all!F76="","",_crushing_month_all!F76)</f>
         <v/>
       </c>
-      <c r="H79" s="28" t="str">
+      <c r="H79" s="1" t="str">
         <f>IF(_crushing_month_all!G76="","",_crushing_month_all!G76)</f>
         <v/>
       </c>
-      <c r="I79" s="28" t="str">
+      <c r="I79" s="1" t="str">
         <f>IF(_crushing_month_all!H76="","",_crushing_month_all!H76)</f>
         <v/>
       </c>
-      <c r="J79" s="28" t="str">
+      <c r="J79" s="1" t="str">
         <f>IF(_crushing_month_all!I76="","",_crushing_month_all!I76)</f>
         <v/>
       </c>
-      <c r="K79" s="28" t="str">
+      <c r="K79" s="1" t="str">
         <f>IF(_crushing_month_all!J76="","",_crushing_month_all!J76)</f>
         <v/>
       </c>
-      <c r="L79" s="28" t="str">
+      <c r="L79" s="1" t="str">
         <f>IF(_crushing_month_all!K76="","",_crushing_month_all!K76)</f>
         <v/>
       </c>
-      <c r="M79" s="28" t="str">
+      <c r="M79" s="1" t="str">
         <f>IF(_crushing_month_all!L76="","",_crushing_month_all!L76)</f>
         <v/>
       </c>
-      <c r="N79" s="28" t="str">
+      <c r="N79" s="1" t="str">
         <f>IF(_crushing_month_all!M76="","",_crushing_month_all!M76)</f>
         <v/>
       </c>
-      <c r="O79" s="28" t="str">
+      <c r="O79" s="1" t="str">
         <f>IF(_crushing_month_all!N76="","",_crushing_month_all!N76)</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:15">
-      <c r="B80" s="28" t="str">
+    <row r="80">
+      <c r="B80" s="1" t="str">
         <f>IF(_crushing_month_all!A77="","",_crushing_month_all!A77)</f>
         <v/>
       </c>
-      <c r="C80" s="28" t="str">
+      <c r="C80" s="1" t="str">
         <f>IF(_crushing_month_all!B77="","",_crushing_month_all!B77)</f>
         <v/>
       </c>
-      <c r="D80" s="28" t="str">
+      <c r="D80" s="1" t="str">
         <f>IF(_crushing_month_all!C77="","",_crushing_month_all!C77)</f>
         <v/>
       </c>
-      <c r="E80" s="28" t="str">
+      <c r="E80" s="1" t="str">
         <f>IF(_crushing_month_all!D77="","",_crushing_month_all!D77)</f>
         <v/>
       </c>
-      <c r="F80" s="28" t="str">
+      <c r="F80" s="1" t="str">
         <f>IF(_crushing_month_all!E77="","",_crushing_month_all!E77)</f>
         <v/>
       </c>
-      <c r="G80" s="28" t="str">
+      <c r="G80" s="1" t="str">
         <f>IF(_crushing_month_all!F77="","",_crushing_month_all!F77)</f>
         <v/>
       </c>
-      <c r="H80" s="28" t="str">
+      <c r="H80" s="1" t="str">
         <f>IF(_crushing_month_all!G77="","",_crushing_month_all!G77)</f>
         <v/>
       </c>
-      <c r="I80" s="28" t="str">
+      <c r="I80" s="1" t="str">
         <f>IF(_crushing_month_all!H77="","",_crushing_month_all!H77)</f>
         <v/>
       </c>
-      <c r="J80" s="28" t="str">
+      <c r="J80" s="1" t="str">
         <f>IF(_crushing_month_all!I77="","",_crushing_month_all!I77)</f>
         <v/>
       </c>
-      <c r="K80" s="28" t="str">
+      <c r="K80" s="1" t="str">
         <f>IF(_crushing_month_all!J77="","",_crushing_month_all!J77)</f>
         <v/>
       </c>
-      <c r="L80" s="28" t="str">
+      <c r="L80" s="1" t="str">
         <f>IF(_crushing_month_all!K77="","",_crushing_month_all!K77)</f>
         <v/>
       </c>
-      <c r="M80" s="28" t="str">
+      <c r="M80" s="1" t="str">
         <f>IF(_crushing_month_all!L77="","",_crushing_month_all!L77)</f>
         <v/>
       </c>
-      <c r="N80" s="28" t="str">
+      <c r="N80" s="1" t="str">
         <f>IF(_crushing_month_all!M77="","",_crushing_month_all!M77)</f>
         <v/>
       </c>
-      <c r="O80" s="28" t="str">
+      <c r="O80" s="1" t="str">
         <f>IF(_crushing_month_all!N77="","",_crushing_month_all!N77)</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:15">
-      <c r="B81" s="28" t="str">
+    <row r="81">
+      <c r="B81" s="1" t="str">
         <f>IF(_crushing_month_all!A78="","",_crushing_month_all!A78)</f>
         <v/>
       </c>
-      <c r="C81" s="28" t="str">
+      <c r="C81" s="1" t="str">
         <f>IF(_crushing_month_all!B78="","",_crushing_month_all!B78)</f>
         <v/>
       </c>
-      <c r="D81" s="28" t="str">
+      <c r="D81" s="1" t="str">
         <f>IF(_crushing_month_all!C78="","",_crushing_month_all!C78)</f>
         <v/>
       </c>
-      <c r="E81" s="28" t="str">
+      <c r="E81" s="1" t="str">
         <f>IF(_crushing_month_all!D78="","",_crushing_month_all!D78)</f>
         <v/>
       </c>
-      <c r="F81" s="28" t="str">
+      <c r="F81" s="1" t="str">
         <f>IF(_crushing_month_all!E78="","",_crushing_month_all!E78)</f>
         <v/>
       </c>
-      <c r="G81" s="28" t="str">
+      <c r="G81" s="1" t="str">
         <f>IF(_crushing_month_all!F78="","",_crushing_month_all!F78)</f>
         <v/>
       </c>
-      <c r="H81" s="28" t="str">
+      <c r="H81" s="1" t="str">
         <f>IF(_crushing_month_all!G78="","",_crushing_month_all!G78)</f>
         <v/>
       </c>
-      <c r="I81" s="28" t="str">
+      <c r="I81" s="1" t="str">
         <f>IF(_crushing_month_all!H78="","",_crushing_month_all!H78)</f>
         <v/>
       </c>
-      <c r="J81" s="28" t="str">
+      <c r="J81" s="1" t="str">
         <f>IF(_crushing_month_all!I78="","",_crushing_month_all!I78)</f>
         <v/>
       </c>
-      <c r="K81" s="28" t="str">
+      <c r="K81" s="1" t="str">
         <f>IF(_crushing_month_all!J78="","",_crushing_month_all!J78)</f>
         <v/>
       </c>
-      <c r="L81" s="28" t="str">
+      <c r="L81" s="1" t="str">
         <f>IF(_crushing_month_all!K78="","",_crushing_month_all!K78)</f>
         <v/>
       </c>
-      <c r="M81" s="28" t="str">
+      <c r="M81" s="1" t="str">
         <f>IF(_crushing_month_all!L78="","",_crushing_month_all!L78)</f>
         <v/>
       </c>
-      <c r="N81" s="28" t="str">
+      <c r="N81" s="1" t="str">
         <f>IF(_crushing_month_all!M78="","",_crushing_month_all!M78)</f>
         <v/>
       </c>
-      <c r="O81" s="28" t="str">
+      <c r="O81" s="1" t="str">
         <f>IF(_crushing_month_all!N78="","",_crushing_month_all!N78)</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:15">
-      <c r="B82" s="28" t="str">
+    <row r="82">
+      <c r="B82" s="1" t="str">
         <f>IF(_crushing_month_all!A79="","",_crushing_month_all!A79)</f>
         <v/>
       </c>
-      <c r="C82" s="28" t="str">
+      <c r="C82" s="1" t="str">
         <f>IF(_crushing_month_all!B79="","",_crushing_month_all!B79)</f>
         <v/>
       </c>
-      <c r="D82" s="28" t="str">
+      <c r="D82" s="1" t="str">
         <f>IF(_crushing_month_all!C79="","",_crushing_month_all!C79)</f>
         <v/>
       </c>
-      <c r="E82" s="28" t="str">
+      <c r="E82" s="1" t="str">
         <f>IF(_crushing_month_all!D79="","",_crushing_month_all!D79)</f>
         <v/>
       </c>
-      <c r="F82" s="28" t="str">
+      <c r="F82" s="1" t="str">
         <f>IF(_crushing_month_all!E79="","",_crushing_month_all!E79)</f>
         <v/>
       </c>
-      <c r="G82" s="28" t="str">
+      <c r="G82" s="1" t="str">
         <f>IF(_crushing_month_all!F79="","",_crushing_month_all!F79)</f>
         <v/>
       </c>
-      <c r="H82" s="28" t="str">
+      <c r="H82" s="1" t="str">
         <f>IF(_crushing_month_all!G79="","",_crushing_month_all!G79)</f>
         <v/>
       </c>
-      <c r="I82" s="28" t="str">
+      <c r="I82" s="1" t="str">
         <f>IF(_crushing_month_all!H79="","",_crushing_month_all!H79)</f>
         <v/>
       </c>
-      <c r="J82" s="28" t="str">
+      <c r="J82" s="1" t="str">
         <f>IF(_crushing_month_all!I79="","",_crushing_month_all!I79)</f>
         <v/>
       </c>
-      <c r="K82" s="28" t="str">
+      <c r="K82" s="1" t="str">
         <f>IF(_crushing_month_all!J79="","",_crushing_month_all!J79)</f>
         <v/>
       </c>
-      <c r="L82" s="28" t="str">
+      <c r="L82" s="1" t="str">
         <f>IF(_crushing_month_all!K79="","",_crushing_month_all!K79)</f>
         <v/>
       </c>
-      <c r="M82" s="28" t="str">
+      <c r="M82" s="1" t="str">
         <f>IF(_crushing_month_all!L79="","",_crushing_month_all!L79)</f>
         <v/>
       </c>
-      <c r="N82" s="28" t="str">
+      <c r="N82" s="1" t="str">
         <f>IF(_crushing_month_all!M79="","",_crushing_month_all!M79)</f>
         <v/>
       </c>
-      <c r="O82" s="28" t="str">
+      <c r="O82" s="1" t="str">
         <f>IF(_crushing_month_all!N79="","",_crushing_month_all!N79)</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:15">
-      <c r="B83" s="28" t="str">
+    <row r="83">
+      <c r="B83" s="1" t="str">
         <f>IF(_crushing_month_all!A80="","",_crushing_month_all!A80)</f>
         <v/>
       </c>
-      <c r="C83" s="28" t="str">
+      <c r="C83" s="1" t="str">
         <f>IF(_crushing_month_all!B80="","",_crushing_month_all!B80)</f>
         <v/>
       </c>
-      <c r="D83" s="28" t="str">
+      <c r="D83" s="1" t="str">
         <f>IF(_crushing_month_all!C80="","",_crushing_month_all!C80)</f>
         <v/>
       </c>
-      <c r="E83" s="28" t="str">
+      <c r="E83" s="1" t="str">
         <f>IF(_crushing_month_all!D80="","",_crushing_month_all!D80)</f>
         <v/>
       </c>
-      <c r="F83" s="28" t="str">
+      <c r="F83" s="1" t="str">
         <f>IF(_crushing_month_all!E80="","",_crushing_month_all!E80)</f>
         <v/>
       </c>
-      <c r="G83" s="28" t="str">
+      <c r="G83" s="1" t="str">
         <f>IF(_crushing_month_all!F80="","",_crushing_month_all!F80)</f>
         <v/>
       </c>
-      <c r="H83" s="28" t="str">
+      <c r="H83" s="1" t="str">
         <f>IF(_crushing_month_all!G80="","",_crushing_month_all!G80)</f>
         <v/>
       </c>
-      <c r="I83" s="28" t="str">
+      <c r="I83" s="1" t="str">
         <f>IF(_crushing_month_all!H80="","",_crushing_month_all!H80)</f>
         <v/>
       </c>
-      <c r="J83" s="28" t="str">
+      <c r="J83" s="1" t="str">
         <f>IF(_crushing_month_all!I80="","",_crushing_month_all!I80)</f>
         <v/>
       </c>
-      <c r="K83" s="28" t="str">
+      <c r="K83" s="1" t="str">
         <f>IF(_crushing_month_all!J80="","",_crushing_month_all!J80)</f>
         <v/>
       </c>
-      <c r="L83" s="28" t="str">
+      <c r="L83" s="1" t="str">
         <f>IF(_crushing_month_all!K80="","",_crushing_month_all!K80)</f>
         <v/>
       </c>
-      <c r="M83" s="28" t="str">
+      <c r="M83" s="1" t="str">
         <f>IF(_crushing_month_all!L80="","",_crushing_month_all!L80)</f>
         <v/>
       </c>
-      <c r="N83" s="28" t="str">
+      <c r="N83" s="1" t="str">
         <f>IF(_crushing_month_all!M80="","",_crushing_month_all!M80)</f>
         <v/>
       </c>
-      <c r="O83" s="28" t="str">
+      <c r="O83" s="1" t="str">
         <f>IF(_crushing_month_all!N80="","",_crushing_month_all!N80)</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:15">
-      <c r="B84" s="28" t="str">
+    <row r="84">
+      <c r="B84" s="1" t="str">
         <f>IF(_crushing_month_all!A81="","",_crushing_month_all!A81)</f>
         <v/>
       </c>
-      <c r="C84" s="28" t="str">
+      <c r="C84" s="1" t="str">
         <f>IF(_crushing_month_all!B81="","",_crushing_month_all!B81)</f>
         <v/>
       </c>
-      <c r="D84" s="28" t="str">
+      <c r="D84" s="1" t="str">
         <f>IF(_crushing_month_all!C81="","",_crushing_month_all!C81)</f>
         <v/>
       </c>
-      <c r="E84" s="28" t="str">
+      <c r="E84" s="1" t="str">
         <f>IF(_crushing_month_all!D81="","",_crushing_month_all!D81)</f>
         <v/>
       </c>
-      <c r="F84" s="28" t="str">
+      <c r="F84" s="1" t="str">
         <f>IF(_crushing_month_all!E81="","",_crushing_month_all!E81)</f>
         <v/>
       </c>
-      <c r="G84" s="28" t="str">
+      <c r="G84" s="1" t="str">
         <f>IF(_crushing_month_all!F81="","",_crushing_month_all!F81)</f>
         <v/>
       </c>
-      <c r="H84" s="28" t="str">
+      <c r="H84" s="1" t="str">
         <f>IF(_crushing_month_all!G81="","",_crushing_month_all!G81)</f>
         <v/>
       </c>
-      <c r="I84" s="28" t="str">
+      <c r="I84" s="1" t="str">
         <f>IF(_crushing_month_all!H81="","",_crushing_month_all!H81)</f>
         <v/>
       </c>
-      <c r="J84" s="28" t="str">
+      <c r="J84" s="1" t="str">
         <f>IF(_crushing_month_all!I81="","",_crushing_month_all!I81)</f>
         <v/>
       </c>
-      <c r="K84" s="28" t="str">
+      <c r="K84" s="1" t="str">
         <f>IF(_crushing_month_all!J81="","",_crushing_month_all!J81)</f>
         <v/>
       </c>
-      <c r="L84" s="28" t="str">
+      <c r="L84" s="1" t="str">
         <f>IF(_crushing_month_all!K81="","",_crushing_month_all!K81)</f>
         <v/>
       </c>
-      <c r="M84" s="28" t="str">
+      <c r="M84" s="1" t="str">
         <f>IF(_crushing_month_all!L81="","",_crushing_month_all!L81)</f>
         <v/>
       </c>
-      <c r="N84" s="28" t="str">
+      <c r="N84" s="1" t="str">
         <f>IF(_crushing_month_all!M81="","",_crushing_month_all!M81)</f>
         <v/>
       </c>
-      <c r="O84" s="28" t="str">
+      <c r="O84" s="1" t="str">
         <f>IF(_crushing_month_all!N81="","",_crushing_month_all!N81)</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:15">
-      <c r="B85" s="28" t="str">
+    <row r="85">
+      <c r="B85" s="1" t="str">
         <f>IF(_crushing_month_all!A82="","",_crushing_month_all!A82)</f>
         <v/>
       </c>
-      <c r="C85" s="28" t="str">
+      <c r="C85" s="1" t="str">
         <f>IF(_crushing_month_all!B82="","",_crushing_month_all!B82)</f>
         <v/>
       </c>
-      <c r="D85" s="28" t="str">
+      <c r="D85" s="1" t="str">
         <f>IF(_crushing_month_all!C82="","",_crushing_month_all!C82)</f>
         <v/>
       </c>
-      <c r="E85" s="28" t="str">
+      <c r="E85" s="1" t="str">
         <f>IF(_crushing_month_all!D82="","",_crushing_month_all!D82)</f>
         <v/>
       </c>
-      <c r="F85" s="28" t="str">
+      <c r="F85" s="1" t="str">
         <f>IF(_crushing_month_all!E82="","",_crushing_month_all!E82)</f>
         <v/>
       </c>
-      <c r="G85" s="28" t="str">
+      <c r="G85" s="1" t="str">
         <f>IF(_crushing_month_all!F82="","",_crushing_month_all!F82)</f>
         <v/>
       </c>
-      <c r="H85" s="28" t="str">
+      <c r="H85" s="1" t="str">
         <f>IF(_crushing_month_all!G82="","",_crushing_month_all!G82)</f>
         <v/>
       </c>
-      <c r="I85" s="28" t="str">
+      <c r="I85" s="1" t="str">
         <f>IF(_crushing_month_all!H82="","",_crushing_month_all!H82)</f>
         <v/>
       </c>
-      <c r="J85" s="28" t="str">
+      <c r="J85" s="1" t="str">
         <f>IF(_crushing_month_all!I82="","",_crushing_month_all!I82)</f>
         <v/>
       </c>
-      <c r="K85" s="28" t="str">
+      <c r="K85" s="1" t="str">
         <f>IF(_crushing_month_all!J82="","",_crushing_month_all!J82)</f>
         <v/>
       </c>
-      <c r="L85" s="28" t="str">
+      <c r="L85" s="1" t="str">
         <f>IF(_crushing_month_all!K82="","",_crushing_month_all!K82)</f>
         <v/>
       </c>
-      <c r="M85" s="28" t="str">
+      <c r="M85" s="1" t="str">
         <f>IF(_crushing_month_all!L82="","",_crushing_month_all!L82)</f>
         <v/>
       </c>
-      <c r="N85" s="28" t="str">
+      <c r="N85" s="1" t="str">
         <f>IF(_crushing_month_all!M82="","",_crushing_month_all!M82)</f>
         <v/>
       </c>
-      <c r="O85" s="28" t="str">
+      <c r="O85" s="1" t="str">
         <f>IF(_crushing_month_all!N82="","",_crushing_month_all!N82)</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:15">
-      <c r="B86" s="28" t="str">
+    <row r="86">
+      <c r="B86" s="1" t="str">
         <f>IF(_crushing_month_all!A83="","",_crushing_month_all!A83)</f>
         <v/>
       </c>
-      <c r="C86" s="28" t="str">
+      <c r="C86" s="1" t="str">
         <f>IF(_crushing_month_all!B83="","",_crushing_month_all!B83)</f>
         <v/>
       </c>
-      <c r="D86" s="28" t="str">
+      <c r="D86" s="1" t="str">
         <f>IF(_crushing_month_all!C83="","",_crushing_month_all!C83)</f>
         <v/>
       </c>
-      <c r="E86" s="28" t="str">
+      <c r="E86" s="1" t="str">
         <f>IF(_crushing_month_all!D83="","",_crushing_month_all!D83)</f>
         <v/>
       </c>
-      <c r="F86" s="28" t="str">
+      <c r="F86" s="1" t="str">
         <f>IF(_crushing_month_all!E83="","",_crushing_month_all!E83)</f>
         <v/>
       </c>
-      <c r="G86" s="28" t="str">
+      <c r="G86" s="1" t="str">
         <f>IF(_crushing_month_all!F83="","",_crushing_month_all!F83)</f>
         <v/>
       </c>
-      <c r="H86" s="28" t="str">
+      <c r="H86" s="1" t="str">
         <f>IF(_crushing_month_all!G83="","",_crushing_month_all!G83)</f>
         <v/>
       </c>
-      <c r="I86" s="28" t="str">
+      <c r="I86" s="1" t="str">
         <f>IF(_crushing_month_all!H83="","",_crushing_month_all!H83)</f>
         <v/>
       </c>
-      <c r="J86" s="28" t="str">
+      <c r="J86" s="1" t="str">
         <f>IF(_crushing_month_all!I83="","",_crushing_month_all!I83)</f>
         <v/>
       </c>
-      <c r="K86" s="28" t="str">
+      <c r="K86" s="1" t="str">
         <f>IF(_crushing_month_all!J83="","",_crushing_month_all!J83)</f>
         <v/>
       </c>
-      <c r="L86" s="28" t="str">
+      <c r="L86" s="1" t="str">
         <f>IF(_crushing_month_all!K83="","",_crushing_month_all!K83)</f>
         <v/>
       </c>
-      <c r="M86" s="28" t="str">
+      <c r="M86" s="1" t="str">
         <f>IF(_crushing_month_all!L83="","",_crushing_month_all!L83)</f>
         <v/>
       </c>
-      <c r="N86" s="28" t="str">
+      <c r="N86" s="1" t="str">
         <f>IF(_crushing_month_all!M83="","",_crushing_month_all!M83)</f>
         <v/>
       </c>
-      <c r="O86" s="28" t="str">
+      <c r="O86" s="1" t="str">
         <f>IF(_crushing_month_all!N83="","",_crushing_month_all!N83)</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:15">
-      <c r="B87" s="28" t="str">
+    <row r="87">
+      <c r="B87" s="1" t="str">
         <f>IF(_crushing_month_all!A84="","",_crushing_month_all!A84)</f>
         <v/>
       </c>
-      <c r="C87" s="28" t="str">
+      <c r="C87" s="1" t="str">
         <f>IF(_crushing_month_all!B84="","",_crushing_month_all!B84)</f>
         <v/>
       </c>
-      <c r="D87" s="28" t="str">
+      <c r="D87" s="1" t="str">
         <f>IF(_crushing_month_all!C84="","",_crushing_month_all!C84)</f>
         <v/>
       </c>
-      <c r="E87" s="28" t="str">
+      <c r="E87" s="1" t="str">
         <f>IF(_crushing_month_all!D84="","",_crushing_month_all!D84)</f>
         <v/>
       </c>
-      <c r="F87" s="28" t="str">
+      <c r="F87" s="1" t="str">
         <f>IF(_crushing_month_all!E84="","",_crushing_month_all!E84)</f>
         <v/>
       </c>
-      <c r="G87" s="28" t="str">
+      <c r="G87" s="1" t="str">
         <f>IF(_crushing_month_all!F84="","",_crushing_month_all!F84)</f>
         <v/>
       </c>
-      <c r="H87" s="28" t="str">
+      <c r="H87" s="1" t="str">
         <f>IF(_crushing_month_all!G84="","",_crushing_month_all!G84)</f>
         <v/>
       </c>
-      <c r="I87" s="28" t="str">
+      <c r="I87" s="1" t="str">
         <f>IF(_crushing_month_all!H84="","",_crushing_month_all!H84)</f>
         <v/>
       </c>
-      <c r="J87" s="28" t="str">
+      <c r="J87" s="1" t="str">
         <f>IF(_crushing_month_all!I84="","",_crushing_month_all!I84)</f>
         <v/>
       </c>
-      <c r="K87" s="28" t="str">
+      <c r="K87" s="1" t="str">
         <f>IF(_crushing_month_all!J84="","",_crushing_month_all!J84)</f>
         <v/>
       </c>
-      <c r="L87" s="28" t="str">
+      <c r="L87" s="1" t="str">
         <f>IF(_crushing_month_all!K84="","",_crushing_month_all!K84)</f>
         <v/>
       </c>
-      <c r="M87" s="28" t="str">
+      <c r="M87" s="1" t="str">
         <f>IF(_crushing_month_all!L84="","",_crushing_month_all!L84)</f>
         <v/>
       </c>
-      <c r="N87" s="28" t="str">
+      <c r="N87" s="1" t="str">
         <f>IF(_crushing_month_all!M84="","",_crushing_month_all!M84)</f>
         <v/>
       </c>
-      <c r="O87" s="28" t="str">
+      <c r="O87" s="1" t="str">
         <f>IF(_crushing_month_all!N84="","",_crushing_month_all!N84)</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:15">
-      <c r="B88" s="28" t="str">
+    <row r="88">
+      <c r="B88" s="1" t="str">
         <f>IF(_crushing_month_all!A85="","",_crushing_month_all!A85)</f>
         <v/>
       </c>
-      <c r="C88" s="28" t="str">
+      <c r="C88" s="1" t="str">
         <f>IF(_crushing_month_all!B85="","",_crushing_month_all!B85)</f>
         <v/>
       </c>
-      <c r="D88" s="28" t="str">
+      <c r="D88" s="1" t="str">
         <f>IF(_crushing_month_all!C85="","",_crushing_month_all!C85)</f>
         <v/>
       </c>
-      <c r="E88" s="28" t="str">
+      <c r="E88" s="1" t="str">
         <f>IF(_crushing_month_all!D85="","",_crushing_month_all!D85)</f>
         <v/>
       </c>
-      <c r="F88" s="28" t="str">
+      <c r="F88" s="1" t="str">
         <f>IF(_crushing_month_all!E85="","",_crushing_month_all!E85)</f>
         <v/>
       </c>
-      <c r="G88" s="28" t="str">
+      <c r="G88" s="1" t="str">
         <f>IF(_crushing_month_all!F85="","",_crushing_month_all!F85)</f>
         <v/>
       </c>
-      <c r="H88" s="28" t="str">
+      <c r="H88" s="1" t="str">
         <f>IF(_crushing_month_all!G85="","",_crushing_month_all!G85)</f>
         <v/>
       </c>
-      <c r="I88" s="28" t="str">
+      <c r="I88" s="1" t="str">
         <f>IF(_crushing_month_all!H85="","",_crushing_month_all!H85)</f>
         <v/>
       </c>
-      <c r="J88" s="28" t="str">
+      <c r="J88" s="1" t="str">
         <f>IF(_crushing_month_all!I85="","",_crushing_month_all!I85)</f>
         <v/>
       </c>
-      <c r="K88" s="28" t="str">
+      <c r="K88" s="1" t="str">
         <f>IF(_crushing_month_all!J85="","",_crushing_month_all!J85)</f>
         <v/>
       </c>
-      <c r="L88" s="28" t="str">
+      <c r="L88" s="1" t="str">
         <f>IF(_crushing_month_all!K85="","",_crushing_month_all!K85)</f>
         <v/>
       </c>
-      <c r="M88" s="28" t="str">
+      <c r="M88" s="1" t="str">
         <f>IF(_crushing_month_all!L85="","",_crushing_month_all!L85)</f>
         <v/>
       </c>
-      <c r="N88" s="28" t="str">
+      <c r="N88" s="1" t="str">
         <f>IF(_crushing_month_all!M85="","",_crushing_month_all!M85)</f>
         <v/>
       </c>
-      <c r="O88" s="28" t="str">
+      <c r="O88" s="1" t="str">
         <f>IF(_crushing_month_all!N85="","",_crushing_month_all!N85)</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:15">
-      <c r="B89" s="28" t="str">
+    <row r="89">
+      <c r="B89" s="1" t="str">
         <f>IF(_crushing_month_all!A86="","",_crushing_month_all!A86)</f>
         <v/>
       </c>
-      <c r="C89" s="28" t="str">
+      <c r="C89" s="1" t="str">
         <f>IF(_crushing_month_all!B86="","",_crushing_month_all!B86)</f>
         <v/>
       </c>
-      <c r="D89" s="28" t="str">
+      <c r="D89" s="1" t="str">
         <f>IF(_crushing_month_all!C86="","",_crushing_month_all!C86)</f>
         <v/>
       </c>
-      <c r="E89" s="28" t="str">
+      <c r="E89" s="1" t="str">
         <f>IF(_crushing_month_all!D86="","",_crushing_month_all!D86)</f>
         <v/>
       </c>
-      <c r="F89" s="28" t="str">
+      <c r="F89" s="1" t="str">
         <f>IF(_crushing_month_all!E86="","",_crushing_month_all!E86)</f>
         <v/>
       </c>
-      <c r="G89" s="28" t="str">
+      <c r="G89" s="1" t="str">
         <f>IF(_crushing_month_all!F86="","",_crushing_month_all!F86)</f>
         <v/>
       </c>
-      <c r="H89" s="28" t="str">
+      <c r="H89" s="1" t="str">
         <f>IF(_crushing_month_all!G86="","",_crushing_month_all!G86)</f>
         <v/>
       </c>
-      <c r="I89" s="28" t="str">
+      <c r="I89" s="1" t="str">
         <f>IF(_crushing_month_all!H86="","",_crushing_month_all!H86)</f>
         <v/>
       </c>
-      <c r="J89" s="28" t="str">
+      <c r="J89" s="1" t="str">
         <f>IF(_crushing_month_all!I86="","",_crushing_month_all!I86)</f>
         <v/>
       </c>
-      <c r="K89" s="28" t="str">
+      <c r="K89" s="1" t="str">
         <f>IF(_crushing_month_all!J86="","",_crushing_month_all!J86)</f>
         <v/>
       </c>
-      <c r="L89" s="28" t="str">
+      <c r="L89" s="1" t="str">
         <f>IF(_crushing_month_all!K86="","",_crushing_month_all!K86)</f>
         <v/>
       </c>
-      <c r="M89" s="28" t="str">
+      <c r="M89" s="1" t="str">
         <f>IF(_crushing_month_all!L86="","",_crushing_month_all!L86)</f>
         <v/>
       </c>
-      <c r="N89" s="28" t="str">
+      <c r="N89" s="1" t="str">
         <f>IF(_crushing_month_all!M86="","",_crushing_month_all!M86)</f>
         <v/>
       </c>
-      <c r="O89" s="28" t="str">
+      <c r="O89" s="1" t="str">
         <f>IF(_crushing_month_all!N86="","",_crushing_month_all!N86)</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:15">
-      <c r="B90" s="28" t="str">
+    <row r="90">
+      <c r="B90" s="1" t="str">
         <f>IF(_crushing_month_all!A87="","",_crushing_month_all!A87)</f>
         <v/>
       </c>
-      <c r="C90" s="28" t="str">
+      <c r="C90" s="1" t="str">
         <f>IF(_crushing_month_all!B87="","",_crushing_month_all!B87)</f>
         <v/>
       </c>
-      <c r="D90" s="28" t="str">
+      <c r="D90" s="1" t="str">
         <f>IF(_crushing_month_all!C87="","",_crushing_month_all!C87)</f>
         <v/>
       </c>
-      <c r="E90" s="28" t="str">
+      <c r="E90" s="1" t="str">
         <f>IF(_crushing_month_all!D87="","",_crushing_month_all!D87)</f>
         <v/>
       </c>
-      <c r="F90" s="28" t="str">
+      <c r="F90" s="1" t="str">
         <f>IF(_crushing_month_all!E87="","",_crushing_month_all!E87)</f>
         <v/>
       </c>
-      <c r="G90" s="28" t="str">
+      <c r="G90" s="1" t="str">
         <f>IF(_crushing_month_all!F87="","",_crushing_month_all!F87)</f>
         <v/>
       </c>
-      <c r="H90" s="28" t="str">
+      <c r="H90" s="1" t="str">
         <f>IF(_crushing_month_all!G87="","",_crushing_month_all!G87)</f>
         <v/>
       </c>
-      <c r="I90" s="28" t="str">
+      <c r="I90" s="1" t="str">
         <f>IF(_crushing_month_all!H87="","",_crushing_month_all!H87)</f>
         <v/>
       </c>
-      <c r="J90" s="28" t="str">
+      <c r="J90" s="1" t="str">
         <f>IF(_crushing_month_all!I87="","",_crushing_month_all!I87)</f>
         <v/>
       </c>
-      <c r="K90" s="28" t="str">
+      <c r="K90" s="1" t="str">
         <f>IF(_crushing_month_all!J87="","",_crushing_month_all!J87)</f>
         <v/>
       </c>
-      <c r="L90" s="28" t="str">
+      <c r="L90" s="1" t="str">
         <f>IF(_crushing_month_all!K87="","",_crushing_month_all!K87)</f>
         <v/>
       </c>
-      <c r="M90" s="28" t="str">
+      <c r="M90" s="1" t="str">
         <f>IF(_crushing_month_all!L87="","",_crushing_month_all!L87)</f>
         <v/>
       </c>
-      <c r="N90" s="28" t="str">
+      <c r="N90" s="1" t="str">
         <f>IF(_crushing_month_all!M87="","",_crushing_month_all!M87)</f>
         <v/>
       </c>
-      <c r="O90" s="28" t="str">
+      <c r="O90" s="1" t="str">
         <f>IF(_crushing_month_all!N87="","",_crushing_month_all!N87)</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:15">
-      <c r="B91" s="28" t="str">
+    <row r="91">
+      <c r="B91" s="1" t="str">
         <f>IF(_crushing_month_all!A88="","",_crushing_month_all!A88)</f>
         <v/>
       </c>
-      <c r="C91" s="28" t="str">
+      <c r="C91" s="1" t="str">
         <f>IF(_crushing_month_all!B88="","",_crushing_month_all!B88)</f>
         <v/>
       </c>
-      <c r="D91" s="28" t="str">
+      <c r="D91" s="1" t="str">
         <f>IF(_crushing_month_all!C88="","",_crushing_month_all!C88)</f>
         <v/>
       </c>
-      <c r="E91" s="28" t="str">
+      <c r="E91" s="1" t="str">
         <f>IF(_crushing_month_all!D88="","",_crushing_month_all!D88)</f>
         <v/>
       </c>
-      <c r="F91" s="28" t="str">
+      <c r="F91" s="1" t="str">
         <f>IF(_crushing_month_all!E88="","",_crushing_month_all!E88)</f>
         <v/>
       </c>
-      <c r="G91" s="28" t="str">
+      <c r="G91" s="1" t="str">
         <f>IF(_crushing_month_all!F88="","",_crushing_month_all!F88)</f>
         <v/>
       </c>
-      <c r="H91" s="28" t="str">
+      <c r="H91" s="1" t="str">
         <f>IF(_crushing_month_all!G88="","",_crushing_month_all!G88)</f>
         <v/>
       </c>
-      <c r="I91" s="28" t="str">
+      <c r="I91" s="1" t="str">
         <f>IF(_crushing_month_all!H88="","",_crushing_month_all!H88)</f>
         <v/>
       </c>
-      <c r="J91" s="28" t="str">
+      <c r="J91" s="1" t="str">
         <f>IF(_crushing_month_all!I88="","",_crushing_month_all!I88)</f>
         <v/>
       </c>
-      <c r="K91" s="28" t="str">
+      <c r="K91" s="1" t="str">
         <f>IF(_crushing_month_all!J88="","",_crushing_month_all!J88)</f>
         <v/>
       </c>
-      <c r="L91" s="28" t="str">
+      <c r="L91" s="1" t="str">
         <f>IF(_crushing_month_all!K88="","",_crushing_month_all!K88)</f>
         <v/>
       </c>
-      <c r="M91" s="28" t="str">
+      <c r="M91" s="1" t="str">
         <f>IF(_crushing_month_all!L88="","",_crushing_month_all!L88)</f>
         <v/>
       </c>
-      <c r="N91" s="28" t="str">
+      <c r="N91" s="1" t="str">
         <f>IF(_crushing_month_all!M88="","",_crushing_month_all!M88)</f>
         <v/>
       </c>
-      <c r="O91" s="28" t="str">
+      <c r="O91" s="1" t="str">
         <f>IF(_crushing_month_all!N88="","",_crushing_month_all!N88)</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:15">
-      <c r="B92" s="28" t="str">
+    <row r="92">
+      <c r="B92" s="1" t="str">
         <f>IF(_crushing_month_all!A89="","",_crushing_month_all!A89)</f>
         <v/>
       </c>
-      <c r="C92" s="28" t="str">
+      <c r="C92" s="1" t="str">
         <f>IF(_crushing_month_all!B89="","",_crushing_month_all!B89)</f>
         <v/>
       </c>
-      <c r="D92" s="28" t="str">
+      <c r="D92" s="1" t="str">
         <f>IF(_crushing_month_all!C89="","",_crushing_month_all!C89)</f>
         <v/>
       </c>
-      <c r="E92" s="28" t="str">
+      <c r="E92" s="1" t="str">
         <f>IF(_crushing_month_all!D89="","",_crushing_month_all!D89)</f>
         <v/>
       </c>
-      <c r="F92" s="28" t="str">
+      <c r="F92" s="1" t="str">
         <f>IF(_crushing_month_all!E89="","",_crushing_month_all!E89)</f>
         <v/>
       </c>
-      <c r="G92" s="28" t="str">
+      <c r="G92" s="1" t="str">
         <f>IF(_crushing_month_all!F89="","",_crushing_month_all!F89)</f>
         <v/>
       </c>
-      <c r="H92" s="28" t="str">
+      <c r="H92" s="1" t="str">
         <f>IF(_crushing_month_all!G89="","",_crushing_month_all!G89)</f>
         <v/>
       </c>
-      <c r="I92" s="28" t="str">
+      <c r="I92" s="1" t="str">
         <f>IF(_crushing_month_all!H89="","",_crushing_month_all!H89)</f>
         <v/>
       </c>
-      <c r="J92" s="28" t="str">
+      <c r="J92" s="1" t="str">
         <f>IF(_crushing_month_all!I89="","",_crushing_month_all!I89)</f>
         <v/>
       </c>
-      <c r="K92" s="28" t="str">
+      <c r="K92" s="1" t="str">
         <f>IF(_crushing_month_all!J89="","",_crushing_month_all!J89)</f>
         <v/>
       </c>
-      <c r="L92" s="28" t="str">
+      <c r="L92" s="1" t="str">
         <f>IF(_crushing_month_all!K89="","",_crushing_month_all!K89)</f>
         <v/>
       </c>
-      <c r="M92" s="28" t="str">
+      <c r="M92" s="1" t="str">
         <f>IF(_crushing_month_all!L89="","",_crushing_month_all!L89)</f>
         <v/>
       </c>
-      <c r="N92" s="28" t="str">
+      <c r="N92" s="1" t="str">
         <f>IF(_crushing_month_all!M89="","",_crushing_month_all!M89)</f>
         <v/>
       </c>
-      <c r="O92" s="28" t="str">
+      <c r="O92" s="1" t="str">
         <f>IF(_crushing_month_all!N89="","",_crushing_month_all!N89)</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:15">
-      <c r="B93" s="28" t="str">
+    <row r="93">
+      <c r="B93" s="1" t="str">
         <f>IF(_crushing_month_all!A90="","",_crushing_month_all!A90)</f>
         <v/>
       </c>
-      <c r="C93" s="28" t="str">
+      <c r="C93" s="1" t="str">
         <f>IF(_crushing_month_all!B90="","",_crushing_month_all!B90)</f>
         <v/>
       </c>
-      <c r="D93" s="28" t="str">
+      <c r="D93" s="1" t="str">
         <f>IF(_crushing_month_all!C90="","",_crushing_month_all!C90)</f>
         <v/>
       </c>
-      <c r="E93" s="28" t="str">
+      <c r="E93" s="1" t="str">
         <f>IF(_crushing_month_all!D90="","",_crushing_month_all!D90)</f>
         <v/>
       </c>
-      <c r="F93" s="28" t="str">
+      <c r="F93" s="1" t="str">
         <f>IF(_crushing_month_all!E90="","",_crushing_month_all!E90)</f>
         <v/>
       </c>
-      <c r="G93" s="28" t="str">
+      <c r="G93" s="1" t="str">
         <f>IF(_crushing_month_all!F90="","",_crushing_month_all!F90)</f>
         <v/>
       </c>
-      <c r="H93" s="28" t="str">
+      <c r="H93" s="1" t="str">
         <f>IF(_crushing_month_all!G90="","",_crushing_month_all!G90)</f>
         <v/>
       </c>
-      <c r="I93" s="28" t="str">
+      <c r="I93" s="1" t="str">
         <f>IF(_crushing_month_all!H90="","",_crushing_month_all!H90)</f>
         <v/>
       </c>
-      <c r="J93" s="28" t="str">
+      <c r="J93" s="1" t="str">
         <f>IF(_crushing_month_all!I90="","",_crushing_month_all!I90)</f>
         <v/>
       </c>
-      <c r="K93" s="28" t="str">
+      <c r="K93" s="1" t="str">
         <f>IF(_crushing_month_all!J90="","",_crushing_month_all!J90)</f>
         <v/>
       </c>
-      <c r="L93" s="28" t="str">
+      <c r="L93" s="1" t="str">
         <f>IF(_crushing_month_all!K90="","",_crushing_month_all!K90)</f>
         <v/>
       </c>
-      <c r="M93" s="28" t="str">
+      <c r="M93" s="1" t="str">
         <f>IF(_crushing_month_all!L90="","",_crushing_month_all!L90)</f>
         <v/>
       </c>
-      <c r="N93" s="28" t="str">
+      <c r="N93" s="1" t="str">
         <f>IF(_crushing_month_all!M90="","",_crushing_month_all!M90)</f>
         <v/>
       </c>
-      <c r="O93" s="28" t="str">
+      <c r="O93" s="1" t="str">
         <f>IF(_crushing_month_all!N90="","",_crushing_month_all!N90)</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:15">
-      <c r="B94" s="28" t="str">
+    <row r="94">
+      <c r="B94" s="1" t="str">
         <f>IF(_crushing_month_all!A91="","",_crushing_month_all!A91)</f>
         <v/>
       </c>
-      <c r="C94" s="28" t="str">
+      <c r="C94" s="1" t="str">
         <f>IF(_crushing_month_all!B91="","",_crushing_month_all!B91)</f>
         <v/>
       </c>
-      <c r="D94" s="28" t="str">
+      <c r="D94" s="1" t="str">
         <f>IF(_crushing_month_all!C91="","",_crushing_month_all!C91)</f>
         <v/>
       </c>
-      <c r="E94" s="28" t="str">
+      <c r="E94" s="1" t="str">
         <f>IF(_crushing_month_all!D91="","",_crushing_month_all!D91)</f>
         <v/>
       </c>
-      <c r="F94" s="28" t="str">
+      <c r="F94" s="1" t="str">
         <f>IF(_crushing_month_all!E91="","",_crushing_month_all!E91)</f>
         <v/>
       </c>
-      <c r="G94" s="28" t="str">
+      <c r="G94" s="1" t="str">
         <f>IF(_crushing_month_all!F91="","",_crushing_month_all!F91)</f>
         <v/>
       </c>
-      <c r="H94" s="28" t="str">
+      <c r="H94" s="1" t="str">
         <f>IF(_crushing_month_all!G91="","",_crushing_month_all!G91)</f>
         <v/>
       </c>
-      <c r="I94" s="28" t="str">
+      <c r="I94" s="1" t="str">
         <f>IF(_crushing_month_all!H91="","",_crushing_month_all!H91)</f>
         <v/>
       </c>
-      <c r="J94" s="28" t="str">
+      <c r="J94" s="1" t="str">
         <f>IF(_crushing_month_all!I91="","",_crushing_month_all!I91)</f>
         <v/>
       </c>
-      <c r="K94" s="28" t="str">
+      <c r="K94" s="1" t="str">
         <f>IF(_crushing_month_all!J91="","",_crushing_month_all!J91)</f>
         <v/>
       </c>
-      <c r="L94" s="28" t="str">
+      <c r="L94" s="1" t="str">
         <f>IF(_crushing_month_all!K91="","",_crushing_month_all!K91)</f>
         <v/>
       </c>
-      <c r="M94" s="28" t="str">
+      <c r="M94" s="1" t="str">
         <f>IF(_crushing_month_all!L91="","",_crushing_month_all!L91)</f>
         <v/>
       </c>
-      <c r="N94" s="28" t="str">
+      <c r="N94" s="1" t="str">
         <f>IF(_crushing_month_all!M91="","",_crushing_month_all!M91)</f>
         <v/>
       </c>
-      <c r="O94" s="28" t="str">
+      <c r="O94" s="1" t="str">
         <f>IF(_crushing_month_all!N91="","",_crushing_month_all!N91)</f>
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:15">
-      <c r="B95" s="28" t="str">
+    <row r="95">
+      <c r="B95" s="1" t="str">
         <f>IF(_crushing_month_all!A92="","",_crushing_month_all!A92)</f>
         <v/>
       </c>
-      <c r="C95" s="28" t="str">
+      <c r="C95" s="1" t="str">
         <f>IF(_crushing_month_all!B92="","",_crushing_month_all!B92)</f>
         <v/>
       </c>
-      <c r="D95" s="28" t="str">
+      <c r="D95" s="1" t="str">
         <f>IF(_crushing_month_all!C92="","",_crushing_month_all!C92)</f>
         <v/>
       </c>
-      <c r="E95" s="28" t="str">
+      <c r="E95" s="1" t="str">
         <f>IF(_crushing_month_all!D92="","",_crushing_month_all!D92)</f>
         <v/>
       </c>
-      <c r="F95" s="28" t="str">
+      <c r="F95" s="1" t="str">
         <f>IF(_crushing_month_all!E92="","",_crushing_month_all!E92)</f>
         <v/>
       </c>
-      <c r="G95" s="28" t="str">
+      <c r="G95" s="1" t="str">
         <f>IF(_crushing_month_all!F92="","",_crushing_month_all!F92)</f>
         <v/>
       </c>
-      <c r="H95" s="28" t="str">
+      <c r="H95" s="1" t="str">
         <f>IF(_crushing_month_all!G92="","",_crushing_month_all!G92)</f>
         <v/>
       </c>
-      <c r="I95" s="28" t="str">
+      <c r="I95" s="1" t="str">
         <f>IF(_crushing_month_all!H92="","",_crushing_month_all!H92)</f>
         <v/>
       </c>
-      <c r="J95" s="28" t="str">
+      <c r="J95" s="1" t="str">
         <f>IF(_crushing_month_all!I92="","",_crushing_month_all!I92)</f>
         <v/>
       </c>
-      <c r="K95" s="28" t="str">
+      <c r="K95" s="1" t="str">
         <f>IF(_crushing_month_all!J92="","",_crushing_month_all!J92)</f>
         <v/>
       </c>
-      <c r="L95" s="28" t="str">
+      <c r="L95" s="1" t="str">
         <f>IF(_crushing_month_all!K92="","",_crushing_month_all!K92)</f>
         <v/>
       </c>
-      <c r="M95" s="28" t="str">
+      <c r="M95" s="1" t="str">
         <f>IF(_crushing_month_all!L92="","",_crushing_month_all!L92)</f>
         <v/>
       </c>
-      <c r="N95" s="28" t="str">
+      <c r="N95" s="1" t="str">
         <f>IF(_crushing_month_all!M92="","",_crushing_month_all!M92)</f>
         <v/>
       </c>
-      <c r="O95" s="28" t="str">
+      <c r="O95" s="1" t="str">
         <f>IF(_crushing_month_all!N92="","",_crushing_month_all!N92)</f>
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:15">
-      <c r="B96" s="28" t="str">
+    <row r="96">
+      <c r="B96" s="1" t="str">
         <f>IF(_crushing_month_all!A93="","",_crushing_month_all!A93)</f>
         <v/>
       </c>
-      <c r="C96" s="28" t="str">
+      <c r="C96" s="1" t="str">
         <f>IF(_crushing_month_all!B93="","",_crushing_month_all!B93)</f>
         <v/>
       </c>
-      <c r="D96" s="28" t="str">
+      <c r="D96" s="1" t="str">
         <f>IF(_crushing_month_all!C93="","",_crushing_month_all!C93)</f>
         <v/>
       </c>
-      <c r="E96" s="28" t="str">
+      <c r="E96" s="1" t="str">
         <f>IF(_crushing_month_all!D93="","",_crushing_month_all!D93)</f>
         <v/>
       </c>
-      <c r="F96" s="28" t="str">
+      <c r="F96" s="1" t="str">
         <f>IF(_crushing_month_all!E93="","",_crushing_month_all!E93)</f>
         <v/>
       </c>
-      <c r="G96" s="28" t="str">
+      <c r="G96" s="1" t="str">
         <f>IF(_crushing_month_all!F93="","",_crushing_month_all!F93)</f>
         <v/>
       </c>
-      <c r="H96" s="28" t="str">
+      <c r="H96" s="1" t="str">
         <f>IF(_crushing_month_all!G93="","",_crushing_month_all!G93)</f>
         <v/>
       </c>
-      <c r="I96" s="28" t="str">
+      <c r="I96" s="1" t="str">
         <f>IF(_crushing_month_all!H93="","",_crushing_month_all!H93)</f>
         <v/>
       </c>
-      <c r="J96" s="28" t="str">
+      <c r="J96" s="1" t="str">
         <f>IF(_crushing_month_all!I93="","",_crushing_month_all!I93)</f>
         <v/>
       </c>
-      <c r="K96" s="28" t="str">
+      <c r="K96" s="1" t="str">
         <f>IF(_crushing_month_all!J93="","",_crushing_month_all!J93)</f>
         <v/>
       </c>
-      <c r="L96" s="28" t="str">
+      <c r="L96" s="1" t="str">
         <f>IF(_crushing_month_all!K93="","",_crushing_month_all!K93)</f>
         <v/>
       </c>
-      <c r="M96" s="28" t="str">
+      <c r="M96" s="1" t="str">
         <f>IF(_crushing_month_all!L93="","",_crushing_month_all!L93)</f>
         <v/>
       </c>
-      <c r="N96" s="28" t="str">
+      <c r="N96" s="1" t="str">
         <f>IF(_crushing_month_all!M93="","",_crushing_month_all!M93)</f>
         <v/>
       </c>
-      <c r="O96" s="28" t="str">
+      <c r="O96" s="1" t="str">
         <f>IF(_crushing_month_all!N93="","",_crushing_month_all!N93)</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:15">
-      <c r="B97" s="28" t="str">
+    <row r="97">
+      <c r="B97" s="1" t="str">
         <f>IF(_crushing_month_all!A94="","",_crushing_month_all!A94)</f>
         <v/>
       </c>
-      <c r="C97" s="28" t="str">
+      <c r="C97" s="1" t="str">
         <f>IF(_crushing_month_all!B94="","",_crushing_month_all!B94)</f>
         <v/>
       </c>
-      <c r="D97" s="28" t="str">
+      <c r="D97" s="1" t="str">
         <f>IF(_crushing_month_all!C94="","",_crushing_month_all!C94)</f>
         <v/>
       </c>
-      <c r="E97" s="28" t="str">
+      <c r="E97" s="1" t="str">
         <f>IF(_crushing_month_all!D94="","",_crushing_month_all!D94)</f>
         <v/>
       </c>
-      <c r="F97" s="28" t="str">
+      <c r="F97" s="1" t="str">
         <f>IF(_crushing_month_all!E94="","",_crushing_month_all!E94)</f>
         <v/>
       </c>
-      <c r="G97" s="28" t="str">
+      <c r="G97" s="1" t="str">
         <f>IF(_crushing_month_all!F94="","",_crushing_month_all!F94)</f>
         <v/>
       </c>
-      <c r="H97" s="28" t="str">
+      <c r="H97" s="1" t="str">
         <f>IF(_crushing_month_all!G94="","",_crushing_month_all!G94)</f>
         <v/>
       </c>
-      <c r="I97" s="28" t="str">
+      <c r="I97" s="1" t="str">
         <f>IF(_crushing_month_all!H94="","",_crushing_month_all!H94)</f>
         <v/>
       </c>
-      <c r="J97" s="28" t="str">
+      <c r="J97" s="1" t="str">
         <f>IF(_crushing_month_all!I94="","",_crushing_month_all!I94)</f>
         <v/>
       </c>
-      <c r="K97" s="28" t="str">
+      <c r="K97" s="1" t="str">
         <f>IF(_crushing_month_all!J94="","",_crushing_month_all!J94)</f>
         <v/>
       </c>
-      <c r="L97" s="28" t="str">
+      <c r="L97" s="1" t="str">
         <f>IF(_crushing_month_all!K94="","",_crushing_month_all!K94)</f>
         <v/>
       </c>
-      <c r="M97" s="28" t="str">
+      <c r="M97" s="1" t="str">
         <f>IF(_crushing_month_all!L94="","",_crushing_month_all!L94)</f>
         <v/>
       </c>
-      <c r="N97" s="28" t="str">
+      <c r="N97" s="1" t="str">
         <f>IF(_crushing_month_all!M94="","",_crushing_month_all!M94)</f>
         <v/>
       </c>
-      <c r="O97" s="28" t="str">
+      <c r="O97" s="1" t="str">
         <f>IF(_crushing_month_all!N94="","",_crushing_month_all!N94)</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:15">
-      <c r="B98" s="28" t="str">
+    <row r="98">
+      <c r="B98" s="1" t="str">
         <f>IF(_crushing_month_all!A95="","",_crushing_month_all!A95)</f>
         <v/>
       </c>
-      <c r="C98" s="28" t="str">
+      <c r="C98" s="1" t="str">
         <f>IF(_crushing_month_all!B95="","",_crushing_month_all!B95)</f>
         <v/>
       </c>
-      <c r="D98" s="28" t="str">
+      <c r="D98" s="1" t="str">
         <f>IF(_crushing_month_all!C95="","",_crushing_month_all!C95)</f>
         <v/>
       </c>
-      <c r="E98" s="28" t="str">
+      <c r="E98" s="1" t="str">
         <f>IF(_crushing_month_all!D95="","",_crushing_month_all!D95)</f>
         <v/>
       </c>
-      <c r="F98" s="28" t="str">
+      <c r="F98" s="1" t="str">
         <f>IF(_crushing_month_all!E95="","",_crushing_month_all!E95)</f>
         <v/>
       </c>
-      <c r="G98" s="28" t="str">
+      <c r="G98" s="1" t="str">
         <f>IF(_crushing_month_all!F95="","",_crushing_month_all!F95)</f>
         <v/>
       </c>
-      <c r="H98" s="28" t="str">
+      <c r="H98" s="1" t="str">
         <f>IF(_crushing_month_all!G95="","",_crushing_month_all!G95)</f>
         <v/>
       </c>
-      <c r="I98" s="28" t="str">
+      <c r="I98" s="1" t="str">
         <f>IF(_crushing_month_all!H95="","",_crushing_month_all!H95)</f>
         <v/>
       </c>
-      <c r="J98" s="28" t="str">
+      <c r="J98" s="1" t="str">
         <f>IF(_crushing_month_all!I95="","",_crushing_month_all!I95)</f>
         <v/>
       </c>
-      <c r="K98" s="28" t="str">
+      <c r="K98" s="1" t="str">
         <f>IF(_crushing_month_all!J95="","",_crushing_month_all!J95)</f>
         <v/>
       </c>
-      <c r="L98" s="28" t="str">
+      <c r="L98" s="1" t="str">
         <f>IF(_crushing_month_all!K95="","",_crushing_month_all!K95)</f>
         <v/>
       </c>
-      <c r="M98" s="28" t="str">
+      <c r="M98" s="1" t="str">
         <f>IF(_crushing_month_all!L95="","",_crushing_month_all!L95)</f>
         <v/>
       </c>
-      <c r="N98" s="28" t="str">
+      <c r="N98" s="1" t="str">
         <f>IF(_crushing_month_all!M95="","",_crushing_month_all!M95)</f>
         <v/>
       </c>
-      <c r="O98" s="28" t="str">
+      <c r="O98" s="1" t="str">
         <f>IF(_crushing_month_all!N95="","",_crushing_month_all!N95)</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:15">
-      <c r="B99" s="28" t="str">
+    <row r="99">
+      <c r="B99" s="1" t="str">
         <f>IF(_crushing_month_all!A96="","",_crushing_month_all!A96)</f>
         <v/>
       </c>
-      <c r="C99" s="28" t="str">
+      <c r="C99" s="1" t="str">
         <f>IF(_crushing_month_all!B96="","",_crushing_month_all!B96)</f>
         <v/>
       </c>
-      <c r="D99" s="28" t="str">
+      <c r="D99" s="1" t="str">
         <f>IF(_crushing_month_all!C96="","",_crushing_month_all!C96)</f>
         <v/>
       </c>
-      <c r="E99" s="28" t="str">
+      <c r="E99" s="1" t="str">
         <f>IF(_crushing_month_all!D96="","",_crushing_month_all!D96)</f>
         <v/>
       </c>
-      <c r="F99" s="28" t="str">
+      <c r="F99" s="1" t="str">
         <f>IF(_crushing_month_all!E96="","",_crushing_month_all!E96)</f>
         <v/>
       </c>
-      <c r="G99" s="28" t="str">
+      <c r="G99" s="1" t="str">
         <f>IF(_crushing_month_all!F96="","",_crushing_month_all!F96)</f>
         <v/>
       </c>
-      <c r="H99" s="28" t="str">
+      <c r="H99" s="1" t="str">
         <f>IF(_crushing_month_all!G96="","",_crushing_month_all!G96)</f>
         <v/>
       </c>
-      <c r="I99" s="28" t="str">
+      <c r="I99" s="1" t="str">
         <f>IF(_crushing_month_all!H96="","",_crushing_month_all!H96)</f>
         <v/>
       </c>
-      <c r="J99" s="28" t="str">
+      <c r="J99" s="1" t="str">
         <f>IF(_crushing_month_all!I96="","",_crushing_month_all!I96)</f>
         <v/>
       </c>
-      <c r="K99" s="28" t="str">
+      <c r="K99" s="1" t="str">
         <f>IF(_crushing_month_all!J96="","",_crushing_month_all!J96)</f>
         <v/>
       </c>
-      <c r="L99" s="28" t="str">
+      <c r="L99" s="1" t="str">
         <f>IF(_crushing_month_all!K96="","",_crushing_month_all!K96)</f>
         <v/>
       </c>
-      <c r="M99" s="28" t="str">
+      <c r="M99" s="1" t="str">
         <f>IF(_crushing_month_all!L96="","",_crushing_month_all!L96)</f>
         <v/>
       </c>
-      <c r="N99" s="28" t="str">
+      <c r="N99" s="1" t="str">
         <f>IF(_crushing_month_all!M96="","",_crushing_month_all!M96)</f>
         <v/>
       </c>
-      <c r="O99" s="28" t="str">
+      <c r="O99" s="1" t="str">
         <f>IF(_crushing_month_all!N96="","",_crushing_month_all!N96)</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:15">
-      <c r="B100" s="28" t="str">
+    <row r="100">
+      <c r="B100" s="1" t="str">
         <f>IF(_crushing_month_all!A97="","",_crushing_month_all!A97)</f>
         <v/>
       </c>
-      <c r="C100" s="28" t="str">
+      <c r="C100" s="1" t="str">
         <f>IF(_crushing_month_all!B97="","",_crushing_month_all!B97)</f>
         <v/>
       </c>
-      <c r="D100" s="28" t="str">
+      <c r="D100" s="1" t="str">
         <f>IF(_crushing_month_all!C97="","",_crushing_month_all!C97)</f>
         <v/>
       </c>
-      <c r="E100" s="28" t="str">
+      <c r="E100" s="1" t="str">
         <f>IF(_crushing_month_all!D97="","",_crushing_month_all!D97)</f>
         <v/>
       </c>
-      <c r="F100" s="28" t="str">
+      <c r="F100" s="1" t="str">
         <f>IF(_crushing_month_all!E97="","",_crushing_month_all!E97)</f>
         <v/>
       </c>
-      <c r="G100" s="28" t="str">
+      <c r="G100" s="1" t="str">
         <f>IF(_crushing_month_all!F97="","",_crushing_month_all!F97)</f>
         <v/>
       </c>
-      <c r="H100" s="28" t="str">
+      <c r="H100" s="1" t="str">
         <f>IF(_crushing_month_all!G97="","",_crushing_month_all!G97)</f>
         <v/>
       </c>
-      <c r="I100" s="28" t="str">
+      <c r="I100" s="1" t="str">
         <f>IF(_crushing_month_all!H97="","",_crushing_month_all!H97)</f>
         <v/>
       </c>
-      <c r="J100" s="28" t="str">
+      <c r="J100" s="1" t="str">
         <f>IF(_crushing_month_all!I97="","",_crushing_month_all!I97)</f>
         <v/>
       </c>
-      <c r="K100" s="28" t="str">
+      <c r="K100" s="1" t="str">
         <f>IF(_crushing_month_all!J97="","",_crushing_month_all!J97)</f>
         <v/>
       </c>
-      <c r="L100" s="28" t="str">
+      <c r="L100" s="1" t="str">
         <f>IF(_crushing_month_all!K97="","",_crushing_month_all!K97)</f>
         <v/>
       </c>
-      <c r="M100" s="28" t="str">
+      <c r="M100" s="1" t="str">
         <f>IF(_crushing_month_all!L97="","",_crushing_month_all!L97)</f>
         <v/>
       </c>
-      <c r="N100" s="28" t="str">
+      <c r="N100" s="1" t="str">
         <f>IF(_crushing_month_all!M97="","",_crushing_month_all!M97)</f>
         <v/>
       </c>
-      <c r="O100" s="28" t="str">
+      <c r="O100" s="1" t="str">
         <f>IF(_crushing_month_all!N97="","",_crushing_month_all!N97)</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:15">
-      <c r="B101" s="28" t="str">
+    <row r="101">
+      <c r="B101" s="1" t="str">
         <f>IF(_crushing_month_all!A98="","",_crushing_month_all!A98)</f>
         <v/>
       </c>
-      <c r="C101" s="28" t="str">
+      <c r="C101" s="1" t="str">
         <f>IF(_crushing_month_all!B98="","",_crushing_month_all!B98)</f>
         <v/>
       </c>
-      <c r="D101" s="28" t="str">
+      <c r="D101" s="1" t="str">
         <f>IF(_crushing_month_all!C98="","",_crushing_month_all!C98)</f>
         <v/>
       </c>
-      <c r="E101" s="28" t="str">
+      <c r="E101" s="1" t="str">
         <f>IF(_crushing_month_all!D98="","",_crushing_month_all!D98)</f>
         <v/>
       </c>
-      <c r="F101" s="28" t="str">
+      <c r="F101" s="1" t="str">
         <f>IF(_crushing_month_all!E98="","",_crushing_month_all!E98)</f>
         <v/>
       </c>
-      <c r="G101" s="28" t="str">
+      <c r="G101" s="1" t="str">
         <f>IF(_crushing_month_all!F98="","",_crushing_month_all!F98)</f>
         <v/>
       </c>
-      <c r="H101" s="28" t="str">
+      <c r="H101" s="1" t="str">
         <f>IF(_crushing_month_all!G98="","",_crushing_month_all!G98)</f>
         <v/>
       </c>
-      <c r="I101" s="28" t="str">
+      <c r="I101" s="1" t="str">
         <f>IF(_crushing_month_all!H98="","",_crushing_month_all!H98)</f>
         <v/>
       </c>
-      <c r="J101" s="28" t="str">
+      <c r="J101" s="1" t="str">
         <f>IF(_crushing_month_all!I98="","",_crushing_month_all!I98)</f>
         <v/>
       </c>
-      <c r="K101" s="28" t="str">
+      <c r="K101" s="1" t="str">
         <f>IF(_crushing_month_all!J98="","",_crushing_month_all!J98)</f>
         <v/>
       </c>
-      <c r="L101" s="28" t="str">
+      <c r="L101" s="1" t="str">
         <f>IF(_crushing_month_all!K98="","",_crushing_month_all!K98)</f>
         <v/>
       </c>
-      <c r="M101" s="28" t="str">
+      <c r="M101" s="1" t="str">
         <f>IF(_crushing_month_all!L98="","",_crushing_month_all!L98)</f>
         <v/>
       </c>
-      <c r="N101" s="28" t="str">
+      <c r="N101" s="1" t="str">
         <f>IF(_crushing_month_all!M98="","",_crushing_month_all!M98)</f>
         <v/>
       </c>
-      <c r="O101" s="28" t="str">
+      <c r="O101" s="1" t="str">
         <f>IF(_crushing_month_all!N98="","",_crushing_month_all!N98)</f>
         <v/>
       </c>
@@ -7178,116 +7355,114 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="18.2666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.45" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.3666666666667" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="5" style="32" width="9"/>
+    <col customWidth="1" min="6" max="6" style="32" width="18.266666666666701"/>
+    <col customWidth="1" min="7" max="7" style="32" width="23.449999999999999"/>
+    <col customWidth="1" min="8" max="8" style="32" width="17.366666666666699"/>
+    <col min="9" max="16384" style="32" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:14">
-      <c r="A1" s="2" t="s">
+    <row ht="13.5" r="1">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="33" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="0">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>